--- a/testdata/UpdateUserEntity.xlsx
+++ b/testdata/UpdateUserEntity.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\karthik\MightyPay System API\Test data\Test data - 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MightyPay\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D313F54-4985-491E-8D59-E77B1AA2336F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -29,10 +30,16 @@
     <definedName name="OLE_LINK63" localSheetId="1">UpdateUserEntity!#REF!</definedName>
     <definedName name="OLE_LINK8" localSheetId="1">UpdateUserEntity!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2623,7 +2630,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3030,15 +3037,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3057,12 +3055,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3075,17 +3067,14 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3126,11 +3115,29 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 8" xfId="1"/>
+    <cellStyle name="Normal 8" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3407,7 +3414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3485,14 +3492,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG387"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X1" sqref="X1:X387"/>
+      <selection pane="bottomRight" activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3586,7 +3593,7 @@
       <c r="W1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="47" t="s">
+      <c r="X1" s="73" t="s">
         <v>663</v>
       </c>
       <c r="Y1" s="46" t="s">
@@ -3618,10 +3625,10 @@
       </c>
     </row>
     <row r="2" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="50">
+      <c r="A2" s="47">
         <v>1</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="50" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -3687,7 +3694,7 @@
       <c r="W2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X2" s="48"/>
+      <c r="X2" s="74"/>
       <c r="Y2" s="43"/>
       <c r="Z2" s="43"/>
       <c r="AA2" s="43"/>
@@ -3701,9 +3708,9 @@
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="58" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="53" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="13" t="s">
@@ -3766,7 +3773,7 @@
       <c r="W3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X3" s="48"/>
+      <c r="X3" s="74"/>
       <c r="Y3" s="43"/>
       <c r="Z3" s="43"/>
       <c r="AA3" s="43"/>
@@ -3780,9 +3787,9 @@
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="58"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="13" t="s">
         <v>42</v>
       </c>
@@ -3843,7 +3850,7 @@
       <c r="W4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X4" s="48"/>
+      <c r="X4" s="74"/>
       <c r="Y4" s="43"/>
       <c r="Z4" s="43"/>
       <c r="AA4" s="43"/>
@@ -3857,9 +3864,9 @@
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="58"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="13" t="s">
         <v>45</v>
       </c>
@@ -3920,7 +3927,7 @@
       <c r="W5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X5" s="48"/>
+      <c r="X5" s="74"/>
       <c r="Y5" s="43"/>
       <c r="Z5" s="43"/>
       <c r="AA5" s="43"/>
@@ -3934,9 +3941,9 @@
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="58"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="13" t="s">
         <v>47</v>
       </c>
@@ -3997,7 +4004,7 @@
       <c r="W6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X6" s="48"/>
+      <c r="X6" s="74"/>
       <c r="Y6" s="43"/>
       <c r="Z6" s="43"/>
       <c r="AA6" s="43"/>
@@ -4011,9 +4018,9 @@
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="58"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="13" t="s">
         <v>50</v>
       </c>
@@ -4074,7 +4081,7 @@
       <c r="W7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X7" s="48"/>
+      <c r="X7" s="74"/>
       <c r="Y7" s="43"/>
       <c r="Z7" s="43"/>
       <c r="AA7" s="43"/>
@@ -4088,9 +4095,9 @@
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="58"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="13" t="s">
         <v>53</v>
       </c>
@@ -4151,7 +4158,7 @@
       <c r="W8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X8" s="48"/>
+      <c r="X8" s="74"/>
       <c r="Y8" s="43"/>
       <c r="Z8" s="43"/>
       <c r="AA8" s="43"/>
@@ -4165,9 +4172,9 @@
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="58"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="13" t="s">
         <v>56</v>
       </c>
@@ -4228,7 +4235,7 @@
       <c r="W9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X9" s="48"/>
+      <c r="X9" s="74"/>
       <c r="Y9" s="43"/>
       <c r="Z9" s="43"/>
       <c r="AA9" s="43"/>
@@ -4242,9 +4249,9 @@
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="58"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="13" t="s">
         <v>56</v>
       </c>
@@ -4305,7 +4312,7 @@
       <c r="W10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X10" s="48"/>
+      <c r="X10" s="74"/>
       <c r="Y10" s="43"/>
       <c r="Z10" s="43"/>
       <c r="AA10" s="43"/>
@@ -4319,9 +4326,9 @@
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="58"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="13" t="s">
         <v>56</v>
       </c>
@@ -4382,7 +4389,7 @@
       <c r="W11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X11" s="48"/>
+      <c r="X11" s="74"/>
       <c r="Y11" s="43"/>
       <c r="Z11" s="43"/>
       <c r="AA11" s="43"/>
@@ -4396,9 +4403,9 @@
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="58"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="13" t="s">
         <v>56</v>
       </c>
@@ -4459,7 +4466,7 @@
       <c r="W12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X12" s="48"/>
+      <c r="X12" s="74"/>
       <c r="Y12" s="43"/>
       <c r="Z12" s="43"/>
       <c r="AA12" s="43"/>
@@ -4473,9 +4480,9 @@
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="58"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="13" t="s">
         <v>56</v>
       </c>
@@ -4536,7 +4543,7 @@
       <c r="W13" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X13" s="48"/>
+      <c r="X13" s="74"/>
       <c r="Y13" s="43"/>
       <c r="Z13" s="43"/>
       <c r="AA13" s="43"/>
@@ -4550,9 +4557,9 @@
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="58"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="13" t="s">
         <v>56</v>
       </c>
@@ -4613,7 +4620,7 @@
       <c r="W14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X14" s="48"/>
+      <c r="X14" s="74"/>
       <c r="Y14" s="43"/>
       <c r="Z14" s="43"/>
       <c r="AA14" s="43"/>
@@ -4627,9 +4634,9 @@
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="58"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="13" t="s">
         <v>70</v>
       </c>
@@ -4690,7 +4697,7 @@
       <c r="W15" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X15" s="48"/>
+      <c r="X15" s="74"/>
       <c r="Y15" s="43"/>
       <c r="Z15" s="43"/>
       <c r="AA15" s="43"/>
@@ -4704,9 +4711,9 @@
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="58"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="13" t="s">
         <v>73</v>
       </c>
@@ -4767,7 +4774,7 @@
       <c r="W16" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X16" s="48"/>
+      <c r="X16" s="74"/>
       <c r="Y16" s="43"/>
       <c r="Z16" s="43"/>
       <c r="AA16" s="43"/>
@@ -4781,9 +4788,9 @@
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="58"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="53"/>
       <c r="D17" s="13" t="s">
         <v>76</v>
       </c>
@@ -4844,7 +4851,7 @@
       <c r="W17" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X17" s="48"/>
+      <c r="X17" s="74"/>
       <c r="Y17" s="43"/>
       <c r="Z17" s="43"/>
       <c r="AA17" s="43"/>
@@ -4858,9 +4865,9 @@
       </c>
     </row>
     <row r="18" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="58"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="13" t="s">
         <v>78</v>
       </c>
@@ -4921,7 +4928,7 @@
       <c r="W18" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X18" s="48"/>
+      <c r="X18" s="74"/>
       <c r="Y18" s="43"/>
       <c r="Z18" s="43"/>
       <c r="AA18" s="43"/>
@@ -4935,9 +4942,9 @@
       </c>
     </row>
     <row r="19" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="58"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="53"/>
       <c r="D19" s="13" t="s">
         <v>81</v>
       </c>
@@ -4998,7 +5005,7 @@
       <c r="W19" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X19" s="48"/>
+      <c r="X19" s="74"/>
       <c r="Y19" s="43"/>
       <c r="Z19" s="43"/>
       <c r="AA19" s="43"/>
@@ -5012,9 +5019,9 @@
       </c>
     </row>
     <row r="20" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="58"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="13" t="s">
         <v>84</v>
       </c>
@@ -5075,7 +5082,7 @@
       <c r="W20" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X20" s="48"/>
+      <c r="X20" s="74"/>
       <c r="Y20" s="43"/>
       <c r="Z20" s="43"/>
       <c r="AA20" s="43"/>
@@ -5089,9 +5096,9 @@
       </c>
     </row>
     <row r="21" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="58"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="53"/>
       <c r="D21" s="13" t="s">
         <v>87</v>
       </c>
@@ -5150,7 +5157,7 @@
       <c r="W21" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X21" s="48"/>
+      <c r="X21" s="74"/>
       <c r="Y21" s="43"/>
       <c r="Z21" s="43"/>
       <c r="AA21" s="43"/>
@@ -5164,9 +5171,9 @@
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="58"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="53"/>
       <c r="D22" s="13" t="s">
         <v>90</v>
       </c>
@@ -5225,7 +5232,7 @@
       <c r="W22" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X22" s="48"/>
+      <c r="X22" s="74"/>
       <c r="Y22" s="43"/>
       <c r="Z22" s="43"/>
       <c r="AA22" s="43"/>
@@ -5239,9 +5246,9 @@
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="59" t="s">
+      <c r="A23" s="48"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="54" t="s">
         <v>93</v>
       </c>
       <c r="D23" s="13" t="s">
@@ -5304,7 +5311,7 @@
       <c r="W23" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X23" s="48"/>
+      <c r="X23" s="74"/>
       <c r="Y23" s="43"/>
       <c r="Z23" s="43"/>
       <c r="AA23" s="43"/>
@@ -5318,9 +5325,9 @@
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="60"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="55"/>
       <c r="D24" s="13" t="s">
         <v>96</v>
       </c>
@@ -5379,7 +5386,7 @@
       <c r="W24" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X24" s="48"/>
+      <c r="X24" s="74"/>
       <c r="Y24" s="43"/>
       <c r="Z24" s="43"/>
       <c r="AA24" s="43"/>
@@ -5393,9 +5400,9 @@
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A25" s="52"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="61"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="56"/>
       <c r="D25" s="15" t="s">
         <v>98</v>
       </c>
@@ -5456,7 +5463,7 @@
       <c r="W25" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X25" s="48"/>
+      <c r="X25" s="74"/>
       <c r="Y25" s="43"/>
       <c r="Z25" s="43"/>
       <c r="AA25" s="43"/>
@@ -5470,10 +5477,10 @@
       </c>
     </row>
     <row r="26" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="50">
+      <c r="A26" s="47">
         <v>2</v>
       </c>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="50" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="19" t="s">
@@ -5539,7 +5546,7 @@
       <c r="W26" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X26" s="48"/>
+      <c r="X26" s="74"/>
       <c r="Y26" s="43"/>
       <c r="Z26" s="43"/>
       <c r="AA26" s="43"/>
@@ -5553,9 +5560,9 @@
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="58" t="s">
+      <c r="A27" s="48"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="53" t="s">
         <v>142</v>
       </c>
       <c r="D27" s="13" t="s">
@@ -5618,7 +5625,7 @@
       <c r="W27" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X27" s="48"/>
+      <c r="X27" s="74"/>
       <c r="Y27" s="43"/>
       <c r="Z27" s="43"/>
       <c r="AA27" s="43"/>
@@ -5632,9 +5639,9 @@
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="58"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="53"/>
       <c r="D28" s="13" t="s">
         <v>42</v>
       </c>
@@ -5695,7 +5702,7 @@
       <c r="W28" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X28" s="48"/>
+      <c r="X28" s="74"/>
       <c r="Y28" s="43"/>
       <c r="Z28" s="43"/>
       <c r="AA28" s="43"/>
@@ -5709,9 +5716,9 @@
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="58"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="53"/>
       <c r="D29" s="13" t="s">
         <v>45</v>
       </c>
@@ -5772,7 +5779,7 @@
       <c r="W29" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X29" s="48"/>
+      <c r="X29" s="74"/>
       <c r="Y29" s="43"/>
       <c r="Z29" s="43"/>
       <c r="AA29" s="43"/>
@@ -5786,9 +5793,9 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A30" s="51"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="58"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="53"/>
       <c r="D30" s="13" t="s">
         <v>47</v>
       </c>
@@ -5849,7 +5856,7 @@
       <c r="W30" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X30" s="48"/>
+      <c r="X30" s="74"/>
       <c r="Y30" s="43"/>
       <c r="Z30" s="43"/>
       <c r="AA30" s="43"/>
@@ -5863,9 +5870,9 @@
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="58"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="53"/>
       <c r="D31" s="13" t="s">
         <v>50</v>
       </c>
@@ -5926,7 +5933,7 @@
       <c r="W31" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X31" s="48"/>
+      <c r="X31" s="74"/>
       <c r="Y31" s="43"/>
       <c r="Z31" s="43"/>
       <c r="AA31" s="43"/>
@@ -5940,9 +5947,9 @@
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A32" s="51"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="58"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="53"/>
       <c r="D32" s="13" t="s">
         <v>53</v>
       </c>
@@ -6003,7 +6010,7 @@
       <c r="W32" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X32" s="48"/>
+      <c r="X32" s="74"/>
       <c r="Y32" s="43"/>
       <c r="Z32" s="43"/>
       <c r="AA32" s="43"/>
@@ -6017,9 +6024,9 @@
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="58"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="53"/>
       <c r="D33" s="13" t="s">
         <v>56</v>
       </c>
@@ -6080,7 +6087,7 @@
       <c r="W33" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X33" s="48"/>
+      <c r="X33" s="74"/>
       <c r="Y33" s="43"/>
       <c r="Z33" s="43"/>
       <c r="AA33" s="43"/>
@@ -6094,9 +6101,9 @@
       </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A34" s="51"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="58"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="53"/>
       <c r="D34" s="13" t="s">
         <v>56</v>
       </c>
@@ -6157,7 +6164,7 @@
       <c r="W34" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X34" s="48"/>
+      <c r="X34" s="74"/>
       <c r="Y34" s="43"/>
       <c r="Z34" s="43"/>
       <c r="AA34" s="43"/>
@@ -6171,9 +6178,9 @@
       </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A35" s="51"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="58"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="53"/>
       <c r="D35" s="13" t="s">
         <v>56</v>
       </c>
@@ -6234,7 +6241,7 @@
       <c r="W35" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X35" s="48"/>
+      <c r="X35" s="74"/>
       <c r="Y35" s="43"/>
       <c r="Z35" s="43"/>
       <c r="AA35" s="43"/>
@@ -6248,9 +6255,9 @@
       </c>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A36" s="51"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="58"/>
+      <c r="A36" s="48"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="53"/>
       <c r="D36" s="13" t="s">
         <v>70</v>
       </c>
@@ -6311,7 +6318,7 @@
       <c r="W36" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X36" s="48"/>
+      <c r="X36" s="74"/>
       <c r="Y36" s="43"/>
       <c r="Z36" s="43"/>
       <c r="AA36" s="43"/>
@@ -6325,9 +6332,9 @@
       </c>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A37" s="51"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="58"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="53"/>
       <c r="D37" s="13" t="s">
         <v>73</v>
       </c>
@@ -6388,7 +6395,7 @@
       <c r="W37" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X37" s="48"/>
+      <c r="X37" s="74"/>
       <c r="Y37" s="43"/>
       <c r="Z37" s="43"/>
       <c r="AA37" s="43"/>
@@ -6402,9 +6409,9 @@
       </c>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A38" s="51"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="58"/>
+      <c r="A38" s="48"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="53"/>
       <c r="D38" s="13" t="s">
         <v>76</v>
       </c>
@@ -6465,7 +6472,7 @@
       <c r="W38" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X38" s="48"/>
+      <c r="X38" s="74"/>
       <c r="Y38" s="43"/>
       <c r="Z38" s="43"/>
       <c r="AA38" s="43"/>
@@ -6479,9 +6486,9 @@
       </c>
     </row>
     <row r="39" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="51"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="58"/>
+      <c r="A39" s="48"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="53"/>
       <c r="D39" s="13" t="s">
         <v>78</v>
       </c>
@@ -6542,7 +6549,7 @@
       <c r="W39" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X39" s="48"/>
+      <c r="X39" s="74"/>
       <c r="Y39" s="43"/>
       <c r="Z39" s="43"/>
       <c r="AA39" s="43"/>
@@ -6556,9 +6563,9 @@
       </c>
     </row>
     <row r="40" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="51"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="58"/>
+      <c r="A40" s="48"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="53"/>
       <c r="D40" s="13" t="s">
         <v>81</v>
       </c>
@@ -6619,7 +6626,7 @@
       <c r="W40" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X40" s="48"/>
+      <c r="X40" s="74"/>
       <c r="Y40" s="43"/>
       <c r="Z40" s="43"/>
       <c r="AA40" s="43"/>
@@ -6633,9 +6640,9 @@
       </c>
     </row>
     <row r="41" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="51"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="58"/>
+      <c r="A41" s="48"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="53"/>
       <c r="D41" s="13" t="s">
         <v>84</v>
       </c>
@@ -6696,7 +6703,7 @@
       <c r="W41" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X41" s="48"/>
+      <c r="X41" s="74"/>
       <c r="Y41" s="43"/>
       <c r="Z41" s="43"/>
       <c r="AA41" s="43"/>
@@ -6710,9 +6717,9 @@
       </c>
     </row>
     <row r="42" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="51"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="58"/>
+      <c r="A42" s="48"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="53"/>
       <c r="D42" s="13" t="s">
         <v>87</v>
       </c>
@@ -6771,7 +6778,7 @@
       <c r="W42" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X42" s="48"/>
+      <c r="X42" s="74"/>
       <c r="Y42" s="43"/>
       <c r="Z42" s="43"/>
       <c r="AA42" s="43"/>
@@ -6785,9 +6792,9 @@
       </c>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A43" s="51"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="58"/>
+      <c r="A43" s="48"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="53"/>
       <c r="D43" s="13" t="s">
         <v>90</v>
       </c>
@@ -6846,7 +6853,7 @@
       <c r="W43" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X43" s="48"/>
+      <c r="X43" s="74"/>
       <c r="Y43" s="43"/>
       <c r="Z43" s="43"/>
       <c r="AA43" s="43"/>
@@ -6860,9 +6867,9 @@
       </c>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A44" s="51"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="59" t="s">
+      <c r="A44" s="48"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="54" t="s">
         <v>93</v>
       </c>
       <c r="D44" s="13" t="s">
@@ -6925,7 +6932,7 @@
       <c r="W44" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X44" s="48"/>
+      <c r="X44" s="74"/>
       <c r="Y44" s="43"/>
       <c r="Z44" s="43"/>
       <c r="AA44" s="43"/>
@@ -6939,9 +6946,9 @@
       </c>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A45" s="51"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="60"/>
+      <c r="A45" s="48"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="55"/>
       <c r="D45" s="13" t="s">
         <v>96</v>
       </c>
@@ -7000,7 +7007,7 @@
       <c r="W45" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X45" s="48"/>
+      <c r="X45" s="74"/>
       <c r="Y45" s="43"/>
       <c r="Z45" s="43"/>
       <c r="AA45" s="43"/>
@@ -7014,9 +7021,9 @@
       </c>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A46" s="52"/>
-      <c r="B46" s="55"/>
-      <c r="C46" s="61"/>
+      <c r="A46" s="49"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="56"/>
       <c r="D46" s="15" t="s">
         <v>98</v>
       </c>
@@ -7077,7 +7084,7 @@
       <c r="W46" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X46" s="48"/>
+      <c r="X46" s="74"/>
       <c r="Y46" s="43"/>
       <c r="Z46" s="43"/>
       <c r="AA46" s="43"/>
@@ -7091,10 +7098,10 @@
       </c>
     </row>
     <row r="47" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="50">
+      <c r="A47" s="47">
         <v>3</v>
       </c>
-      <c r="B47" s="53" t="s">
+      <c r="B47" s="50" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="5" t="s">
@@ -7160,7 +7167,7 @@
       <c r="W47" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X47" s="48"/>
+      <c r="X47" s="74"/>
       <c r="Y47" s="43"/>
       <c r="Z47" s="43"/>
       <c r="AA47" s="43"/>
@@ -7174,9 +7181,9 @@
       </c>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A48" s="51"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="58" t="s">
+      <c r="A48" s="48"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="53" t="s">
         <v>103</v>
       </c>
       <c r="D48" s="13" t="s">
@@ -7239,7 +7246,7 @@
       <c r="W48" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X48" s="48"/>
+      <c r="X48" s="74"/>
       <c r="Y48" s="43"/>
       <c r="Z48" s="43"/>
       <c r="AA48" s="43"/>
@@ -7253,9 +7260,9 @@
       </c>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A49" s="51"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="58"/>
+      <c r="A49" s="48"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="53"/>
       <c r="D49" s="13" t="s">
         <v>42</v>
       </c>
@@ -7316,7 +7323,7 @@
       <c r="W49" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X49" s="48"/>
+      <c r="X49" s="74"/>
       <c r="Y49" s="43"/>
       <c r="Z49" s="43"/>
       <c r="AA49" s="43"/>
@@ -7330,9 +7337,9 @@
       </c>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A50" s="51"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="58"/>
+      <c r="A50" s="48"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="53"/>
       <c r="D50" s="13" t="s">
         <v>45</v>
       </c>
@@ -7393,7 +7400,7 @@
       <c r="W50" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X50" s="48"/>
+      <c r="X50" s="74"/>
       <c r="Y50" s="43"/>
       <c r="Z50" s="43"/>
       <c r="AA50" s="43"/>
@@ -7407,9 +7414,9 @@
       </c>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A51" s="51"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="58"/>
+      <c r="A51" s="48"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="53"/>
       <c r="D51" s="13" t="s">
         <v>47</v>
       </c>
@@ -7470,7 +7477,7 @@
       <c r="W51" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X51" s="48"/>
+      <c r="X51" s="74"/>
       <c r="Y51" s="43"/>
       <c r="Z51" s="43"/>
       <c r="AA51" s="43"/>
@@ -7484,9 +7491,9 @@
       </c>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A52" s="51"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="58"/>
+      <c r="A52" s="48"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="53"/>
       <c r="D52" s="13" t="s">
         <v>50</v>
       </c>
@@ -7547,7 +7554,7 @@
       <c r="W52" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X52" s="48"/>
+      <c r="X52" s="74"/>
       <c r="Y52" s="43"/>
       <c r="Z52" s="43"/>
       <c r="AA52" s="43"/>
@@ -7561,9 +7568,9 @@
       </c>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A53" s="51"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="58"/>
+      <c r="A53" s="48"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="53"/>
       <c r="D53" s="13" t="s">
         <v>53</v>
       </c>
@@ -7624,7 +7631,7 @@
       <c r="W53" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X53" s="48"/>
+      <c r="X53" s="74"/>
       <c r="Y53" s="43"/>
       <c r="Z53" s="43"/>
       <c r="AA53" s="43"/>
@@ -7638,9 +7645,9 @@
       </c>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A54" s="51"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="58"/>
+      <c r="A54" s="48"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="53"/>
       <c r="D54" s="13" t="s">
         <v>56</v>
       </c>
@@ -7701,7 +7708,7 @@
       <c r="W54" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X54" s="48"/>
+      <c r="X54" s="74"/>
       <c r="Y54" s="43"/>
       <c r="Z54" s="43"/>
       <c r="AA54" s="43"/>
@@ -7715,9 +7722,9 @@
       </c>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A55" s="51"/>
-      <c r="B55" s="54"/>
-      <c r="C55" s="58"/>
+      <c r="A55" s="48"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="53"/>
       <c r="D55" s="13" t="s">
         <v>56</v>
       </c>
@@ -7778,7 +7785,7 @@
       <c r="W55" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X55" s="48"/>
+      <c r="X55" s="74"/>
       <c r="Y55" s="43"/>
       <c r="Z55" s="43"/>
       <c r="AA55" s="43"/>
@@ -7792,9 +7799,9 @@
       </c>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A56" s="51"/>
-      <c r="B56" s="54"/>
-      <c r="C56" s="58"/>
+      <c r="A56" s="48"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="53"/>
       <c r="D56" s="13" t="s">
         <v>56</v>
       </c>
@@ -7855,7 +7862,7 @@
       <c r="W56" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X56" s="48"/>
+      <c r="X56" s="74"/>
       <c r="Y56" s="43"/>
       <c r="Z56" s="43"/>
       <c r="AA56" s="43"/>
@@ -7869,9 +7876,9 @@
       </c>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A57" s="51"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="58"/>
+      <c r="A57" s="48"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="53"/>
       <c r="D57" s="13" t="s">
         <v>70</v>
       </c>
@@ -7932,7 +7939,7 @@
       <c r="W57" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X57" s="48"/>
+      <c r="X57" s="74"/>
       <c r="Y57" s="43"/>
       <c r="Z57" s="43"/>
       <c r="AA57" s="43"/>
@@ -7946,9 +7953,9 @@
       </c>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A58" s="51"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="58"/>
+      <c r="A58" s="48"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="53"/>
       <c r="D58" s="13" t="s">
         <v>73</v>
       </c>
@@ -8009,7 +8016,7 @@
       <c r="W58" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X58" s="48"/>
+      <c r="X58" s="74"/>
       <c r="Y58" s="43"/>
       <c r="Z58" s="43"/>
       <c r="AA58" s="43"/>
@@ -8023,9 +8030,9 @@
       </c>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A59" s="51"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="58"/>
+      <c r="A59" s="48"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="53"/>
       <c r="D59" s="13" t="s">
         <v>76</v>
       </c>
@@ -8086,7 +8093,7 @@
       <c r="W59" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X59" s="48"/>
+      <c r="X59" s="74"/>
       <c r="Y59" s="43"/>
       <c r="Z59" s="43"/>
       <c r="AA59" s="43"/>
@@ -8100,9 +8107,9 @@
       </c>
     </row>
     <row r="60" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="51"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="58"/>
+      <c r="A60" s="48"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="53"/>
       <c r="D60" s="13" t="s">
         <v>78</v>
       </c>
@@ -8163,7 +8170,7 @@
       <c r="W60" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X60" s="48"/>
+      <c r="X60" s="74"/>
       <c r="Y60" s="43"/>
       <c r="Z60" s="43"/>
       <c r="AA60" s="43"/>
@@ -8177,9 +8184,9 @@
       </c>
     </row>
     <row r="61" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="51"/>
-      <c r="B61" s="54"/>
-      <c r="C61" s="58"/>
+      <c r="A61" s="48"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="53"/>
       <c r="D61" s="13" t="s">
         <v>81</v>
       </c>
@@ -8240,7 +8247,7 @@
       <c r="W61" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X61" s="48"/>
+      <c r="X61" s="74"/>
       <c r="Y61" s="43"/>
       <c r="Z61" s="43"/>
       <c r="AA61" s="43"/>
@@ -8254,9 +8261,9 @@
       </c>
     </row>
     <row r="62" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="51"/>
-      <c r="B62" s="54"/>
-      <c r="C62" s="58"/>
+      <c r="A62" s="48"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="53"/>
       <c r="D62" s="13" t="s">
         <v>84</v>
       </c>
@@ -8317,7 +8324,7 @@
       <c r="W62" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X62" s="48"/>
+      <c r="X62" s="74"/>
       <c r="Y62" s="43"/>
       <c r="Z62" s="43"/>
       <c r="AA62" s="43"/>
@@ -8331,9 +8338,9 @@
       </c>
     </row>
     <row r="63" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="51"/>
-      <c r="B63" s="54"/>
-      <c r="C63" s="58"/>
+      <c r="A63" s="48"/>
+      <c r="B63" s="51"/>
+      <c r="C63" s="53"/>
       <c r="D63" s="13" t="s">
         <v>87</v>
       </c>
@@ -8392,7 +8399,7 @@
       <c r="W63" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X63" s="48"/>
+      <c r="X63" s="74"/>
       <c r="Y63" s="43"/>
       <c r="Z63" s="43"/>
       <c r="AA63" s="43"/>
@@ -8406,9 +8413,9 @@
       </c>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A64" s="51"/>
-      <c r="B64" s="54"/>
-      <c r="C64" s="58"/>
+      <c r="A64" s="48"/>
+      <c r="B64" s="51"/>
+      <c r="C64" s="53"/>
       <c r="D64" s="13" t="s">
         <v>90</v>
       </c>
@@ -8467,7 +8474,7 @@
       <c r="W64" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X64" s="48"/>
+      <c r="X64" s="74"/>
       <c r="Y64" s="43"/>
       <c r="Z64" s="43"/>
       <c r="AA64" s="43"/>
@@ -8481,9 +8488,9 @@
       </c>
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A65" s="51"/>
-      <c r="B65" s="54"/>
-      <c r="C65" s="59" t="s">
+      <c r="A65" s="48"/>
+      <c r="B65" s="51"/>
+      <c r="C65" s="54" t="s">
         <v>93</v>
       </c>
       <c r="D65" s="13" t="s">
@@ -8546,7 +8553,7 @@
       <c r="W65" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X65" s="48"/>
+      <c r="X65" s="74"/>
       <c r="Y65" s="43"/>
       <c r="Z65" s="43"/>
       <c r="AA65" s="43"/>
@@ -8560,9 +8567,9 @@
       </c>
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A66" s="51"/>
-      <c r="B66" s="54"/>
-      <c r="C66" s="60"/>
+      <c r="A66" s="48"/>
+      <c r="B66" s="51"/>
+      <c r="C66" s="55"/>
       <c r="D66" s="13" t="s">
         <v>96</v>
       </c>
@@ -8621,7 +8628,7 @@
       <c r="W66" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X66" s="48"/>
+      <c r="X66" s="74"/>
       <c r="Y66" s="43"/>
       <c r="Z66" s="43"/>
       <c r="AA66" s="43"/>
@@ -8635,9 +8642,9 @@
       </c>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A67" s="52"/>
-      <c r="B67" s="55"/>
-      <c r="C67" s="61"/>
+      <c r="A67" s="49"/>
+      <c r="B67" s="52"/>
+      <c r="C67" s="56"/>
       <c r="D67" s="15" t="s">
         <v>98</v>
       </c>
@@ -8698,7 +8705,7 @@
       <c r="W67" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X67" s="48"/>
+      <c r="X67" s="74"/>
       <c r="Y67" s="43"/>
       <c r="Z67" s="43"/>
       <c r="AA67" s="43"/>
@@ -8712,13 +8719,13 @@
       </c>
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A68" s="50">
+      <c r="A68" s="47">
         <v>4</v>
       </c>
-      <c r="B68" s="53" t="s">
+      <c r="B68" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C68" s="56" t="s">
+      <c r="C68" s="57" t="s">
         <v>260</v>
       </c>
       <c r="D68" s="6" t="s">
@@ -8781,7 +8788,7 @@
       <c r="W68" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X68" s="48"/>
+      <c r="X68" s="74"/>
       <c r="Y68" s="43"/>
       <c r="Z68" s="43"/>
       <c r="AA68" s="6"/>
@@ -8795,9 +8802,9 @@
       </c>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A69" s="51"/>
-      <c r="B69" s="54"/>
-      <c r="C69" s="57"/>
+      <c r="A69" s="48"/>
+      <c r="B69" s="51"/>
+      <c r="C69" s="58"/>
       <c r="D69" s="6" t="s">
         <v>171</v>
       </c>
@@ -8858,7 +8865,7 @@
       <c r="W69" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X69" s="48"/>
+      <c r="X69" s="74"/>
       <c r="Y69" s="43"/>
       <c r="Z69" s="43"/>
       <c r="AA69" s="6"/>
@@ -8872,9 +8879,9 @@
       </c>
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A70" s="51"/>
-      <c r="B70" s="54"/>
-      <c r="C70" s="57"/>
+      <c r="A70" s="48"/>
+      <c r="B70" s="51"/>
+      <c r="C70" s="58"/>
       <c r="D70" s="6" t="s">
         <v>263</v>
       </c>
@@ -8935,7 +8942,7 @@
       <c r="W70" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X70" s="48"/>
+      <c r="X70" s="74"/>
       <c r="Y70" s="43"/>
       <c r="Z70" s="43"/>
       <c r="AA70" s="6"/>
@@ -8949,9 +8956,9 @@
       </c>
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A71" s="51"/>
-      <c r="B71" s="54"/>
-      <c r="C71" s="57"/>
+      <c r="A71" s="48"/>
+      <c r="B71" s="51"/>
+      <c r="C71" s="58"/>
       <c r="D71" s="6" t="s">
         <v>266</v>
       </c>
@@ -9012,7 +9019,7 @@
       <c r="W71" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X71" s="48"/>
+      <c r="X71" s="74"/>
       <c r="Y71" s="43"/>
       <c r="Z71" s="43"/>
       <c r="AA71" s="6"/>
@@ -9026,9 +9033,9 @@
       </c>
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A72" s="51"/>
-      <c r="B72" s="54"/>
-      <c r="C72" s="62"/>
+      <c r="A72" s="48"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="59"/>
       <c r="D72" s="6" t="s">
         <v>269</v>
       </c>
@@ -9089,7 +9096,7 @@
       <c r="W72" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X72" s="48"/>
+      <c r="X72" s="74"/>
       <c r="Y72" s="43"/>
       <c r="Z72" s="43"/>
       <c r="AA72" s="6"/>
@@ -9103,9 +9110,9 @@
       </c>
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A73" s="51"/>
-      <c r="B73" s="54"/>
-      <c r="C73" s="58" t="s">
+      <c r="A73" s="48"/>
+      <c r="B73" s="51"/>
+      <c r="C73" s="53" t="s">
         <v>272</v>
       </c>
       <c r="D73" s="13" t="s">
@@ -9168,7 +9175,7 @@
       <c r="W73" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X73" s="48"/>
+      <c r="X73" s="74"/>
       <c r="Y73" s="43"/>
       <c r="Z73" s="43"/>
       <c r="AA73" s="6"/>
@@ -9182,9 +9189,9 @@
       </c>
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A74" s="51"/>
-      <c r="B74" s="54"/>
-      <c r="C74" s="58"/>
+      <c r="A74" s="48"/>
+      <c r="B74" s="51"/>
+      <c r="C74" s="53"/>
       <c r="D74" s="13" t="s">
         <v>42</v>
       </c>
@@ -9245,7 +9252,7 @@
       <c r="W74" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X74" s="48"/>
+      <c r="X74" s="74"/>
       <c r="Y74" s="43"/>
       <c r="Z74" s="43"/>
       <c r="AA74" s="6"/>
@@ -9259,9 +9266,9 @@
       </c>
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A75" s="51"/>
-      <c r="B75" s="54"/>
-      <c r="C75" s="58"/>
+      <c r="A75" s="48"/>
+      <c r="B75" s="51"/>
+      <c r="C75" s="53"/>
       <c r="D75" s="13" t="s">
         <v>45</v>
       </c>
@@ -9322,7 +9329,7 @@
       <c r="W75" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X75" s="48"/>
+      <c r="X75" s="74"/>
       <c r="Y75" s="43"/>
       <c r="Z75" s="43"/>
       <c r="AA75" s="6"/>
@@ -9336,9 +9343,9 @@
       </c>
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A76" s="51"/>
-      <c r="B76" s="54"/>
-      <c r="C76" s="58"/>
+      <c r="A76" s="48"/>
+      <c r="B76" s="51"/>
+      <c r="C76" s="53"/>
       <c r="D76" s="13" t="s">
         <v>47</v>
       </c>
@@ -9399,7 +9406,7 @@
       <c r="W76" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X76" s="48"/>
+      <c r="X76" s="74"/>
       <c r="Y76" s="43"/>
       <c r="Z76" s="43"/>
       <c r="AA76" s="6"/>
@@ -9413,9 +9420,9 @@
       </c>
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A77" s="51"/>
-      <c r="B77" s="54"/>
-      <c r="C77" s="58"/>
+      <c r="A77" s="48"/>
+      <c r="B77" s="51"/>
+      <c r="C77" s="53"/>
       <c r="D77" s="13" t="s">
         <v>50</v>
       </c>
@@ -9476,7 +9483,7 @@
       <c r="W77" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X77" s="48"/>
+      <c r="X77" s="74"/>
       <c r="Y77" s="43"/>
       <c r="Z77" s="43"/>
       <c r="AA77" s="6"/>
@@ -9490,9 +9497,9 @@
       </c>
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A78" s="51"/>
-      <c r="B78" s="54"/>
-      <c r="C78" s="58"/>
+      <c r="A78" s="48"/>
+      <c r="B78" s="51"/>
+      <c r="C78" s="53"/>
       <c r="D78" s="13" t="s">
         <v>53</v>
       </c>
@@ -9553,7 +9560,7 @@
       <c r="W78" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X78" s="48"/>
+      <c r="X78" s="74"/>
       <c r="Y78" s="43"/>
       <c r="Z78" s="43"/>
       <c r="AA78" s="6"/>
@@ -9567,9 +9574,9 @@
       </c>
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A79" s="51"/>
-      <c r="B79" s="54"/>
-      <c r="C79" s="58"/>
+      <c r="A79" s="48"/>
+      <c r="B79" s="51"/>
+      <c r="C79" s="53"/>
       <c r="D79" s="13" t="s">
         <v>56</v>
       </c>
@@ -9630,7 +9637,7 @@
       <c r="W79" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X79" s="48"/>
+      <c r="X79" s="74"/>
       <c r="Y79" s="43"/>
       <c r="Z79" s="43"/>
       <c r="AA79" s="6"/>
@@ -9644,9 +9651,9 @@
       </c>
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A80" s="51"/>
-      <c r="B80" s="54"/>
-      <c r="C80" s="58"/>
+      <c r="A80" s="48"/>
+      <c r="B80" s="51"/>
+      <c r="C80" s="53"/>
       <c r="D80" s="13" t="s">
         <v>56</v>
       </c>
@@ -9707,7 +9714,7 @@
       <c r="W80" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X80" s="48"/>
+      <c r="X80" s="74"/>
       <c r="Y80" s="43"/>
       <c r="Z80" s="43"/>
       <c r="AA80" s="6"/>
@@ -9721,9 +9728,9 @@
       </c>
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A81" s="51"/>
-      <c r="B81" s="54"/>
-      <c r="C81" s="58"/>
+      <c r="A81" s="48"/>
+      <c r="B81" s="51"/>
+      <c r="C81" s="53"/>
       <c r="D81" s="13" t="s">
         <v>56</v>
       </c>
@@ -9784,7 +9791,7 @@
       <c r="W81" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X81" s="48"/>
+      <c r="X81" s="74"/>
       <c r="Y81" s="43"/>
       <c r="Z81" s="43"/>
       <c r="AA81" s="6"/>
@@ -9798,9 +9805,9 @@
       </c>
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A82" s="51"/>
-      <c r="B82" s="54"/>
-      <c r="C82" s="58"/>
+      <c r="A82" s="48"/>
+      <c r="B82" s="51"/>
+      <c r="C82" s="53"/>
       <c r="D82" s="13" t="s">
         <v>70</v>
       </c>
@@ -9861,7 +9868,7 @@
       <c r="W82" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X82" s="48"/>
+      <c r="X82" s="74"/>
       <c r="Y82" s="43"/>
       <c r="Z82" s="43"/>
       <c r="AA82" s="6"/>
@@ -9875,9 +9882,9 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A83" s="51"/>
-      <c r="B83" s="54"/>
-      <c r="C83" s="58"/>
+      <c r="A83" s="48"/>
+      <c r="B83" s="51"/>
+      <c r="C83" s="53"/>
       <c r="D83" s="13" t="s">
         <v>73</v>
       </c>
@@ -9938,7 +9945,7 @@
       <c r="W83" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X83" s="48"/>
+      <c r="X83" s="74"/>
       <c r="Y83" s="43"/>
       <c r="Z83" s="43"/>
       <c r="AA83" s="6"/>
@@ -9952,9 +9959,9 @@
       </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A84" s="51"/>
-      <c r="B84" s="54"/>
-      <c r="C84" s="58"/>
+      <c r="A84" s="48"/>
+      <c r="B84" s="51"/>
+      <c r="C84" s="53"/>
       <c r="D84" s="13" t="s">
         <v>76</v>
       </c>
@@ -10015,7 +10022,7 @@
       <c r="W84" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X84" s="48"/>
+      <c r="X84" s="74"/>
       <c r="Y84" s="43"/>
       <c r="Z84" s="43"/>
       <c r="AA84" s="6"/>
@@ -10029,9 +10036,9 @@
       </c>
     </row>
     <row r="85" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="51"/>
-      <c r="B85" s="54"/>
-      <c r="C85" s="58"/>
+      <c r="A85" s="48"/>
+      <c r="B85" s="51"/>
+      <c r="C85" s="53"/>
       <c r="D85" s="13" t="s">
         <v>78</v>
       </c>
@@ -10092,7 +10099,7 @@
       <c r="W85" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X85" s="48"/>
+      <c r="X85" s="74"/>
       <c r="Y85" s="43"/>
       <c r="Z85" s="43"/>
       <c r="AA85" s="6"/>
@@ -10106,9 +10113,9 @@
       </c>
     </row>
     <row r="86" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="51"/>
-      <c r="B86" s="54"/>
-      <c r="C86" s="58"/>
+      <c r="A86" s="48"/>
+      <c r="B86" s="51"/>
+      <c r="C86" s="53"/>
       <c r="D86" s="13" t="s">
         <v>81</v>
       </c>
@@ -10169,7 +10176,7 @@
       <c r="W86" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X86" s="48"/>
+      <c r="X86" s="74"/>
       <c r="Y86" s="43"/>
       <c r="Z86" s="43"/>
       <c r="AA86" s="6"/>
@@ -10183,9 +10190,9 @@
       </c>
     </row>
     <row r="87" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="51"/>
-      <c r="B87" s="54"/>
-      <c r="C87" s="58"/>
+      <c r="A87" s="48"/>
+      <c r="B87" s="51"/>
+      <c r="C87" s="53"/>
       <c r="D87" s="13" t="s">
         <v>84</v>
       </c>
@@ -10246,7 +10253,7 @@
       <c r="W87" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X87" s="48"/>
+      <c r="X87" s="74"/>
       <c r="Y87" s="43"/>
       <c r="Z87" s="43"/>
       <c r="AA87" s="6"/>
@@ -10260,9 +10267,9 @@
       </c>
     </row>
     <row r="88" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="51"/>
-      <c r="B88" s="54"/>
-      <c r="C88" s="58"/>
+      <c r="A88" s="48"/>
+      <c r="B88" s="51"/>
+      <c r="C88" s="53"/>
       <c r="D88" s="13" t="s">
         <v>87</v>
       </c>
@@ -10321,7 +10328,7 @@
       <c r="W88" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X88" s="48"/>
+      <c r="X88" s="74"/>
       <c r="Y88" s="43"/>
       <c r="Z88" s="43"/>
       <c r="AA88" s="6"/>
@@ -10335,9 +10342,9 @@
       </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A89" s="51"/>
-      <c r="B89" s="54"/>
-      <c r="C89" s="58"/>
+      <c r="A89" s="48"/>
+      <c r="B89" s="51"/>
+      <c r="C89" s="53"/>
       <c r="D89" s="13" t="s">
         <v>90</v>
       </c>
@@ -10396,7 +10403,7 @@
       <c r="W89" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X89" s="48"/>
+      <c r="X89" s="74"/>
       <c r="Y89" s="43"/>
       <c r="Z89" s="43"/>
       <c r="AA89" s="6"/>
@@ -10410,9 +10417,9 @@
       </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A90" s="51"/>
-      <c r="B90" s="54"/>
-      <c r="C90" s="59" t="s">
+      <c r="A90" s="48"/>
+      <c r="B90" s="51"/>
+      <c r="C90" s="54" t="s">
         <v>256</v>
       </c>
       <c r="D90" s="13" t="s">
@@ -10475,7 +10482,7 @@
       <c r="W90" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X90" s="48"/>
+      <c r="X90" s="74"/>
       <c r="Y90" s="43"/>
       <c r="Z90" s="43"/>
       <c r="AA90" s="6"/>
@@ -10489,9 +10496,9 @@
       </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A91" s="51"/>
-      <c r="B91" s="54"/>
-      <c r="C91" s="60"/>
+      <c r="A91" s="48"/>
+      <c r="B91" s="51"/>
+      <c r="C91" s="55"/>
       <c r="D91" s="13" t="s">
         <v>96</v>
       </c>
@@ -10550,7 +10557,7 @@
       <c r="W91" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X91" s="48"/>
+      <c r="X91" s="74"/>
       <c r="Y91" s="43"/>
       <c r="Z91" s="43"/>
       <c r="AA91" s="6"/>
@@ -10564,9 +10571,9 @@
       </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A92" s="52"/>
-      <c r="B92" s="55"/>
-      <c r="C92" s="61"/>
+      <c r="A92" s="49"/>
+      <c r="B92" s="52"/>
+      <c r="C92" s="56"/>
       <c r="D92" s="15" t="s">
         <v>98</v>
       </c>
@@ -10627,7 +10634,7 @@
       <c r="W92" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X92" s="48"/>
+      <c r="X92" s="74"/>
       <c r="Y92" s="43"/>
       <c r="Z92" s="43"/>
       <c r="AA92" s="6"/>
@@ -10641,16 +10648,16 @@
       </c>
     </row>
     <row r="93" spans="1:33" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="50">
+      <c r="A93" s="47">
         <v>4</v>
       </c>
-      <c r="B93" s="53" t="s">
+      <c r="B93" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C93" s="66" t="s">
+      <c r="C93" s="60" t="s">
         <v>301</v>
       </c>
-      <c r="D93" s="69" t="s">
+      <c r="D93" s="63" t="s">
         <v>302</v>
       </c>
       <c r="E93" s="7" t="s">
@@ -10710,7 +10717,7 @@
       <c r="W93" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X93" s="48"/>
+      <c r="X93" s="74"/>
       <c r="Y93" s="43"/>
       <c r="Z93" s="43"/>
       <c r="AA93" s="43"/>
@@ -10724,10 +10731,10 @@
       </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A94" s="51"/>
-      <c r="B94" s="54"/>
-      <c r="C94" s="67"/>
-      <c r="D94" s="70"/>
+      <c r="A94" s="48"/>
+      <c r="B94" s="51"/>
+      <c r="C94" s="61"/>
+      <c r="D94" s="64"/>
       <c r="E94" s="7" t="s">
         <v>26</v>
       </c>
@@ -10785,7 +10792,7 @@
       <c r="W94" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X94" s="48"/>
+      <c r="X94" s="74"/>
       <c r="Y94" s="43"/>
       <c r="Z94" s="43"/>
       <c r="AA94" s="43"/>
@@ -10799,10 +10806,10 @@
       </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A95" s="51"/>
-      <c r="B95" s="54"/>
-      <c r="C95" s="67"/>
-      <c r="D95" s="71"/>
+      <c r="A95" s="48"/>
+      <c r="B95" s="51"/>
+      <c r="C95" s="61"/>
+      <c r="D95" s="65"/>
       <c r="E95" s="7" t="s">
         <v>26</v>
       </c>
@@ -10860,7 +10867,7 @@
       <c r="W95" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X95" s="48"/>
+      <c r="X95" s="74"/>
       <c r="Y95" s="43"/>
       <c r="Z95" s="43"/>
       <c r="AA95" s="43"/>
@@ -10874,9 +10881,9 @@
       </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A96" s="51"/>
-      <c r="B96" s="54"/>
-      <c r="C96" s="67"/>
+      <c r="A96" s="48"/>
+      <c r="B96" s="51"/>
+      <c r="C96" s="61"/>
       <c r="D96" s="13" t="s">
         <v>308</v>
       </c>
@@ -10937,7 +10944,7 @@
       <c r="W96" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X96" s="48"/>
+      <c r="X96" s="74"/>
       <c r="Y96" s="43"/>
       <c r="Z96" s="43"/>
       <c r="AA96" s="43"/>
@@ -10951,9 +10958,9 @@
       </c>
     </row>
     <row r="97" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A97" s="51"/>
-      <c r="B97" s="54"/>
-      <c r="C97" s="67"/>
+      <c r="A97" s="48"/>
+      <c r="B97" s="51"/>
+      <c r="C97" s="61"/>
       <c r="D97" s="13" t="s">
         <v>310</v>
       </c>
@@ -11014,7 +11021,7 @@
       <c r="W97" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X97" s="48"/>
+      <c r="X97" s="74"/>
       <c r="Y97" s="43"/>
       <c r="Z97" s="43"/>
       <c r="AA97" s="43"/>
@@ -11028,9 +11035,9 @@
       </c>
     </row>
     <row r="98" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A98" s="51"/>
-      <c r="B98" s="54"/>
-      <c r="C98" s="67"/>
+      <c r="A98" s="48"/>
+      <c r="B98" s="51"/>
+      <c r="C98" s="61"/>
       <c r="D98" s="13" t="s">
         <v>312</v>
       </c>
@@ -11091,7 +11098,7 @@
       <c r="W98" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X98" s="48"/>
+      <c r="X98" s="74"/>
       <c r="Y98" s="43"/>
       <c r="Z98" s="43"/>
       <c r="AA98" s="43"/>
@@ -11105,9 +11112,9 @@
       </c>
     </row>
     <row r="99" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="51"/>
-      <c r="B99" s="54"/>
-      <c r="C99" s="67"/>
+      <c r="A99" s="48"/>
+      <c r="B99" s="51"/>
+      <c r="C99" s="61"/>
       <c r="D99" s="13" t="s">
         <v>314</v>
       </c>
@@ -11168,7 +11175,7 @@
       <c r="W99" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X99" s="48"/>
+      <c r="X99" s="74"/>
       <c r="Y99" s="43"/>
       <c r="Z99" s="43"/>
       <c r="AA99" s="43"/>
@@ -11182,9 +11189,9 @@
       </c>
     </row>
     <row r="100" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A100" s="51"/>
-      <c r="B100" s="54"/>
-      <c r="C100" s="67"/>
+      <c r="A100" s="48"/>
+      <c r="B100" s="51"/>
+      <c r="C100" s="61"/>
       <c r="D100" s="13" t="s">
         <v>96</v>
       </c>
@@ -11243,7 +11250,7 @@
       <c r="W100" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X100" s="48"/>
+      <c r="X100" s="74"/>
       <c r="Y100" s="43"/>
       <c r="Z100" s="43"/>
       <c r="AA100" s="43"/>
@@ -11257,9 +11264,9 @@
       </c>
     </row>
     <row r="101" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A101" s="52"/>
-      <c r="B101" s="55"/>
-      <c r="C101" s="68"/>
+      <c r="A101" s="49"/>
+      <c r="B101" s="52"/>
+      <c r="C101" s="62"/>
       <c r="D101" s="15" t="s">
         <v>98</v>
       </c>
@@ -11320,7 +11327,7 @@
       <c r="W101" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X101" s="48"/>
+      <c r="X101" s="74"/>
       <c r="Y101" s="43"/>
       <c r="Z101" s="43"/>
       <c r="AA101" s="43"/>
@@ -11334,13 +11341,13 @@
       </c>
     </row>
     <row r="102" spans="1:33" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="72">
+      <c r="A102" s="66">
         <v>4</v>
       </c>
-      <c r="B102" s="75" t="s">
+      <c r="B102" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C102" s="56" t="s">
+      <c r="C102" s="57" t="s">
         <v>260</v>
       </c>
       <c r="D102" s="6" t="s">
@@ -11403,7 +11410,7 @@
       <c r="W102" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X102" s="48"/>
+      <c r="X102" s="74"/>
       <c r="Y102" s="43"/>
       <c r="Z102" s="43"/>
       <c r="AA102" s="43"/>
@@ -11417,9 +11424,9 @@
       </c>
     </row>
     <row r="103" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A103" s="73"/>
-      <c r="B103" s="76"/>
-      <c r="C103" s="57"/>
+      <c r="A103" s="67"/>
+      <c r="B103" s="70"/>
+      <c r="C103" s="58"/>
       <c r="D103" s="6" t="s">
         <v>171</v>
       </c>
@@ -11480,7 +11487,7 @@
       <c r="W103" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X103" s="48"/>
+      <c r="X103" s="74"/>
       <c r="Y103" s="43"/>
       <c r="Z103" s="43"/>
       <c r="AA103" s="43"/>
@@ -11494,9 +11501,9 @@
       </c>
     </row>
     <row r="104" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A104" s="73"/>
-      <c r="B104" s="76"/>
-      <c r="C104" s="57"/>
+      <c r="A104" s="67"/>
+      <c r="B104" s="70"/>
+      <c r="C104" s="58"/>
       <c r="D104" s="6" t="s">
         <v>263</v>
       </c>
@@ -11557,7 +11564,7 @@
       <c r="W104" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X104" s="48"/>
+      <c r="X104" s="74"/>
       <c r="Y104" s="43"/>
       <c r="Z104" s="43"/>
       <c r="AA104" s="43"/>
@@ -11571,9 +11578,9 @@
       </c>
     </row>
     <row r="105" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A105" s="73"/>
-      <c r="B105" s="76"/>
-      <c r="C105" s="57"/>
+      <c r="A105" s="67"/>
+      <c r="B105" s="70"/>
+      <c r="C105" s="58"/>
       <c r="D105" s="6" t="s">
         <v>266</v>
       </c>
@@ -11634,7 +11641,7 @@
       <c r="W105" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X105" s="48"/>
+      <c r="X105" s="74"/>
       <c r="Y105" s="43"/>
       <c r="Z105" s="43"/>
       <c r="AA105" s="43"/>
@@ -11648,9 +11655,9 @@
       </c>
     </row>
     <row r="106" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A106" s="73"/>
-      <c r="B106" s="76"/>
-      <c r="C106" s="62"/>
+      <c r="A106" s="67"/>
+      <c r="B106" s="70"/>
+      <c r="C106" s="59"/>
       <c r="D106" s="6" t="s">
         <v>269</v>
       </c>
@@ -11711,7 +11718,7 @@
       <c r="W106" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X106" s="48"/>
+      <c r="X106" s="74"/>
       <c r="Y106" s="43"/>
       <c r="Z106" s="43"/>
       <c r="AA106" s="43"/>
@@ -11725,9 +11732,9 @@
       </c>
     </row>
     <row r="107" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="73"/>
-      <c r="B107" s="76"/>
-      <c r="C107" s="58" t="s">
+      <c r="A107" s="67"/>
+      <c r="B107" s="70"/>
+      <c r="C107" s="53" t="s">
         <v>324</v>
       </c>
       <c r="D107" s="13" t="s">
@@ -11790,7 +11797,7 @@
       <c r="W107" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X107" s="48"/>
+      <c r="X107" s="74"/>
       <c r="Y107" s="43"/>
       <c r="Z107" s="43"/>
       <c r="AA107" s="43"/>
@@ -11804,9 +11811,9 @@
       </c>
     </row>
     <row r="108" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A108" s="73"/>
-      <c r="B108" s="76"/>
-      <c r="C108" s="58"/>
+      <c r="A108" s="67"/>
+      <c r="B108" s="70"/>
+      <c r="C108" s="53"/>
       <c r="D108" s="13" t="s">
         <v>42</v>
       </c>
@@ -11867,7 +11874,7 @@
       <c r="W108" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X108" s="48"/>
+      <c r="X108" s="74"/>
       <c r="Y108" s="43"/>
       <c r="Z108" s="43"/>
       <c r="AA108" s="43"/>
@@ -11881,9 +11888,9 @@
       </c>
     </row>
     <row r="109" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A109" s="73"/>
-      <c r="B109" s="76"/>
-      <c r="C109" s="58"/>
+      <c r="A109" s="67"/>
+      <c r="B109" s="70"/>
+      <c r="C109" s="53"/>
       <c r="D109" s="13" t="s">
         <v>45</v>
       </c>
@@ -11944,7 +11951,7 @@
       <c r="W109" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X109" s="48"/>
+      <c r="X109" s="74"/>
       <c r="Y109" s="43"/>
       <c r="Z109" s="43"/>
       <c r="AA109" s="43"/>
@@ -11958,9 +11965,9 @@
       </c>
     </row>
     <row r="110" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A110" s="73"/>
-      <c r="B110" s="76"/>
-      <c r="C110" s="58"/>
+      <c r="A110" s="67"/>
+      <c r="B110" s="70"/>
+      <c r="C110" s="53"/>
       <c r="D110" s="13" t="s">
         <v>47</v>
       </c>
@@ -12021,7 +12028,7 @@
       <c r="W110" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X110" s="48"/>
+      <c r="X110" s="74"/>
       <c r="Y110" s="43"/>
       <c r="Z110" s="43"/>
       <c r="AA110" s="43"/>
@@ -12035,9 +12042,9 @@
       </c>
     </row>
     <row r="111" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A111" s="73"/>
-      <c r="B111" s="76"/>
-      <c r="C111" s="58"/>
+      <c r="A111" s="67"/>
+      <c r="B111" s="70"/>
+      <c r="C111" s="53"/>
       <c r="D111" s="13" t="s">
         <v>50</v>
       </c>
@@ -12098,7 +12105,7 @@
       <c r="W111" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X111" s="48"/>
+      <c r="X111" s="74"/>
       <c r="Y111" s="43"/>
       <c r="Z111" s="43"/>
       <c r="AA111" s="43"/>
@@ -12112,9 +12119,9 @@
       </c>
     </row>
     <row r="112" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A112" s="73"/>
-      <c r="B112" s="76"/>
-      <c r="C112" s="58"/>
+      <c r="A112" s="67"/>
+      <c r="B112" s="70"/>
+      <c r="C112" s="53"/>
       <c r="D112" s="13" t="s">
         <v>53</v>
       </c>
@@ -12175,7 +12182,7 @@
       <c r="W112" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X112" s="48"/>
+      <c r="X112" s="74"/>
       <c r="Y112" s="43"/>
       <c r="Z112" s="43"/>
       <c r="AA112" s="43"/>
@@ -12189,9 +12196,9 @@
       </c>
     </row>
     <row r="113" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A113" s="73"/>
-      <c r="B113" s="76"/>
-      <c r="C113" s="58"/>
+      <c r="A113" s="67"/>
+      <c r="B113" s="70"/>
+      <c r="C113" s="53"/>
       <c r="D113" s="13" t="s">
         <v>56</v>
       </c>
@@ -12252,7 +12259,7 @@
       <c r="W113" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X113" s="48"/>
+      <c r="X113" s="74"/>
       <c r="Y113" s="43"/>
       <c r="Z113" s="43"/>
       <c r="AA113" s="43"/>
@@ -12266,9 +12273,9 @@
       </c>
     </row>
     <row r="114" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A114" s="73"/>
-      <c r="B114" s="76"/>
-      <c r="C114" s="58"/>
+      <c r="A114" s="67"/>
+      <c r="B114" s="70"/>
+      <c r="C114" s="53"/>
       <c r="D114" s="13" t="s">
         <v>56</v>
       </c>
@@ -12329,7 +12336,7 @@
       <c r="W114" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X114" s="48"/>
+      <c r="X114" s="74"/>
       <c r="Y114" s="43"/>
       <c r="Z114" s="43"/>
       <c r="AA114" s="43"/>
@@ -12343,9 +12350,9 @@
       </c>
     </row>
     <row r="115" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A115" s="73"/>
-      <c r="B115" s="76"/>
-      <c r="C115" s="58"/>
+      <c r="A115" s="67"/>
+      <c r="B115" s="70"/>
+      <c r="C115" s="53"/>
       <c r="D115" s="13" t="s">
         <v>56</v>
       </c>
@@ -12406,7 +12413,7 @@
       <c r="W115" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X115" s="48"/>
+      <c r="X115" s="74"/>
       <c r="Y115" s="43"/>
       <c r="Z115" s="43"/>
       <c r="AA115" s="43"/>
@@ -12420,9 +12427,9 @@
       </c>
     </row>
     <row r="116" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A116" s="73"/>
-      <c r="B116" s="76"/>
-      <c r="C116" s="58"/>
+      <c r="A116" s="67"/>
+      <c r="B116" s="70"/>
+      <c r="C116" s="53"/>
       <c r="D116" s="13" t="s">
         <v>70</v>
       </c>
@@ -12483,7 +12490,7 @@
       <c r="W116" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X116" s="48"/>
+      <c r="X116" s="74"/>
       <c r="Y116" s="43"/>
       <c r="Z116" s="43"/>
       <c r="AA116" s="43"/>
@@ -12497,9 +12504,9 @@
       </c>
     </row>
     <row r="117" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A117" s="73"/>
-      <c r="B117" s="76"/>
-      <c r="C117" s="58"/>
+      <c r="A117" s="67"/>
+      <c r="B117" s="70"/>
+      <c r="C117" s="53"/>
       <c r="D117" s="13" t="s">
         <v>73</v>
       </c>
@@ -12560,7 +12567,7 @@
       <c r="W117" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X117" s="48"/>
+      <c r="X117" s="74"/>
       <c r="Y117" s="43"/>
       <c r="Z117" s="43"/>
       <c r="AA117" s="43"/>
@@ -12574,9 +12581,9 @@
       </c>
     </row>
     <row r="118" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A118" s="73"/>
-      <c r="B118" s="76"/>
-      <c r="C118" s="58"/>
+      <c r="A118" s="67"/>
+      <c r="B118" s="70"/>
+      <c r="C118" s="53"/>
       <c r="D118" s="13" t="s">
         <v>76</v>
       </c>
@@ -12637,7 +12644,7 @@
       <c r="W118" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X118" s="48"/>
+      <c r="X118" s="74"/>
       <c r="Y118" s="43"/>
       <c r="Z118" s="43"/>
       <c r="AA118" s="43"/>
@@ -12651,9 +12658,9 @@
       </c>
     </row>
     <row r="119" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119" s="73"/>
-      <c r="B119" s="76"/>
-      <c r="C119" s="58"/>
+      <c r="A119" s="67"/>
+      <c r="B119" s="70"/>
+      <c r="C119" s="53"/>
       <c r="D119" s="13" t="s">
         <v>78</v>
       </c>
@@ -12714,7 +12721,7 @@
       <c r="W119" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X119" s="48"/>
+      <c r="X119" s="74"/>
       <c r="Y119" s="43"/>
       <c r="Z119" s="43"/>
       <c r="AA119" s="43"/>
@@ -12728,9 +12735,9 @@
       </c>
     </row>
     <row r="120" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="73"/>
-      <c r="B120" s="76"/>
-      <c r="C120" s="58"/>
+      <c r="A120" s="67"/>
+      <c r="B120" s="70"/>
+      <c r="C120" s="53"/>
       <c r="D120" s="13" t="s">
         <v>81</v>
       </c>
@@ -12791,7 +12798,7 @@
       <c r="W120" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X120" s="48"/>
+      <c r="X120" s="74"/>
       <c r="Y120" s="43"/>
       <c r="Z120" s="43"/>
       <c r="AA120" s="43"/>
@@ -12805,9 +12812,9 @@
       </c>
     </row>
     <row r="121" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="73"/>
-      <c r="B121" s="76"/>
-      <c r="C121" s="58"/>
+      <c r="A121" s="67"/>
+      <c r="B121" s="70"/>
+      <c r="C121" s="53"/>
       <c r="D121" s="13" t="s">
         <v>84</v>
       </c>
@@ -12868,7 +12875,7 @@
       <c r="W121" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X121" s="48"/>
+      <c r="X121" s="74"/>
       <c r="Y121" s="43"/>
       <c r="Z121" s="43"/>
       <c r="AA121" s="43"/>
@@ -12882,9 +12889,9 @@
       </c>
     </row>
     <row r="122" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" s="73"/>
-      <c r="B122" s="76"/>
-      <c r="C122" s="58"/>
+      <c r="A122" s="67"/>
+      <c r="B122" s="70"/>
+      <c r="C122" s="53"/>
       <c r="D122" s="13" t="s">
         <v>87</v>
       </c>
@@ -12943,7 +12950,7 @@
       <c r="W122" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X122" s="48"/>
+      <c r="X122" s="74"/>
       <c r="Y122" s="43"/>
       <c r="Z122" s="43"/>
       <c r="AA122" s="43"/>
@@ -12957,9 +12964,9 @@
       </c>
     </row>
     <row r="123" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A123" s="73"/>
-      <c r="B123" s="76"/>
-      <c r="C123" s="58"/>
+      <c r="A123" s="67"/>
+      <c r="B123" s="70"/>
+      <c r="C123" s="53"/>
       <c r="D123" s="13" t="s">
         <v>90</v>
       </c>
@@ -13018,7 +13025,7 @@
       <c r="W123" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X123" s="48"/>
+      <c r="X123" s="74"/>
       <c r="Y123" s="43"/>
       <c r="Z123" s="43"/>
       <c r="AA123" s="43"/>
@@ -13032,9 +13039,9 @@
       </c>
     </row>
     <row r="124" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A124" s="73"/>
-      <c r="B124" s="76"/>
-      <c r="C124" s="78" t="s">
+      <c r="A124" s="67"/>
+      <c r="B124" s="70"/>
+      <c r="C124" s="72" t="s">
         <v>346</v>
       </c>
       <c r="D124" s="13" t="s">
@@ -13097,7 +13104,7 @@
       <c r="W124" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X124" s="48"/>
+      <c r="X124" s="74"/>
       <c r="Y124" s="43"/>
       <c r="Z124" s="43"/>
       <c r="AA124" s="43"/>
@@ -13111,9 +13118,9 @@
       </c>
     </row>
     <row r="125" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A125" s="73"/>
-      <c r="B125" s="76"/>
-      <c r="C125" s="78"/>
+      <c r="A125" s="67"/>
+      <c r="B125" s="70"/>
+      <c r="C125" s="72"/>
       <c r="D125" s="13" t="s">
         <v>96</v>
       </c>
@@ -13172,7 +13179,7 @@
       <c r="W125" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X125" s="48"/>
+      <c r="X125" s="74"/>
       <c r="Y125" s="43"/>
       <c r="Z125" s="43"/>
       <c r="AA125" s="43"/>
@@ -13186,9 +13193,9 @@
       </c>
     </row>
     <row r="126" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A126" s="73"/>
-      <c r="B126" s="76"/>
-      <c r="C126" s="78"/>
+      <c r="A126" s="67"/>
+      <c r="B126" s="70"/>
+      <c r="C126" s="72"/>
       <c r="D126" s="15" t="s">
         <v>98</v>
       </c>
@@ -13249,7 +13256,7 @@
       <c r="W126" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X126" s="48"/>
+      <c r="X126" s="74"/>
       <c r="Y126" s="43"/>
       <c r="Z126" s="43"/>
       <c r="AA126" s="43"/>
@@ -13263,9 +13270,9 @@
       </c>
     </row>
     <row r="127" spans="1:33" ht="45" x14ac:dyDescent="0.25">
-      <c r="A127" s="74"/>
-      <c r="B127" s="77"/>
-      <c r="C127" s="78"/>
+      <c r="A127" s="68"/>
+      <c r="B127" s="71"/>
+      <c r="C127" s="72"/>
       <c r="D127" s="13" t="s">
         <v>350</v>
       </c>
@@ -13324,7 +13331,7 @@
       <c r="W127" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X127" s="48"/>
+      <c r="X127" s="74"/>
       <c r="Y127" s="43"/>
       <c r="Z127" s="43"/>
       <c r="AA127" s="43"/>
@@ -13338,13 +13345,13 @@
       </c>
     </row>
     <row r="128" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A128" s="50">
+      <c r="A128" s="47">
         <v>4</v>
       </c>
-      <c r="B128" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="C128" s="56" t="s">
+      <c r="B128" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128" s="57" t="s">
         <v>352</v>
       </c>
       <c r="D128" s="6" t="s">
@@ -13407,7 +13414,7 @@
       <c r="W128" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X128" s="48"/>
+      <c r="X128" s="74"/>
       <c r="Y128" s="43"/>
       <c r="Z128" s="43"/>
       <c r="AA128" s="43"/>
@@ -13421,9 +13428,9 @@
       </c>
     </row>
     <row r="129" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A129" s="51"/>
-      <c r="B129" s="54"/>
-      <c r="C129" s="57"/>
+      <c r="A129" s="48"/>
+      <c r="B129" s="51"/>
+      <c r="C129" s="58"/>
       <c r="D129" s="6" t="s">
         <v>171</v>
       </c>
@@ -13484,7 +13491,7 @@
       <c r="W129" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X129" s="48"/>
+      <c r="X129" s="74"/>
       <c r="Y129" s="43"/>
       <c r="Z129" s="43"/>
       <c r="AA129" s="43"/>
@@ -13498,9 +13505,9 @@
       </c>
     </row>
     <row r="130" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="51"/>
-      <c r="B130" s="54"/>
-      <c r="C130" s="57"/>
+      <c r="A130" s="48"/>
+      <c r="B130" s="51"/>
+      <c r="C130" s="58"/>
       <c r="D130" s="6" t="s">
         <v>355</v>
       </c>
@@ -13561,7 +13568,7 @@
       <c r="W130" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X130" s="48"/>
+      <c r="X130" s="74"/>
       <c r="Y130" s="43"/>
       <c r="Z130" s="43"/>
       <c r="AA130" s="43"/>
@@ -13575,9 +13582,9 @@
       </c>
     </row>
     <row r="131" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="51"/>
-      <c r="B131" s="54"/>
-      <c r="C131" s="57"/>
+      <c r="A131" s="48"/>
+      <c r="B131" s="51"/>
+      <c r="C131" s="58"/>
       <c r="D131" s="6" t="s">
         <v>358</v>
       </c>
@@ -13638,7 +13645,7 @@
       <c r="W131" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X131" s="48"/>
+      <c r="X131" s="74"/>
       <c r="Y131" s="43"/>
       <c r="Z131" s="43"/>
       <c r="AA131" s="43"/>
@@ -13652,9 +13659,9 @@
       </c>
     </row>
     <row r="132" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="51"/>
-      <c r="B132" s="54"/>
-      <c r="C132" s="62"/>
+      <c r="A132" s="48"/>
+      <c r="B132" s="51"/>
+      <c r="C132" s="59"/>
       <c r="D132" s="6" t="s">
         <v>361</v>
       </c>
@@ -13715,7 +13722,7 @@
       <c r="W132" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X132" s="48"/>
+      <c r="X132" s="74"/>
       <c r="Y132" s="43"/>
       <c r="Z132" s="43"/>
       <c r="AA132" s="43"/>
@@ -13729,9 +13736,9 @@
       </c>
     </row>
     <row r="133" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A133" s="51"/>
-      <c r="B133" s="54"/>
-      <c r="C133" s="58" t="s">
+      <c r="A133" s="48"/>
+      <c r="B133" s="51"/>
+      <c r="C133" s="53" t="s">
         <v>364</v>
       </c>
       <c r="D133" s="13" t="s">
@@ -13794,7 +13801,7 @@
       <c r="W133" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X133" s="48"/>
+      <c r="X133" s="74"/>
       <c r="Y133" s="43"/>
       <c r="Z133" s="43"/>
       <c r="AA133" s="43"/>
@@ -13808,9 +13815,9 @@
       </c>
     </row>
     <row r="134" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A134" s="51"/>
-      <c r="B134" s="54"/>
-      <c r="C134" s="58"/>
+      <c r="A134" s="48"/>
+      <c r="B134" s="51"/>
+      <c r="C134" s="53"/>
       <c r="D134" s="13" t="s">
         <v>42</v>
       </c>
@@ -13871,7 +13878,7 @@
       <c r="W134" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X134" s="48"/>
+      <c r="X134" s="74"/>
       <c r="Y134" s="43"/>
       <c r="Z134" s="43"/>
       <c r="AA134" s="43"/>
@@ -13885,9 +13892,9 @@
       </c>
     </row>
     <row r="135" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A135" s="51"/>
-      <c r="B135" s="54"/>
-      <c r="C135" s="58"/>
+      <c r="A135" s="48"/>
+      <c r="B135" s="51"/>
+      <c r="C135" s="53"/>
       <c r="D135" s="13" t="s">
         <v>45</v>
       </c>
@@ -13948,7 +13955,7 @@
       <c r="W135" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X135" s="48"/>
+      <c r="X135" s="74"/>
       <c r="Y135" s="43"/>
       <c r="Z135" s="43"/>
       <c r="AA135" s="43"/>
@@ -13962,9 +13969,9 @@
       </c>
     </row>
     <row r="136" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A136" s="51"/>
-      <c r="B136" s="54"/>
-      <c r="C136" s="58"/>
+      <c r="A136" s="48"/>
+      <c r="B136" s="51"/>
+      <c r="C136" s="53"/>
       <c r="D136" s="13" t="s">
         <v>47</v>
       </c>
@@ -14025,7 +14032,7 @@
       <c r="W136" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X136" s="48"/>
+      <c r="X136" s="74"/>
       <c r="Y136" s="43"/>
       <c r="Z136" s="43"/>
       <c r="AA136" s="43"/>
@@ -14039,9 +14046,9 @@
       </c>
     </row>
     <row r="137" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A137" s="51"/>
-      <c r="B137" s="54"/>
-      <c r="C137" s="58"/>
+      <c r="A137" s="48"/>
+      <c r="B137" s="51"/>
+      <c r="C137" s="53"/>
       <c r="D137" s="13" t="s">
         <v>50</v>
       </c>
@@ -14102,7 +14109,7 @@
       <c r="W137" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X137" s="48"/>
+      <c r="X137" s="74"/>
       <c r="Y137" s="43"/>
       <c r="Z137" s="43"/>
       <c r="AA137" s="43"/>
@@ -14116,9 +14123,9 @@
       </c>
     </row>
     <row r="138" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A138" s="51"/>
-      <c r="B138" s="54"/>
-      <c r="C138" s="58"/>
+      <c r="A138" s="48"/>
+      <c r="B138" s="51"/>
+      <c r="C138" s="53"/>
       <c r="D138" s="13" t="s">
         <v>53</v>
       </c>
@@ -14179,7 +14186,7 @@
       <c r="W138" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X138" s="48"/>
+      <c r="X138" s="74"/>
       <c r="Y138" s="43"/>
       <c r="Z138" s="43"/>
       <c r="AA138" s="43"/>
@@ -14193,9 +14200,9 @@
       </c>
     </row>
     <row r="139" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A139" s="51"/>
-      <c r="B139" s="54"/>
-      <c r="C139" s="58"/>
+      <c r="A139" s="48"/>
+      <c r="B139" s="51"/>
+      <c r="C139" s="53"/>
       <c r="D139" s="13" t="s">
         <v>56</v>
       </c>
@@ -14256,7 +14263,7 @@
       <c r="W139" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X139" s="48"/>
+      <c r="X139" s="74"/>
       <c r="Y139" s="43"/>
       <c r="Z139" s="43"/>
       <c r="AA139" s="43"/>
@@ -14270,9 +14277,9 @@
       </c>
     </row>
     <row r="140" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A140" s="51"/>
-      <c r="B140" s="54"/>
-      <c r="C140" s="58"/>
+      <c r="A140" s="48"/>
+      <c r="B140" s="51"/>
+      <c r="C140" s="53"/>
       <c r="D140" s="13" t="s">
         <v>56</v>
       </c>
@@ -14333,7 +14340,7 @@
       <c r="W140" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X140" s="48"/>
+      <c r="X140" s="74"/>
       <c r="Y140" s="43"/>
       <c r="Z140" s="43"/>
       <c r="AA140" s="43"/>
@@ -14347,9 +14354,9 @@
       </c>
     </row>
     <row r="141" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A141" s="51"/>
-      <c r="B141" s="54"/>
-      <c r="C141" s="58"/>
+      <c r="A141" s="48"/>
+      <c r="B141" s="51"/>
+      <c r="C141" s="53"/>
       <c r="D141" s="13" t="s">
         <v>56</v>
       </c>
@@ -14410,7 +14417,7 @@
       <c r="W141" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X141" s="48"/>
+      <c r="X141" s="74"/>
       <c r="Y141" s="43"/>
       <c r="Z141" s="43"/>
       <c r="AA141" s="43"/>
@@ -14424,9 +14431,9 @@
       </c>
     </row>
     <row r="142" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A142" s="51"/>
-      <c r="B142" s="54"/>
-      <c r="C142" s="58"/>
+      <c r="A142" s="48"/>
+      <c r="B142" s="51"/>
+      <c r="C142" s="53"/>
       <c r="D142" s="13" t="s">
         <v>70</v>
       </c>
@@ -14487,7 +14494,7 @@
       <c r="W142" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X142" s="48"/>
+      <c r="X142" s="74"/>
       <c r="Y142" s="43"/>
       <c r="Z142" s="43"/>
       <c r="AA142" s="43"/>
@@ -14501,9 +14508,9 @@
       </c>
     </row>
     <row r="143" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A143" s="51"/>
-      <c r="B143" s="54"/>
-      <c r="C143" s="58"/>
+      <c r="A143" s="48"/>
+      <c r="B143" s="51"/>
+      <c r="C143" s="53"/>
       <c r="D143" s="13" t="s">
         <v>73</v>
       </c>
@@ -14564,7 +14571,7 @@
       <c r="W143" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X143" s="48"/>
+      <c r="X143" s="74"/>
       <c r="Y143" s="43"/>
       <c r="Z143" s="43"/>
       <c r="AA143" s="43"/>
@@ -14578,9 +14585,9 @@
       </c>
     </row>
     <row r="144" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A144" s="51"/>
-      <c r="B144" s="54"/>
-      <c r="C144" s="58"/>
+      <c r="A144" s="48"/>
+      <c r="B144" s="51"/>
+      <c r="C144" s="53"/>
       <c r="D144" s="13" t="s">
         <v>76</v>
       </c>
@@ -14641,7 +14648,7 @@
       <c r="W144" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X144" s="48"/>
+      <c r="X144" s="74"/>
       <c r="Y144" s="43"/>
       <c r="Z144" s="43"/>
       <c r="AA144" s="43"/>
@@ -14655,9 +14662,9 @@
       </c>
     </row>
     <row r="145" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A145" s="51"/>
-      <c r="B145" s="54"/>
-      <c r="C145" s="58"/>
+      <c r="A145" s="48"/>
+      <c r="B145" s="51"/>
+      <c r="C145" s="53"/>
       <c r="D145" s="13" t="s">
         <v>78</v>
       </c>
@@ -14718,7 +14725,7 @@
       <c r="W145" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X145" s="48"/>
+      <c r="X145" s="74"/>
       <c r="Y145" s="43"/>
       <c r="Z145" s="43"/>
       <c r="AA145" s="43"/>
@@ -14732,9 +14739,9 @@
       </c>
     </row>
     <row r="146" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A146" s="51"/>
-      <c r="B146" s="54"/>
-      <c r="C146" s="58"/>
+      <c r="A146" s="48"/>
+      <c r="B146" s="51"/>
+      <c r="C146" s="53"/>
       <c r="D146" s="13" t="s">
         <v>81</v>
       </c>
@@ -14795,7 +14802,7 @@
       <c r="W146" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X146" s="48"/>
+      <c r="X146" s="74"/>
       <c r="Y146" s="43"/>
       <c r="Z146" s="43"/>
       <c r="AA146" s="43"/>
@@ -14809,9 +14816,9 @@
       </c>
     </row>
     <row r="147" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A147" s="51"/>
-      <c r="B147" s="54"/>
-      <c r="C147" s="58"/>
+      <c r="A147" s="48"/>
+      <c r="B147" s="51"/>
+      <c r="C147" s="53"/>
       <c r="D147" s="13" t="s">
         <v>84</v>
       </c>
@@ -14872,7 +14879,7 @@
       <c r="W147" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X147" s="48"/>
+      <c r="X147" s="74"/>
       <c r="Y147" s="43"/>
       <c r="Z147" s="43"/>
       <c r="AA147" s="43"/>
@@ -14886,9 +14893,9 @@
       </c>
     </row>
     <row r="148" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A148" s="51"/>
-      <c r="B148" s="54"/>
-      <c r="C148" s="58"/>
+      <c r="A148" s="48"/>
+      <c r="B148" s="51"/>
+      <c r="C148" s="53"/>
       <c r="D148" s="13" t="s">
         <v>87</v>
       </c>
@@ -14947,7 +14954,7 @@
       <c r="W148" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X148" s="48"/>
+      <c r="X148" s="74"/>
       <c r="Y148" s="43"/>
       <c r="Z148" s="43"/>
       <c r="AA148" s="43"/>
@@ -14961,9 +14968,9 @@
       </c>
     </row>
     <row r="149" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A149" s="51"/>
-      <c r="B149" s="54"/>
-      <c r="C149" s="58"/>
+      <c r="A149" s="48"/>
+      <c r="B149" s="51"/>
+      <c r="C149" s="53"/>
       <c r="D149" s="13" t="s">
         <v>90</v>
       </c>
@@ -15022,7 +15029,7 @@
       <c r="W149" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X149" s="48"/>
+      <c r="X149" s="74"/>
       <c r="Y149" s="43"/>
       <c r="Z149" s="43"/>
       <c r="AA149" s="43"/>
@@ -15036,9 +15043,9 @@
       </c>
     </row>
     <row r="150" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A150" s="51"/>
-      <c r="B150" s="54"/>
-      <c r="C150" s="59" t="s">
+      <c r="A150" s="48"/>
+      <c r="B150" s="51"/>
+      <c r="C150" s="54" t="s">
         <v>256</v>
       </c>
       <c r="D150" s="13" t="s">
@@ -15101,7 +15108,7 @@
       <c r="W150" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X150" s="48"/>
+      <c r="X150" s="74"/>
       <c r="Y150" s="43"/>
       <c r="Z150" s="43"/>
       <c r="AA150" s="43"/>
@@ -15115,9 +15122,9 @@
       </c>
     </row>
     <row r="151" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A151" s="51"/>
-      <c r="B151" s="54"/>
-      <c r="C151" s="60"/>
+      <c r="A151" s="48"/>
+      <c r="B151" s="51"/>
+      <c r="C151" s="55"/>
       <c r="D151" s="13" t="s">
         <v>96</v>
       </c>
@@ -15176,7 +15183,7 @@
       <c r="W151" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X151" s="48"/>
+      <c r="X151" s="74"/>
       <c r="Y151" s="43"/>
       <c r="Z151" s="43"/>
       <c r="AA151" s="43"/>
@@ -15190,9 +15197,9 @@
       </c>
     </row>
     <row r="152" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A152" s="52"/>
-      <c r="B152" s="55"/>
-      <c r="C152" s="61"/>
+      <c r="A152" s="49"/>
+      <c r="B152" s="52"/>
+      <c r="C152" s="56"/>
       <c r="D152" s="15" t="s">
         <v>98</v>
       </c>
@@ -15253,7 +15260,7 @@
       <c r="W152" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X152" s="48"/>
+      <c r="X152" s="74"/>
       <c r="Y152" s="43"/>
       <c r="Z152" s="43"/>
       <c r="AA152" s="43"/>
@@ -15267,13 +15274,13 @@
       </c>
     </row>
     <row r="153" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A153" s="50">
+      <c r="A153" s="47">
         <v>4</v>
       </c>
-      <c r="B153" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="C153" s="56" t="s">
+      <c r="B153" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C153" s="57" t="s">
         <v>352</v>
       </c>
       <c r="D153" s="6" t="s">
@@ -15336,7 +15343,7 @@
       <c r="W153" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X153" s="48"/>
+      <c r="X153" s="74"/>
       <c r="Y153" s="43"/>
       <c r="Z153" s="43"/>
       <c r="AA153" s="43"/>
@@ -15350,9 +15357,9 @@
       </c>
     </row>
     <row r="154" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A154" s="51"/>
-      <c r="B154" s="54"/>
-      <c r="C154" s="57"/>
+      <c r="A154" s="48"/>
+      <c r="B154" s="51"/>
+      <c r="C154" s="58"/>
       <c r="D154" s="6" t="s">
         <v>171</v>
       </c>
@@ -15413,7 +15420,7 @@
       <c r="W154" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X154" s="48"/>
+      <c r="X154" s="74"/>
       <c r="Y154" s="43"/>
       <c r="Z154" s="43"/>
       <c r="AA154" s="43"/>
@@ -15427,9 +15434,9 @@
       </c>
     </row>
     <row r="155" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A155" s="51"/>
-      <c r="B155" s="54"/>
-      <c r="C155" s="57"/>
+      <c r="A155" s="48"/>
+      <c r="B155" s="51"/>
+      <c r="C155" s="58"/>
       <c r="D155" s="6" t="s">
         <v>355</v>
       </c>
@@ -15490,7 +15497,7 @@
       <c r="W155" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X155" s="48"/>
+      <c r="X155" s="74"/>
       <c r="Y155" s="43"/>
       <c r="Z155" s="43"/>
       <c r="AA155" s="43"/>
@@ -15504,9 +15511,9 @@
       </c>
     </row>
     <row r="156" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A156" s="51"/>
-      <c r="B156" s="54"/>
-      <c r="C156" s="57"/>
+      <c r="A156" s="48"/>
+      <c r="B156" s="51"/>
+      <c r="C156" s="58"/>
       <c r="D156" s="6" t="s">
         <v>358</v>
       </c>
@@ -15567,7 +15574,7 @@
       <c r="W156" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X156" s="48"/>
+      <c r="X156" s="74"/>
       <c r="Y156" s="43"/>
       <c r="Z156" s="43"/>
       <c r="AA156" s="43"/>
@@ -15581,9 +15588,9 @@
       </c>
     </row>
     <row r="157" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A157" s="51"/>
-      <c r="B157" s="54"/>
-      <c r="C157" s="62"/>
+      <c r="A157" s="48"/>
+      <c r="B157" s="51"/>
+      <c r="C157" s="59"/>
       <c r="D157" s="6" t="s">
         <v>361</v>
       </c>
@@ -15644,7 +15651,7 @@
       <c r="W157" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X157" s="48"/>
+      <c r="X157" s="74"/>
       <c r="Y157" s="43"/>
       <c r="Z157" s="43"/>
       <c r="AA157" s="43"/>
@@ -15658,9 +15665,9 @@
       </c>
     </row>
     <row r="158" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A158" s="51"/>
-      <c r="B158" s="54"/>
-      <c r="C158" s="58" t="s">
+      <c r="A158" s="48"/>
+      <c r="B158" s="51"/>
+      <c r="C158" s="53" t="s">
         <v>395</v>
       </c>
       <c r="D158" s="13" t="s">
@@ -15723,7 +15730,7 @@
       <c r="W158" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X158" s="48"/>
+      <c r="X158" s="74"/>
       <c r="Y158" s="43"/>
       <c r="Z158" s="43"/>
       <c r="AA158" s="43"/>
@@ -15737,9 +15744,9 @@
       </c>
     </row>
     <row r="159" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A159" s="51"/>
-      <c r="B159" s="54"/>
-      <c r="C159" s="58"/>
+      <c r="A159" s="48"/>
+      <c r="B159" s="51"/>
+      <c r="C159" s="53"/>
       <c r="D159" s="13" t="s">
         <v>42</v>
       </c>
@@ -15800,7 +15807,7 @@
       <c r="W159" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X159" s="48"/>
+      <c r="X159" s="74"/>
       <c r="Y159" s="43"/>
       <c r="Z159" s="43"/>
       <c r="AA159" s="43"/>
@@ -15814,9 +15821,9 @@
       </c>
     </row>
     <row r="160" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A160" s="51"/>
-      <c r="B160" s="54"/>
-      <c r="C160" s="58"/>
+      <c r="A160" s="48"/>
+      <c r="B160" s="51"/>
+      <c r="C160" s="53"/>
       <c r="D160" s="13" t="s">
         <v>45</v>
       </c>
@@ -15877,7 +15884,7 @@
       <c r="W160" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X160" s="48"/>
+      <c r="X160" s="74"/>
       <c r="Y160" s="43"/>
       <c r="Z160" s="43"/>
       <c r="AA160" s="43"/>
@@ -15891,9 +15898,9 @@
       </c>
     </row>
     <row r="161" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A161" s="51"/>
-      <c r="B161" s="54"/>
-      <c r="C161" s="58"/>
+      <c r="A161" s="48"/>
+      <c r="B161" s="51"/>
+      <c r="C161" s="53"/>
       <c r="D161" s="13" t="s">
         <v>47</v>
       </c>
@@ -15954,7 +15961,7 @@
       <c r="W161" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X161" s="48"/>
+      <c r="X161" s="74"/>
       <c r="Y161" s="43"/>
       <c r="Z161" s="43"/>
       <c r="AA161" s="43"/>
@@ -15968,9 +15975,9 @@
       </c>
     </row>
     <row r="162" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A162" s="51"/>
-      <c r="B162" s="54"/>
-      <c r="C162" s="58"/>
+      <c r="A162" s="48"/>
+      <c r="B162" s="51"/>
+      <c r="C162" s="53"/>
       <c r="D162" s="13" t="s">
         <v>50</v>
       </c>
@@ -16031,7 +16038,7 @@
       <c r="W162" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X162" s="48"/>
+      <c r="X162" s="74"/>
       <c r="Y162" s="43"/>
       <c r="Z162" s="43"/>
       <c r="AA162" s="43"/>
@@ -16045,9 +16052,9 @@
       </c>
     </row>
     <row r="163" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A163" s="51"/>
-      <c r="B163" s="54"/>
-      <c r="C163" s="58"/>
+      <c r="A163" s="48"/>
+      <c r="B163" s="51"/>
+      <c r="C163" s="53"/>
       <c r="D163" s="13" t="s">
         <v>53</v>
       </c>
@@ -16108,7 +16115,7 @@
       <c r="W163" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X163" s="48"/>
+      <c r="X163" s="74"/>
       <c r="Y163" s="43"/>
       <c r="Z163" s="43"/>
       <c r="AA163" s="43"/>
@@ -16122,9 +16129,9 @@
       </c>
     </row>
     <row r="164" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A164" s="51"/>
-      <c r="B164" s="54"/>
-      <c r="C164" s="58"/>
+      <c r="A164" s="48"/>
+      <c r="B164" s="51"/>
+      <c r="C164" s="53"/>
       <c r="D164" s="13" t="s">
         <v>56</v>
       </c>
@@ -16185,7 +16192,7 @@
       <c r="W164" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X164" s="48"/>
+      <c r="X164" s="74"/>
       <c r="Y164" s="43"/>
       <c r="Z164" s="43"/>
       <c r="AA164" s="43"/>
@@ -16199,9 +16206,9 @@
       </c>
     </row>
     <row r="165" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A165" s="51"/>
-      <c r="B165" s="54"/>
-      <c r="C165" s="58"/>
+      <c r="A165" s="48"/>
+      <c r="B165" s="51"/>
+      <c r="C165" s="53"/>
       <c r="D165" s="13" t="s">
         <v>56</v>
       </c>
@@ -16262,7 +16269,7 @@
       <c r="W165" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X165" s="48"/>
+      <c r="X165" s="74"/>
       <c r="Y165" s="43"/>
       <c r="Z165" s="43"/>
       <c r="AA165" s="43"/>
@@ -16276,9 +16283,9 @@
       </c>
     </row>
     <row r="166" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A166" s="51"/>
-      <c r="B166" s="54"/>
-      <c r="C166" s="58"/>
+      <c r="A166" s="48"/>
+      <c r="B166" s="51"/>
+      <c r="C166" s="53"/>
       <c r="D166" s="13" t="s">
         <v>56</v>
       </c>
@@ -16339,7 +16346,7 @@
       <c r="W166" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X166" s="48"/>
+      <c r="X166" s="74"/>
       <c r="Y166" s="43"/>
       <c r="Z166" s="43"/>
       <c r="AA166" s="43"/>
@@ -16353,9 +16360,9 @@
       </c>
     </row>
     <row r="167" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A167" s="51"/>
-      <c r="B167" s="54"/>
-      <c r="C167" s="58"/>
+      <c r="A167" s="48"/>
+      <c r="B167" s="51"/>
+      <c r="C167" s="53"/>
       <c r="D167" s="13" t="s">
         <v>70</v>
       </c>
@@ -16416,7 +16423,7 @@
       <c r="W167" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X167" s="48"/>
+      <c r="X167" s="74"/>
       <c r="Y167" s="43"/>
       <c r="Z167" s="43"/>
       <c r="AA167" s="43"/>
@@ -16430,9 +16437,9 @@
       </c>
     </row>
     <row r="168" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A168" s="51"/>
-      <c r="B168" s="54"/>
-      <c r="C168" s="58"/>
+      <c r="A168" s="48"/>
+      <c r="B168" s="51"/>
+      <c r="C168" s="53"/>
       <c r="D168" s="13" t="s">
         <v>73</v>
       </c>
@@ -16493,7 +16500,7 @@
       <c r="W168" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X168" s="48"/>
+      <c r="X168" s="74"/>
       <c r="Y168" s="43"/>
       <c r="Z168" s="43"/>
       <c r="AA168" s="43"/>
@@ -16507,9 +16514,9 @@
       </c>
     </row>
     <row r="169" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A169" s="51"/>
-      <c r="B169" s="54"/>
-      <c r="C169" s="58"/>
+      <c r="A169" s="48"/>
+      <c r="B169" s="51"/>
+      <c r="C169" s="53"/>
       <c r="D169" s="13" t="s">
         <v>76</v>
       </c>
@@ -16570,7 +16577,7 @@
       <c r="W169" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X169" s="48"/>
+      <c r="X169" s="74"/>
       <c r="Y169" s="43"/>
       <c r="Z169" s="43"/>
       <c r="AA169" s="43"/>
@@ -16584,9 +16591,9 @@
       </c>
     </row>
     <row r="170" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A170" s="51"/>
-      <c r="B170" s="54"/>
-      <c r="C170" s="58"/>
+      <c r="A170" s="48"/>
+      <c r="B170" s="51"/>
+      <c r="C170" s="53"/>
       <c r="D170" s="13" t="s">
         <v>78</v>
       </c>
@@ -16647,7 +16654,7 @@
       <c r="W170" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X170" s="48"/>
+      <c r="X170" s="74"/>
       <c r="Y170" s="43"/>
       <c r="Z170" s="43"/>
       <c r="AA170" s="43"/>
@@ -16661,9 +16668,9 @@
       </c>
     </row>
     <row r="171" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A171" s="51"/>
-      <c r="B171" s="54"/>
-      <c r="C171" s="58"/>
+      <c r="A171" s="48"/>
+      <c r="B171" s="51"/>
+      <c r="C171" s="53"/>
       <c r="D171" s="13" t="s">
         <v>81</v>
       </c>
@@ -16724,7 +16731,7 @@
       <c r="W171" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X171" s="48"/>
+      <c r="X171" s="74"/>
       <c r="Y171" s="43"/>
       <c r="Z171" s="43"/>
       <c r="AA171" s="43"/>
@@ -16738,9 +16745,9 @@
       </c>
     </row>
     <row r="172" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A172" s="51"/>
-      <c r="B172" s="54"/>
-      <c r="C172" s="58"/>
+      <c r="A172" s="48"/>
+      <c r="B172" s="51"/>
+      <c r="C172" s="53"/>
       <c r="D172" s="13" t="s">
         <v>84</v>
       </c>
@@ -16801,7 +16808,7 @@
       <c r="W172" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X172" s="48"/>
+      <c r="X172" s="74"/>
       <c r="Y172" s="43"/>
       <c r="Z172" s="43"/>
       <c r="AA172" s="43"/>
@@ -16815,9 +16822,9 @@
       </c>
     </row>
     <row r="173" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A173" s="51"/>
-      <c r="B173" s="54"/>
-      <c r="C173" s="58"/>
+      <c r="A173" s="48"/>
+      <c r="B173" s="51"/>
+      <c r="C173" s="53"/>
       <c r="D173" s="13" t="s">
         <v>87</v>
       </c>
@@ -16876,7 +16883,7 @@
       <c r="W173" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X173" s="48"/>
+      <c r="X173" s="74"/>
       <c r="Y173" s="43"/>
       <c r="Z173" s="43"/>
       <c r="AA173" s="43"/>
@@ -16890,9 +16897,9 @@
       </c>
     </row>
     <row r="174" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A174" s="51"/>
-      <c r="B174" s="54"/>
-      <c r="C174" s="58"/>
+      <c r="A174" s="48"/>
+      <c r="B174" s="51"/>
+      <c r="C174" s="53"/>
       <c r="D174" s="13" t="s">
         <v>90</v>
       </c>
@@ -16951,7 +16958,7 @@
       <c r="W174" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X174" s="48"/>
+      <c r="X174" s="74"/>
       <c r="Y174" s="43"/>
       <c r="Z174" s="43"/>
       <c r="AA174" s="43"/>
@@ -16965,9 +16972,9 @@
       </c>
     </row>
     <row r="175" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A175" s="51"/>
-      <c r="B175" s="54"/>
-      <c r="C175" s="59" t="s">
+      <c r="A175" s="48"/>
+      <c r="B175" s="51"/>
+      <c r="C175" s="54" t="s">
         <v>256</v>
       </c>
       <c r="D175" s="13" t="s">
@@ -17030,7 +17037,7 @@
       <c r="W175" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X175" s="48"/>
+      <c r="X175" s="74"/>
       <c r="Y175" s="43"/>
       <c r="Z175" s="43"/>
       <c r="AA175" s="43"/>
@@ -17044,9 +17051,9 @@
       </c>
     </row>
     <row r="176" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A176" s="51"/>
-      <c r="B176" s="54"/>
-      <c r="C176" s="60"/>
+      <c r="A176" s="48"/>
+      <c r="B176" s="51"/>
+      <c r="C176" s="55"/>
       <c r="D176" s="13" t="s">
         <v>96</v>
       </c>
@@ -17105,7 +17112,7 @@
       <c r="W176" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X176" s="48"/>
+      <c r="X176" s="74"/>
       <c r="Y176" s="43"/>
       <c r="Z176" s="43"/>
       <c r="AA176" s="43"/>
@@ -17119,9 +17126,9 @@
       </c>
     </row>
     <row r="177" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A177" s="52"/>
-      <c r="B177" s="55"/>
-      <c r="C177" s="61"/>
+      <c r="A177" s="49"/>
+      <c r="B177" s="52"/>
+      <c r="C177" s="56"/>
       <c r="D177" s="15" t="s">
         <v>98</v>
       </c>
@@ -17182,7 +17189,7 @@
       <c r="W177" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X177" s="48"/>
+      <c r="X177" s="74"/>
       <c r="Y177" s="43"/>
       <c r="Z177" s="43"/>
       <c r="AA177" s="43"/>
@@ -17196,13 +17203,13 @@
       </c>
     </row>
     <row r="178" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A178" s="50">
+      <c r="A178" s="47">
         <v>4</v>
       </c>
-      <c r="B178" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="C178" s="56" t="s">
+      <c r="B178" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C178" s="57" t="s">
         <v>352</v>
       </c>
       <c r="D178" s="6" t="s">
@@ -17265,7 +17272,7 @@
       <c r="W178" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X178" s="48"/>
+      <c r="X178" s="74"/>
       <c r="Y178" s="43"/>
       <c r="Z178" s="43"/>
       <c r="AA178" s="43"/>
@@ -17279,9 +17286,9 @@
       </c>
     </row>
     <row r="179" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A179" s="51"/>
-      <c r="B179" s="54"/>
-      <c r="C179" s="57"/>
+      <c r="A179" s="48"/>
+      <c r="B179" s="51"/>
+      <c r="C179" s="58"/>
       <c r="D179" s="6" t="s">
         <v>171</v>
       </c>
@@ -17342,7 +17349,7 @@
       <c r="W179" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X179" s="48"/>
+      <c r="X179" s="74"/>
       <c r="Y179" s="43"/>
       <c r="Z179" s="43"/>
       <c r="AA179" s="43"/>
@@ -17356,9 +17363,9 @@
       </c>
     </row>
     <row r="180" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A180" s="51"/>
-      <c r="B180" s="54"/>
-      <c r="C180" s="57"/>
+      <c r="A180" s="48"/>
+      <c r="B180" s="51"/>
+      <c r="C180" s="58"/>
       <c r="D180" s="6" t="s">
         <v>355</v>
       </c>
@@ -17419,7 +17426,7 @@
       <c r="W180" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X180" s="48"/>
+      <c r="X180" s="74"/>
       <c r="Y180" s="43"/>
       <c r="Z180" s="43"/>
       <c r="AA180" s="43"/>
@@ -17433,9 +17440,9 @@
       </c>
     </row>
     <row r="181" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="51"/>
-      <c r="B181" s="54"/>
-      <c r="C181" s="57"/>
+      <c r="A181" s="48"/>
+      <c r="B181" s="51"/>
+      <c r="C181" s="58"/>
       <c r="D181" s="6" t="s">
         <v>358</v>
       </c>
@@ -17496,7 +17503,7 @@
       <c r="W181" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X181" s="48"/>
+      <c r="X181" s="74"/>
       <c r="Y181" s="43"/>
       <c r="Z181" s="43"/>
       <c r="AA181" s="43"/>
@@ -17510,9 +17517,9 @@
       </c>
     </row>
     <row r="182" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A182" s="51"/>
-      <c r="B182" s="54"/>
-      <c r="C182" s="62"/>
+      <c r="A182" s="48"/>
+      <c r="B182" s="51"/>
+      <c r="C182" s="59"/>
       <c r="D182" s="6" t="s">
         <v>361</v>
       </c>
@@ -17573,7 +17580,7 @@
       <c r="W182" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X182" s="48"/>
+      <c r="X182" s="74"/>
       <c r="Y182" s="43"/>
       <c r="Z182" s="43"/>
       <c r="AA182" s="43"/>
@@ -17587,9 +17594,9 @@
       </c>
     </row>
     <row r="183" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A183" s="51"/>
-      <c r="B183" s="54"/>
-      <c r="C183" s="58" t="s">
+      <c r="A183" s="48"/>
+      <c r="B183" s="51"/>
+      <c r="C183" s="53" t="s">
         <v>421</v>
       </c>
       <c r="D183" s="13" t="s">
@@ -17652,7 +17659,7 @@
       <c r="W183" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X183" s="48"/>
+      <c r="X183" s="74"/>
       <c r="Y183" s="43"/>
       <c r="Z183" s="43"/>
       <c r="AA183" s="43"/>
@@ -17666,9 +17673,9 @@
       </c>
     </row>
     <row r="184" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A184" s="51"/>
-      <c r="B184" s="54"/>
-      <c r="C184" s="58"/>
+      <c r="A184" s="48"/>
+      <c r="B184" s="51"/>
+      <c r="C184" s="53"/>
       <c r="D184" s="13" t="s">
         <v>42</v>
       </c>
@@ -17729,7 +17736,7 @@
       <c r="W184" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X184" s="48"/>
+      <c r="X184" s="74"/>
       <c r="Y184" s="43"/>
       <c r="Z184" s="43"/>
       <c r="AA184" s="43"/>
@@ -17743,9 +17750,9 @@
       </c>
     </row>
     <row r="185" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A185" s="51"/>
-      <c r="B185" s="54"/>
-      <c r="C185" s="58"/>
+      <c r="A185" s="48"/>
+      <c r="B185" s="51"/>
+      <c r="C185" s="53"/>
       <c r="D185" s="13" t="s">
         <v>45</v>
       </c>
@@ -17806,7 +17813,7 @@
       <c r="W185" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X185" s="48"/>
+      <c r="X185" s="74"/>
       <c r="Y185" s="43"/>
       <c r="Z185" s="43"/>
       <c r="AA185" s="43"/>
@@ -17820,9 +17827,9 @@
       </c>
     </row>
     <row r="186" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A186" s="51"/>
-      <c r="B186" s="54"/>
-      <c r="C186" s="58"/>
+      <c r="A186" s="48"/>
+      <c r="B186" s="51"/>
+      <c r="C186" s="53"/>
       <c r="D186" s="13" t="s">
         <v>47</v>
       </c>
@@ -17883,7 +17890,7 @@
       <c r="W186" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X186" s="48"/>
+      <c r="X186" s="74"/>
       <c r="Y186" s="43"/>
       <c r="Z186" s="43"/>
       <c r="AA186" s="43"/>
@@ -17897,9 +17904,9 @@
       </c>
     </row>
     <row r="187" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A187" s="51"/>
-      <c r="B187" s="54"/>
-      <c r="C187" s="58"/>
+      <c r="A187" s="48"/>
+      <c r="B187" s="51"/>
+      <c r="C187" s="53"/>
       <c r="D187" s="13" t="s">
         <v>50</v>
       </c>
@@ -17960,7 +17967,7 @@
       <c r="W187" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X187" s="48"/>
+      <c r="X187" s="74"/>
       <c r="Y187" s="43"/>
       <c r="Z187" s="43"/>
       <c r="AA187" s="43"/>
@@ -17974,9 +17981,9 @@
       </c>
     </row>
     <row r="188" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A188" s="51"/>
-      <c r="B188" s="54"/>
-      <c r="C188" s="58"/>
+      <c r="A188" s="48"/>
+      <c r="B188" s="51"/>
+      <c r="C188" s="53"/>
       <c r="D188" s="13" t="s">
         <v>53</v>
       </c>
@@ -18037,7 +18044,7 @@
       <c r="W188" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X188" s="48"/>
+      <c r="X188" s="74"/>
       <c r="Y188" s="43"/>
       <c r="Z188" s="43"/>
       <c r="AA188" s="43"/>
@@ -18051,9 +18058,9 @@
       </c>
     </row>
     <row r="189" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A189" s="51"/>
-      <c r="B189" s="54"/>
-      <c r="C189" s="58"/>
+      <c r="A189" s="48"/>
+      <c r="B189" s="51"/>
+      <c r="C189" s="53"/>
       <c r="D189" s="13" t="s">
         <v>56</v>
       </c>
@@ -18114,7 +18121,7 @@
       <c r="W189" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X189" s="48"/>
+      <c r="X189" s="74"/>
       <c r="Y189" s="43"/>
       <c r="Z189" s="43"/>
       <c r="AA189" s="43"/>
@@ -18128,9 +18135,9 @@
       </c>
     </row>
     <row r="190" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A190" s="51"/>
-      <c r="B190" s="54"/>
-      <c r="C190" s="58"/>
+      <c r="A190" s="48"/>
+      <c r="B190" s="51"/>
+      <c r="C190" s="53"/>
       <c r="D190" s="13" t="s">
         <v>56</v>
       </c>
@@ -18191,7 +18198,7 @@
       <c r="W190" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X190" s="48"/>
+      <c r="X190" s="74"/>
       <c r="Y190" s="43"/>
       <c r="Z190" s="43"/>
       <c r="AA190" s="43"/>
@@ -18205,9 +18212,9 @@
       </c>
     </row>
     <row r="191" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A191" s="51"/>
-      <c r="B191" s="54"/>
-      <c r="C191" s="58"/>
+      <c r="A191" s="48"/>
+      <c r="B191" s="51"/>
+      <c r="C191" s="53"/>
       <c r="D191" s="13" t="s">
         <v>56</v>
       </c>
@@ -18268,7 +18275,7 @@
       <c r="W191" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X191" s="48"/>
+      <c r="X191" s="74"/>
       <c r="Y191" s="43"/>
       <c r="Z191" s="43"/>
       <c r="AA191" s="43"/>
@@ -18282,9 +18289,9 @@
       </c>
     </row>
     <row r="192" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A192" s="51"/>
-      <c r="B192" s="54"/>
-      <c r="C192" s="58"/>
+      <c r="A192" s="48"/>
+      <c r="B192" s="51"/>
+      <c r="C192" s="53"/>
       <c r="D192" s="13" t="s">
         <v>70</v>
       </c>
@@ -18345,7 +18352,7 @@
       <c r="W192" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X192" s="48"/>
+      <c r="X192" s="74"/>
       <c r="Y192" s="43"/>
       <c r="Z192" s="43"/>
       <c r="AA192" s="43"/>
@@ -18359,9 +18366,9 @@
       </c>
     </row>
     <row r="193" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A193" s="51"/>
-      <c r="B193" s="54"/>
-      <c r="C193" s="58"/>
+      <c r="A193" s="48"/>
+      <c r="B193" s="51"/>
+      <c r="C193" s="53"/>
       <c r="D193" s="13" t="s">
         <v>73</v>
       </c>
@@ -18422,7 +18429,7 @@
       <c r="W193" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X193" s="48"/>
+      <c r="X193" s="74"/>
       <c r="Y193" s="43"/>
       <c r="Z193" s="43"/>
       <c r="AA193" s="43"/>
@@ -18436,9 +18443,9 @@
       </c>
     </row>
     <row r="194" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A194" s="51"/>
-      <c r="B194" s="54"/>
-      <c r="C194" s="58"/>
+      <c r="A194" s="48"/>
+      <c r="B194" s="51"/>
+      <c r="C194" s="53"/>
       <c r="D194" s="13" t="s">
         <v>76</v>
       </c>
@@ -18499,7 +18506,7 @@
       <c r="W194" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X194" s="48"/>
+      <c r="X194" s="74"/>
       <c r="Y194" s="43"/>
       <c r="Z194" s="43"/>
       <c r="AA194" s="43"/>
@@ -18513,9 +18520,9 @@
       </c>
     </row>
     <row r="195" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195" s="51"/>
-      <c r="B195" s="54"/>
-      <c r="C195" s="58"/>
+      <c r="A195" s="48"/>
+      <c r="B195" s="51"/>
+      <c r="C195" s="53"/>
       <c r="D195" s="13" t="s">
         <v>78</v>
       </c>
@@ -18576,7 +18583,7 @@
       <c r="W195" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X195" s="48"/>
+      <c r="X195" s="74"/>
       <c r="Y195" s="43"/>
       <c r="Z195" s="43"/>
       <c r="AA195" s="43"/>
@@ -18590,9 +18597,9 @@
       </c>
     </row>
     <row r="196" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A196" s="51"/>
-      <c r="B196" s="54"/>
-      <c r="C196" s="58"/>
+      <c r="A196" s="48"/>
+      <c r="B196" s="51"/>
+      <c r="C196" s="53"/>
       <c r="D196" s="13" t="s">
         <v>81</v>
       </c>
@@ -18653,7 +18660,7 @@
       <c r="W196" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X196" s="48"/>
+      <c r="X196" s="74"/>
       <c r="Y196" s="43"/>
       <c r="Z196" s="43"/>
       <c r="AA196" s="43"/>
@@ -18667,9 +18674,9 @@
       </c>
     </row>
     <row r="197" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A197" s="51"/>
-      <c r="B197" s="54"/>
-      <c r="C197" s="58"/>
+      <c r="A197" s="48"/>
+      <c r="B197" s="51"/>
+      <c r="C197" s="53"/>
       <c r="D197" s="13" t="s">
         <v>84</v>
       </c>
@@ -18730,7 +18737,7 @@
       <c r="W197" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X197" s="48"/>
+      <c r="X197" s="74"/>
       <c r="Y197" s="43"/>
       <c r="Z197" s="43"/>
       <c r="AA197" s="43"/>
@@ -18744,9 +18751,9 @@
       </c>
     </row>
     <row r="198" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A198" s="51"/>
-      <c r="B198" s="54"/>
-      <c r="C198" s="58"/>
+      <c r="A198" s="48"/>
+      <c r="B198" s="51"/>
+      <c r="C198" s="53"/>
       <c r="D198" s="13" t="s">
         <v>87</v>
       </c>
@@ -18805,7 +18812,7 @@
       <c r="W198" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X198" s="48"/>
+      <c r="X198" s="74"/>
       <c r="Y198" s="43"/>
       <c r="Z198" s="43"/>
       <c r="AA198" s="43"/>
@@ -18819,9 +18826,9 @@
       </c>
     </row>
     <row r="199" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A199" s="51"/>
-      <c r="B199" s="54"/>
-      <c r="C199" s="58"/>
+      <c r="A199" s="48"/>
+      <c r="B199" s="51"/>
+      <c r="C199" s="53"/>
       <c r="D199" s="13" t="s">
         <v>90</v>
       </c>
@@ -18880,7 +18887,7 @@
       <c r="W199" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X199" s="48"/>
+      <c r="X199" s="74"/>
       <c r="Y199" s="43"/>
       <c r="Z199" s="43"/>
       <c r="AA199" s="43"/>
@@ -18894,9 +18901,9 @@
       </c>
     </row>
     <row r="200" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A200" s="51"/>
-      <c r="B200" s="54"/>
-      <c r="C200" s="59" t="s">
+      <c r="A200" s="48"/>
+      <c r="B200" s="51"/>
+      <c r="C200" s="54" t="s">
         <v>256</v>
       </c>
       <c r="D200" s="13" t="s">
@@ -18959,7 +18966,7 @@
       <c r="W200" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X200" s="48"/>
+      <c r="X200" s="74"/>
       <c r="Y200" s="43"/>
       <c r="Z200" s="43"/>
       <c r="AA200" s="43"/>
@@ -18973,9 +18980,9 @@
       </c>
     </row>
     <row r="201" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A201" s="51"/>
-      <c r="B201" s="54"/>
-      <c r="C201" s="60"/>
+      <c r="A201" s="48"/>
+      <c r="B201" s="51"/>
+      <c r="C201" s="55"/>
       <c r="D201" s="13" t="s">
         <v>96</v>
       </c>
@@ -19034,7 +19041,7 @@
       <c r="W201" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X201" s="48"/>
+      <c r="X201" s="74"/>
       <c r="Y201" s="43"/>
       <c r="Z201" s="43"/>
       <c r="AA201" s="43"/>
@@ -19048,9 +19055,9 @@
       </c>
     </row>
     <row r="202" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A202" s="52"/>
-      <c r="B202" s="55"/>
-      <c r="C202" s="61"/>
+      <c r="A202" s="49"/>
+      <c r="B202" s="52"/>
+      <c r="C202" s="56"/>
       <c r="D202" s="15" t="s">
         <v>98</v>
       </c>
@@ -19111,7 +19118,7 @@
       <c r="W202" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X202" s="48"/>
+      <c r="X202" s="74"/>
       <c r="Y202" s="43"/>
       <c r="Z202" s="43"/>
       <c r="AA202" s="43"/>
@@ -19125,13 +19132,13 @@
       </c>
     </row>
     <row r="203" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A203" s="50">
+      <c r="A203" s="47">
         <v>4</v>
       </c>
-      <c r="B203" s="53" t="s">
+      <c r="B203" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C203" s="56" t="s">
+      <c r="C203" s="57" t="s">
         <v>260</v>
       </c>
       <c r="D203" s="6" t="s">
@@ -19194,7 +19201,7 @@
       <c r="W203" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X203" s="48"/>
+      <c r="X203" s="74"/>
       <c r="Y203" s="43"/>
       <c r="Z203" s="43"/>
       <c r="AA203" s="43"/>
@@ -19208,9 +19215,9 @@
       </c>
     </row>
     <row r="204" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A204" s="51"/>
-      <c r="B204" s="54"/>
-      <c r="C204" s="57"/>
+      <c r="A204" s="48"/>
+      <c r="B204" s="51"/>
+      <c r="C204" s="58"/>
       <c r="D204" s="6" t="s">
         <v>171</v>
       </c>
@@ -19271,7 +19278,7 @@
       <c r="W204" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X204" s="48"/>
+      <c r="X204" s="74"/>
       <c r="Y204" s="43"/>
       <c r="Z204" s="43"/>
       <c r="AA204" s="43"/>
@@ -19285,9 +19292,9 @@
       </c>
     </row>
     <row r="205" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A205" s="51"/>
-      <c r="B205" s="54"/>
-      <c r="C205" s="57"/>
+      <c r="A205" s="48"/>
+      <c r="B205" s="51"/>
+      <c r="C205" s="58"/>
       <c r="D205" s="6" t="s">
         <v>263</v>
       </c>
@@ -19348,7 +19355,7 @@
       <c r="W205" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X205" s="48"/>
+      <c r="X205" s="74"/>
       <c r="Y205" s="43"/>
       <c r="Z205" s="43"/>
       <c r="AA205" s="43"/>
@@ -19362,9 +19369,9 @@
       </c>
     </row>
     <row r="206" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A206" s="51"/>
-      <c r="B206" s="54"/>
-      <c r="C206" s="57"/>
+      <c r="A206" s="48"/>
+      <c r="B206" s="51"/>
+      <c r="C206" s="58"/>
       <c r="D206" s="6" t="s">
         <v>266</v>
       </c>
@@ -19425,7 +19432,7 @@
       <c r="W206" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X206" s="48"/>
+      <c r="X206" s="74"/>
       <c r="Y206" s="43"/>
       <c r="Z206" s="43"/>
       <c r="AA206" s="43"/>
@@ -19439,9 +19446,9 @@
       </c>
     </row>
     <row r="207" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A207" s="51"/>
-      <c r="B207" s="54"/>
-      <c r="C207" s="62"/>
+      <c r="A207" s="48"/>
+      <c r="B207" s="51"/>
+      <c r="C207" s="59"/>
       <c r="D207" s="6" t="s">
         <v>269</v>
       </c>
@@ -19502,7 +19509,7 @@
       <c r="W207" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X207" s="48"/>
+      <c r="X207" s="74"/>
       <c r="Y207" s="43"/>
       <c r="Z207" s="43"/>
       <c r="AA207" s="43"/>
@@ -19516,9 +19523,9 @@
       </c>
     </row>
     <row r="208" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A208" s="51"/>
-      <c r="B208" s="54"/>
-      <c r="C208" s="58" t="s">
+      <c r="A208" s="48"/>
+      <c r="B208" s="51"/>
+      <c r="C208" s="53" t="s">
         <v>447</v>
       </c>
       <c r="D208" s="13" t="s">
@@ -19581,7 +19588,7 @@
       <c r="W208" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X208" s="48"/>
+      <c r="X208" s="74"/>
       <c r="Y208" s="43"/>
       <c r="Z208" s="43"/>
       <c r="AA208" s="43"/>
@@ -19595,9 +19602,9 @@
       </c>
     </row>
     <row r="209" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A209" s="51"/>
-      <c r="B209" s="54"/>
-      <c r="C209" s="58"/>
+      <c r="A209" s="48"/>
+      <c r="B209" s="51"/>
+      <c r="C209" s="53"/>
       <c r="D209" s="13" t="s">
         <v>42</v>
       </c>
@@ -19658,7 +19665,7 @@
       <c r="W209" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X209" s="48"/>
+      <c r="X209" s="74"/>
       <c r="Y209" s="43"/>
       <c r="Z209" s="43"/>
       <c r="AA209" s="43"/>
@@ -19672,9 +19679,9 @@
       </c>
     </row>
     <row r="210" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A210" s="51"/>
-      <c r="B210" s="54"/>
-      <c r="C210" s="58"/>
+      <c r="A210" s="48"/>
+      <c r="B210" s="51"/>
+      <c r="C210" s="53"/>
       <c r="D210" s="13" t="s">
         <v>45</v>
       </c>
@@ -19735,7 +19742,7 @@
       <c r="W210" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X210" s="48"/>
+      <c r="X210" s="74"/>
       <c r="Y210" s="43"/>
       <c r="Z210" s="43"/>
       <c r="AA210" s="43"/>
@@ -19749,9 +19756,9 @@
       </c>
     </row>
     <row r="211" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A211" s="51"/>
-      <c r="B211" s="54"/>
-      <c r="C211" s="58"/>
+      <c r="A211" s="48"/>
+      <c r="B211" s="51"/>
+      <c r="C211" s="53"/>
       <c r="D211" s="13" t="s">
         <v>47</v>
       </c>
@@ -19812,7 +19819,7 @@
       <c r="W211" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X211" s="48"/>
+      <c r="X211" s="74"/>
       <c r="Y211" s="43"/>
       <c r="Z211" s="43"/>
       <c r="AA211" s="43"/>
@@ -19826,9 +19833,9 @@
       </c>
     </row>
     <row r="212" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A212" s="51"/>
-      <c r="B212" s="54"/>
-      <c r="C212" s="58"/>
+      <c r="A212" s="48"/>
+      <c r="B212" s="51"/>
+      <c r="C212" s="53"/>
       <c r="D212" s="13" t="s">
         <v>50</v>
       </c>
@@ -19889,7 +19896,7 @@
       <c r="W212" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X212" s="48"/>
+      <c r="X212" s="74"/>
       <c r="Y212" s="43"/>
       <c r="Z212" s="43"/>
       <c r="AA212" s="43"/>
@@ -19903,9 +19910,9 @@
       </c>
     </row>
     <row r="213" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A213" s="51"/>
-      <c r="B213" s="54"/>
-      <c r="C213" s="58"/>
+      <c r="A213" s="48"/>
+      <c r="B213" s="51"/>
+      <c r="C213" s="53"/>
       <c r="D213" s="13" t="s">
         <v>53</v>
       </c>
@@ -19966,7 +19973,7 @@
       <c r="W213" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X213" s="48"/>
+      <c r="X213" s="74"/>
       <c r="Y213" s="43"/>
       <c r="Z213" s="43"/>
       <c r="AA213" s="43"/>
@@ -19980,9 +19987,9 @@
       </c>
     </row>
     <row r="214" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A214" s="51"/>
-      <c r="B214" s="54"/>
-      <c r="C214" s="58"/>
+      <c r="A214" s="48"/>
+      <c r="B214" s="51"/>
+      <c r="C214" s="53"/>
       <c r="D214" s="13" t="s">
         <v>56</v>
       </c>
@@ -20043,7 +20050,7 @@
       <c r="W214" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X214" s="48"/>
+      <c r="X214" s="74"/>
       <c r="Y214" s="43"/>
       <c r="Z214" s="43"/>
       <c r="AA214" s="43"/>
@@ -20057,9 +20064,9 @@
       </c>
     </row>
     <row r="215" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A215" s="51"/>
-      <c r="B215" s="54"/>
-      <c r="C215" s="58"/>
+      <c r="A215" s="48"/>
+      <c r="B215" s="51"/>
+      <c r="C215" s="53"/>
       <c r="D215" s="13" t="s">
         <v>56</v>
       </c>
@@ -20120,7 +20127,7 @@
       <c r="W215" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X215" s="48"/>
+      <c r="X215" s="74"/>
       <c r="Y215" s="43"/>
       <c r="Z215" s="43"/>
       <c r="AA215" s="43"/>
@@ -20134,9 +20141,9 @@
       </c>
     </row>
     <row r="216" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A216" s="51"/>
-      <c r="B216" s="54"/>
-      <c r="C216" s="58"/>
+      <c r="A216" s="48"/>
+      <c r="B216" s="51"/>
+      <c r="C216" s="53"/>
       <c r="D216" s="13" t="s">
         <v>56</v>
       </c>
@@ -20197,7 +20204,7 @@
       <c r="W216" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X216" s="48"/>
+      <c r="X216" s="74"/>
       <c r="Y216" s="43"/>
       <c r="Z216" s="43"/>
       <c r="AA216" s="43"/>
@@ -20211,9 +20218,9 @@
       </c>
     </row>
     <row r="217" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A217" s="51"/>
-      <c r="B217" s="54"/>
-      <c r="C217" s="58"/>
+      <c r="A217" s="48"/>
+      <c r="B217" s="51"/>
+      <c r="C217" s="53"/>
       <c r="D217" s="13" t="s">
         <v>70</v>
       </c>
@@ -20274,7 +20281,7 @@
       <c r="W217" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X217" s="48"/>
+      <c r="X217" s="74"/>
       <c r="Y217" s="43"/>
       <c r="Z217" s="43"/>
       <c r="AA217" s="43"/>
@@ -20288,9 +20295,9 @@
       </c>
     </row>
     <row r="218" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A218" s="51"/>
-      <c r="B218" s="54"/>
-      <c r="C218" s="58"/>
+      <c r="A218" s="48"/>
+      <c r="B218" s="51"/>
+      <c r="C218" s="53"/>
       <c r="D218" s="13" t="s">
         <v>73</v>
       </c>
@@ -20351,7 +20358,7 @@
       <c r="W218" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X218" s="48"/>
+      <c r="X218" s="74"/>
       <c r="Y218" s="43"/>
       <c r="Z218" s="43"/>
       <c r="AA218" s="43"/>
@@ -20365,9 +20372,9 @@
       </c>
     </row>
     <row r="219" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A219" s="51"/>
-      <c r="B219" s="54"/>
-      <c r="C219" s="58"/>
+      <c r="A219" s="48"/>
+      <c r="B219" s="51"/>
+      <c r="C219" s="53"/>
       <c r="D219" s="13" t="s">
         <v>76</v>
       </c>
@@ -20428,7 +20435,7 @@
       <c r="W219" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X219" s="48"/>
+      <c r="X219" s="74"/>
       <c r="Y219" s="43"/>
       <c r="Z219" s="43"/>
       <c r="AA219" s="43"/>
@@ -20442,9 +20449,9 @@
       </c>
     </row>
     <row r="220" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A220" s="51"/>
-      <c r="B220" s="54"/>
-      <c r="C220" s="58"/>
+      <c r="A220" s="48"/>
+      <c r="B220" s="51"/>
+      <c r="C220" s="53"/>
       <c r="D220" s="13" t="s">
         <v>78</v>
       </c>
@@ -20505,7 +20512,7 @@
       <c r="W220" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X220" s="48"/>
+      <c r="X220" s="74"/>
       <c r="Y220" s="43"/>
       <c r="Z220" s="43"/>
       <c r="AA220" s="43"/>
@@ -20519,9 +20526,9 @@
       </c>
     </row>
     <row r="221" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A221" s="51"/>
-      <c r="B221" s="54"/>
-      <c r="C221" s="58"/>
+      <c r="A221" s="48"/>
+      <c r="B221" s="51"/>
+      <c r="C221" s="53"/>
       <c r="D221" s="13" t="s">
         <v>81</v>
       </c>
@@ -20582,7 +20589,7 @@
       <c r="W221" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X221" s="48"/>
+      <c r="X221" s="74"/>
       <c r="Y221" s="43"/>
       <c r="Z221" s="43"/>
       <c r="AA221" s="43"/>
@@ -20596,9 +20603,9 @@
       </c>
     </row>
     <row r="222" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A222" s="51"/>
-      <c r="B222" s="54"/>
-      <c r="C222" s="58"/>
+      <c r="A222" s="48"/>
+      <c r="B222" s="51"/>
+      <c r="C222" s="53"/>
       <c r="D222" s="13" t="s">
         <v>84</v>
       </c>
@@ -20659,7 +20666,7 @@
       <c r="W222" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X222" s="48"/>
+      <c r="X222" s="74"/>
       <c r="Y222" s="43"/>
       <c r="Z222" s="43"/>
       <c r="AA222" s="43"/>
@@ -20673,9 +20680,9 @@
       </c>
     </row>
     <row r="223" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A223" s="51"/>
-      <c r="B223" s="54"/>
-      <c r="C223" s="58"/>
+      <c r="A223" s="48"/>
+      <c r="B223" s="51"/>
+      <c r="C223" s="53"/>
       <c r="D223" s="13" t="s">
         <v>87</v>
       </c>
@@ -20734,7 +20741,7 @@
       <c r="W223" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X223" s="48"/>
+      <c r="X223" s="74"/>
       <c r="Y223" s="43"/>
       <c r="Z223" s="43"/>
       <c r="AA223" s="43"/>
@@ -20748,9 +20755,9 @@
       </c>
     </row>
     <row r="224" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A224" s="51"/>
-      <c r="B224" s="54"/>
-      <c r="C224" s="58"/>
+      <c r="A224" s="48"/>
+      <c r="B224" s="51"/>
+      <c r="C224" s="53"/>
       <c r="D224" s="13" t="s">
         <v>90</v>
       </c>
@@ -20809,7 +20816,7 @@
       <c r="W224" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X224" s="48"/>
+      <c r="X224" s="74"/>
       <c r="Y224" s="43"/>
       <c r="Z224" s="43"/>
       <c r="AA224" s="43"/>
@@ -20823,9 +20830,9 @@
       </c>
     </row>
     <row r="225" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A225" s="51"/>
-      <c r="B225" s="54"/>
-      <c r="C225" s="59" t="s">
+      <c r="A225" s="48"/>
+      <c r="B225" s="51"/>
+      <c r="C225" s="54" t="s">
         <v>256</v>
       </c>
       <c r="D225" s="13" t="s">
@@ -20888,7 +20895,7 @@
       <c r="W225" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X225" s="48"/>
+      <c r="X225" s="74"/>
       <c r="Y225" s="43"/>
       <c r="Z225" s="43"/>
       <c r="AA225" s="43"/>
@@ -20902,9 +20909,9 @@
       </c>
     </row>
     <row r="226" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A226" s="51"/>
-      <c r="B226" s="54"/>
-      <c r="C226" s="60"/>
+      <c r="A226" s="48"/>
+      <c r="B226" s="51"/>
+      <c r="C226" s="55"/>
       <c r="D226" s="13" t="s">
         <v>96</v>
       </c>
@@ -20963,7 +20970,7 @@
       <c r="W226" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X226" s="48"/>
+      <c r="X226" s="74"/>
       <c r="Y226" s="43"/>
       <c r="Z226" s="43"/>
       <c r="AA226" s="43"/>
@@ -20977,9 +20984,9 @@
       </c>
     </row>
     <row r="227" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A227" s="52"/>
-      <c r="B227" s="55"/>
-      <c r="C227" s="61"/>
+      <c r="A227" s="49"/>
+      <c r="B227" s="52"/>
+      <c r="C227" s="56"/>
       <c r="D227" s="15" t="s">
         <v>98</v>
       </c>
@@ -21040,7 +21047,7 @@
       <c r="W227" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X227" s="48"/>
+      <c r="X227" s="74"/>
       <c r="Y227" s="43"/>
       <c r="Z227" s="43"/>
       <c r="AA227" s="43"/>
@@ -21054,13 +21061,13 @@
       </c>
     </row>
     <row r="228" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A228" s="50">
+      <c r="A228" s="47">
         <v>4</v>
       </c>
-      <c r="B228" s="53" t="s">
+      <c r="B228" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C228" s="56" t="s">
+      <c r="C228" s="57" t="s">
         <v>100</v>
       </c>
       <c r="D228" s="6" t="s">
@@ -21123,7 +21130,7 @@
       <c r="W228" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X228" s="48"/>
+      <c r="X228" s="74"/>
       <c r="Y228" s="43"/>
       <c r="Z228" s="43"/>
       <c r="AA228" s="43"/>
@@ -21137,9 +21144,9 @@
       </c>
     </row>
     <row r="229" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A229" s="51"/>
-      <c r="B229" s="54"/>
-      <c r="C229" s="57"/>
+      <c r="A229" s="48"/>
+      <c r="B229" s="51"/>
+      <c r="C229" s="58"/>
       <c r="D229" s="6" t="s">
         <v>171</v>
       </c>
@@ -21200,7 +21207,7 @@
       <c r="W229" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X229" s="48"/>
+      <c r="X229" s="74"/>
       <c r="Y229" s="43"/>
       <c r="Z229" s="43"/>
       <c r="AA229" s="43"/>
@@ -21214,9 +21221,9 @@
       </c>
     </row>
     <row r="230" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A230" s="51"/>
-      <c r="B230" s="54"/>
-      <c r="C230" s="57"/>
+      <c r="A230" s="48"/>
+      <c r="B230" s="51"/>
+      <c r="C230" s="58"/>
       <c r="D230" s="6" t="s">
         <v>475</v>
       </c>
@@ -21277,7 +21284,7 @@
       <c r="W230" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X230" s="48"/>
+      <c r="X230" s="74"/>
       <c r="Y230" s="43"/>
       <c r="Z230" s="43"/>
       <c r="AA230" s="43"/>
@@ -21291,9 +21298,9 @@
       </c>
     </row>
     <row r="231" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A231" s="51"/>
-      <c r="B231" s="54"/>
-      <c r="C231" s="57"/>
+      <c r="A231" s="48"/>
+      <c r="B231" s="51"/>
+      <c r="C231" s="58"/>
       <c r="D231" s="6" t="s">
         <v>478</v>
       </c>
@@ -21354,7 +21361,7 @@
       <c r="W231" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X231" s="48"/>
+      <c r="X231" s="74"/>
       <c r="Y231" s="43"/>
       <c r="Z231" s="43"/>
       <c r="AA231" s="43"/>
@@ -21368,9 +21375,9 @@
       </c>
     </row>
     <row r="232" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A232" s="51"/>
-      <c r="B232" s="54"/>
-      <c r="C232" s="62"/>
+      <c r="A232" s="48"/>
+      <c r="B232" s="51"/>
+      <c r="C232" s="59"/>
       <c r="D232" s="6" t="s">
         <v>481</v>
       </c>
@@ -21431,7 +21438,7 @@
       <c r="W232" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X232" s="48"/>
+      <c r="X232" s="74"/>
       <c r="Y232" s="43"/>
       <c r="Z232" s="43"/>
       <c r="AA232" s="43"/>
@@ -21445,9 +21452,9 @@
       </c>
     </row>
     <row r="233" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A233" s="51"/>
-      <c r="B233" s="54"/>
-      <c r="C233" s="58" t="s">
+      <c r="A233" s="48"/>
+      <c r="B233" s="51"/>
+      <c r="C233" s="53" t="s">
         <v>484</v>
       </c>
       <c r="D233" s="13" t="s">
@@ -21510,7 +21517,7 @@
       <c r="W233" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X233" s="48"/>
+      <c r="X233" s="74"/>
       <c r="Y233" s="43"/>
       <c r="Z233" s="43"/>
       <c r="AA233" s="43"/>
@@ -21524,9 +21531,9 @@
       </c>
     </row>
     <row r="234" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A234" s="51"/>
-      <c r="B234" s="54"/>
-      <c r="C234" s="58"/>
+      <c r="A234" s="48"/>
+      <c r="B234" s="51"/>
+      <c r="C234" s="53"/>
       <c r="D234" s="13" t="s">
         <v>42</v>
       </c>
@@ -21587,7 +21594,7 @@
       <c r="W234" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X234" s="48"/>
+      <c r="X234" s="74"/>
       <c r="Y234" s="43"/>
       <c r="Z234" s="43"/>
       <c r="AA234" s="43"/>
@@ -21601,9 +21608,9 @@
       </c>
     </row>
     <row r="235" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A235" s="51"/>
-      <c r="B235" s="54"/>
-      <c r="C235" s="58"/>
+      <c r="A235" s="48"/>
+      <c r="B235" s="51"/>
+      <c r="C235" s="53"/>
       <c r="D235" s="13" t="s">
         <v>45</v>
       </c>
@@ -21664,7 +21671,7 @@
       <c r="W235" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X235" s="48"/>
+      <c r="X235" s="74"/>
       <c r="Y235" s="43"/>
       <c r="Z235" s="43"/>
       <c r="AA235" s="43"/>
@@ -21678,9 +21685,9 @@
       </c>
     </row>
     <row r="236" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A236" s="51"/>
-      <c r="B236" s="54"/>
-      <c r="C236" s="58"/>
+      <c r="A236" s="48"/>
+      <c r="B236" s="51"/>
+      <c r="C236" s="53"/>
       <c r="D236" s="13" t="s">
         <v>47</v>
       </c>
@@ -21741,7 +21748,7 @@
       <c r="W236" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X236" s="48"/>
+      <c r="X236" s="74"/>
       <c r="Y236" s="43"/>
       <c r="Z236" s="43"/>
       <c r="AA236" s="43"/>
@@ -21755,9 +21762,9 @@
       </c>
     </row>
     <row r="237" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A237" s="51"/>
-      <c r="B237" s="54"/>
-      <c r="C237" s="58"/>
+      <c r="A237" s="48"/>
+      <c r="B237" s="51"/>
+      <c r="C237" s="53"/>
       <c r="D237" s="13" t="s">
         <v>50</v>
       </c>
@@ -21818,7 +21825,7 @@
       <c r="W237" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X237" s="48"/>
+      <c r="X237" s="74"/>
       <c r="Y237" s="43"/>
       <c r="Z237" s="43"/>
       <c r="AA237" s="43"/>
@@ -21832,9 +21839,9 @@
       </c>
     </row>
     <row r="238" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A238" s="51"/>
-      <c r="B238" s="54"/>
-      <c r="C238" s="58"/>
+      <c r="A238" s="48"/>
+      <c r="B238" s="51"/>
+      <c r="C238" s="53"/>
       <c r="D238" s="13" t="s">
         <v>53</v>
       </c>
@@ -21895,7 +21902,7 @@
       <c r="W238" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X238" s="48"/>
+      <c r="X238" s="74"/>
       <c r="Y238" s="43"/>
       <c r="Z238" s="43"/>
       <c r="AA238" s="43"/>
@@ -21909,9 +21916,9 @@
       </c>
     </row>
     <row r="239" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A239" s="51"/>
-      <c r="B239" s="54"/>
-      <c r="C239" s="58"/>
+      <c r="A239" s="48"/>
+      <c r="B239" s="51"/>
+      <c r="C239" s="53"/>
       <c r="D239" s="13" t="s">
         <v>56</v>
       </c>
@@ -21972,7 +21979,7 @@
       <c r="W239" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X239" s="48"/>
+      <c r="X239" s="74"/>
       <c r="Y239" s="43"/>
       <c r="Z239" s="43"/>
       <c r="AA239" s="43"/>
@@ -21986,9 +21993,9 @@
       </c>
     </row>
     <row r="240" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A240" s="51"/>
-      <c r="B240" s="54"/>
-      <c r="C240" s="58"/>
+      <c r="A240" s="48"/>
+      <c r="B240" s="51"/>
+      <c r="C240" s="53"/>
       <c r="D240" s="13" t="s">
         <v>56</v>
       </c>
@@ -22049,7 +22056,7 @@
       <c r="W240" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X240" s="48"/>
+      <c r="X240" s="74"/>
       <c r="Y240" s="43"/>
       <c r="Z240" s="43"/>
       <c r="AA240" s="43"/>
@@ -22063,9 +22070,9 @@
       </c>
     </row>
     <row r="241" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A241" s="51"/>
-      <c r="B241" s="54"/>
-      <c r="C241" s="58"/>
+      <c r="A241" s="48"/>
+      <c r="B241" s="51"/>
+      <c r="C241" s="53"/>
       <c r="D241" s="13" t="s">
         <v>56</v>
       </c>
@@ -22126,7 +22133,7 @@
       <c r="W241" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X241" s="48"/>
+      <c r="X241" s="74"/>
       <c r="Y241" s="43"/>
       <c r="Z241" s="43"/>
       <c r="AA241" s="43"/>
@@ -22140,9 +22147,9 @@
       </c>
     </row>
     <row r="242" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A242" s="51"/>
-      <c r="B242" s="54"/>
-      <c r="C242" s="58"/>
+      <c r="A242" s="48"/>
+      <c r="B242" s="51"/>
+      <c r="C242" s="53"/>
       <c r="D242" s="13" t="s">
         <v>70</v>
       </c>
@@ -22203,7 +22210,7 @@
       <c r="W242" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X242" s="48"/>
+      <c r="X242" s="74"/>
       <c r="Y242" s="43"/>
       <c r="Z242" s="43"/>
       <c r="AA242" s="43"/>
@@ -22217,9 +22224,9 @@
       </c>
     </row>
     <row r="243" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A243" s="51"/>
-      <c r="B243" s="54"/>
-      <c r="C243" s="58"/>
+      <c r="A243" s="48"/>
+      <c r="B243" s="51"/>
+      <c r="C243" s="53"/>
       <c r="D243" s="13" t="s">
         <v>73</v>
       </c>
@@ -22280,7 +22287,7 @@
       <c r="W243" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X243" s="48"/>
+      <c r="X243" s="74"/>
       <c r="Y243" s="43"/>
       <c r="Z243" s="43"/>
       <c r="AA243" s="43"/>
@@ -22294,9 +22301,9 @@
       </c>
     </row>
     <row r="244" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A244" s="51"/>
-      <c r="B244" s="54"/>
-      <c r="C244" s="58"/>
+      <c r="A244" s="48"/>
+      <c r="B244" s="51"/>
+      <c r="C244" s="53"/>
       <c r="D244" s="13" t="s">
         <v>76</v>
       </c>
@@ -22357,7 +22364,7 @@
       <c r="W244" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X244" s="48"/>
+      <c r="X244" s="74"/>
       <c r="Y244" s="43"/>
       <c r="Z244" s="43"/>
       <c r="AA244" s="43"/>
@@ -22371,9 +22378,9 @@
       </c>
     </row>
     <row r="245" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A245" s="51"/>
-      <c r="B245" s="54"/>
-      <c r="C245" s="58"/>
+      <c r="A245" s="48"/>
+      <c r="B245" s="51"/>
+      <c r="C245" s="53"/>
       <c r="D245" s="13" t="s">
         <v>78</v>
       </c>
@@ -22434,7 +22441,7 @@
       <c r="W245" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X245" s="48"/>
+      <c r="X245" s="74"/>
       <c r="Y245" s="43"/>
       <c r="Z245" s="43"/>
       <c r="AA245" s="43"/>
@@ -22448,9 +22455,9 @@
       </c>
     </row>
     <row r="246" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A246" s="51"/>
-      <c r="B246" s="54"/>
-      <c r="C246" s="58"/>
+      <c r="A246" s="48"/>
+      <c r="B246" s="51"/>
+      <c r="C246" s="53"/>
       <c r="D246" s="13" t="s">
         <v>81</v>
       </c>
@@ -22511,7 +22518,7 @@
       <c r="W246" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X246" s="48"/>
+      <c r="X246" s="74"/>
       <c r="Y246" s="43"/>
       <c r="Z246" s="43"/>
       <c r="AA246" s="43"/>
@@ -22525,9 +22532,9 @@
       </c>
     </row>
     <row r="247" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A247" s="51"/>
-      <c r="B247" s="54"/>
-      <c r="C247" s="58"/>
+      <c r="A247" s="48"/>
+      <c r="B247" s="51"/>
+      <c r="C247" s="53"/>
       <c r="D247" s="13" t="s">
         <v>84</v>
       </c>
@@ -22588,7 +22595,7 @@
       <c r="W247" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X247" s="48"/>
+      <c r="X247" s="74"/>
       <c r="Y247" s="43"/>
       <c r="Z247" s="43"/>
       <c r="AA247" s="43"/>
@@ -22602,9 +22609,9 @@
       </c>
     </row>
     <row r="248" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A248" s="51"/>
-      <c r="B248" s="54"/>
-      <c r="C248" s="58"/>
+      <c r="A248" s="48"/>
+      <c r="B248" s="51"/>
+      <c r="C248" s="53"/>
       <c r="D248" s="13" t="s">
         <v>87</v>
       </c>
@@ -22663,7 +22670,7 @@
       <c r="W248" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X248" s="48"/>
+      <c r="X248" s="74"/>
       <c r="Y248" s="43"/>
       <c r="Z248" s="43"/>
       <c r="AA248" s="43"/>
@@ -22677,9 +22684,9 @@
       </c>
     </row>
     <row r="249" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A249" s="51"/>
-      <c r="B249" s="54"/>
-      <c r="C249" s="58"/>
+      <c r="A249" s="48"/>
+      <c r="B249" s="51"/>
+      <c r="C249" s="53"/>
       <c r="D249" s="13" t="s">
         <v>90</v>
       </c>
@@ -22738,7 +22745,7 @@
       <c r="W249" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X249" s="48"/>
+      <c r="X249" s="74"/>
       <c r="Y249" s="43"/>
       <c r="Z249" s="43"/>
       <c r="AA249" s="43"/>
@@ -22752,9 +22759,9 @@
       </c>
     </row>
     <row r="250" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A250" s="51"/>
-      <c r="B250" s="54"/>
-      <c r="C250" s="59" t="s">
+      <c r="A250" s="48"/>
+      <c r="B250" s="51"/>
+      <c r="C250" s="54" t="s">
         <v>256</v>
       </c>
       <c r="D250" s="13" t="s">
@@ -22817,7 +22824,7 @@
       <c r="W250" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X250" s="48"/>
+      <c r="X250" s="74"/>
       <c r="Y250" s="43"/>
       <c r="Z250" s="43"/>
       <c r="AA250" s="43"/>
@@ -22831,9 +22838,9 @@
       </c>
     </row>
     <row r="251" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A251" s="51"/>
-      <c r="B251" s="54"/>
-      <c r="C251" s="60"/>
+      <c r="A251" s="48"/>
+      <c r="B251" s="51"/>
+      <c r="C251" s="55"/>
       <c r="D251" s="13" t="s">
         <v>96</v>
       </c>
@@ -22892,7 +22899,7 @@
       <c r="W251" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X251" s="48"/>
+      <c r="X251" s="74"/>
       <c r="Y251" s="43"/>
       <c r="Z251" s="43"/>
       <c r="AA251" s="43"/>
@@ -22906,9 +22913,9 @@
       </c>
     </row>
     <row r="252" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A252" s="52"/>
-      <c r="B252" s="55"/>
-      <c r="C252" s="61"/>
+      <c r="A252" s="49"/>
+      <c r="B252" s="52"/>
+      <c r="C252" s="56"/>
       <c r="D252" s="15" t="s">
         <v>98</v>
       </c>
@@ -22969,7 +22976,7 @@
       <c r="W252" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X252" s="48"/>
+      <c r="X252" s="74"/>
       <c r="Y252" s="43"/>
       <c r="Z252" s="43"/>
       <c r="AA252" s="43"/>
@@ -22983,13 +22990,13 @@
       </c>
     </row>
     <row r="253" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A253" s="50">
+      <c r="A253" s="47">
         <v>4</v>
       </c>
-      <c r="B253" s="53" t="s">
+      <c r="B253" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C253" s="56" t="s">
+      <c r="C253" s="57" t="s">
         <v>510</v>
       </c>
       <c r="D253" s="6" t="s">
@@ -23052,7 +23059,7 @@
       <c r="W253" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X253" s="48"/>
+      <c r="X253" s="74"/>
       <c r="Y253" s="43"/>
       <c r="Z253" s="43"/>
       <c r="AA253" s="43"/>
@@ -23066,9 +23073,9 @@
       </c>
     </row>
     <row r="254" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A254" s="51"/>
-      <c r="B254" s="54"/>
-      <c r="C254" s="57"/>
+      <c r="A254" s="48"/>
+      <c r="B254" s="51"/>
+      <c r="C254" s="58"/>
       <c r="D254" s="6" t="s">
         <v>171</v>
       </c>
@@ -23129,7 +23136,7 @@
       <c r="W254" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X254" s="48"/>
+      <c r="X254" s="74"/>
       <c r="Y254" s="43"/>
       <c r="Z254" s="43"/>
       <c r="AA254" s="43"/>
@@ -23143,9 +23150,9 @@
       </c>
     </row>
     <row r="255" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A255" s="51"/>
-      <c r="B255" s="54"/>
-      <c r="C255" s="57"/>
+      <c r="A255" s="48"/>
+      <c r="B255" s="51"/>
+      <c r="C255" s="58"/>
       <c r="D255" s="6" t="s">
         <v>513</v>
       </c>
@@ -23206,7 +23213,7 @@
       <c r="W255" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X255" s="48"/>
+      <c r="X255" s="74"/>
       <c r="Y255" s="43"/>
       <c r="Z255" s="43"/>
       <c r="AA255" s="43"/>
@@ -23220,9 +23227,9 @@
       </c>
     </row>
     <row r="256" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A256" s="51"/>
-      <c r="B256" s="54"/>
-      <c r="C256" s="62"/>
+      <c r="A256" s="48"/>
+      <c r="B256" s="51"/>
+      <c r="C256" s="59"/>
       <c r="D256" s="6" t="s">
         <v>516</v>
       </c>
@@ -23283,7 +23290,7 @@
       <c r="W256" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X256" s="48"/>
+      <c r="X256" s="74"/>
       <c r="Y256" s="43"/>
       <c r="Z256" s="43"/>
       <c r="AA256" s="43"/>
@@ -23297,9 +23304,9 @@
       </c>
     </row>
     <row r="257" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A257" s="51"/>
-      <c r="B257" s="54"/>
-      <c r="C257" s="58" t="s">
+      <c r="A257" s="48"/>
+      <c r="B257" s="51"/>
+      <c r="C257" s="53" t="s">
         <v>519</v>
       </c>
       <c r="D257" s="13" t="s">
@@ -23362,7 +23369,7 @@
       <c r="W257" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X257" s="48"/>
+      <c r="X257" s="74"/>
       <c r="Y257" s="43"/>
       <c r="Z257" s="43"/>
       <c r="AA257" s="43"/>
@@ -23376,9 +23383,9 @@
       </c>
     </row>
     <row r="258" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A258" s="51"/>
-      <c r="B258" s="54"/>
-      <c r="C258" s="58"/>
+      <c r="A258" s="48"/>
+      <c r="B258" s="51"/>
+      <c r="C258" s="53"/>
       <c r="D258" s="13" t="s">
         <v>42</v>
       </c>
@@ -23439,7 +23446,7 @@
       <c r="W258" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X258" s="48"/>
+      <c r="X258" s="74"/>
       <c r="Y258" s="43"/>
       <c r="Z258" s="43"/>
       <c r="AA258" s="43"/>
@@ -23453,9 +23460,9 @@
       </c>
     </row>
     <row r="259" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A259" s="51"/>
-      <c r="B259" s="54"/>
-      <c r="C259" s="58"/>
+      <c r="A259" s="48"/>
+      <c r="B259" s="51"/>
+      <c r="C259" s="53"/>
       <c r="D259" s="13" t="s">
         <v>45</v>
       </c>
@@ -23516,7 +23523,7 @@
       <c r="W259" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X259" s="48"/>
+      <c r="X259" s="74"/>
       <c r="Y259" s="43"/>
       <c r="Z259" s="43"/>
       <c r="AA259" s="43"/>
@@ -23530,9 +23537,9 @@
       </c>
     </row>
     <row r="260" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A260" s="51"/>
-      <c r="B260" s="54"/>
-      <c r="C260" s="58"/>
+      <c r="A260" s="48"/>
+      <c r="B260" s="51"/>
+      <c r="C260" s="53"/>
       <c r="D260" s="13" t="s">
         <v>47</v>
       </c>
@@ -23593,7 +23600,7 @@
       <c r="W260" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X260" s="48"/>
+      <c r="X260" s="74"/>
       <c r="Y260" s="43"/>
       <c r="Z260" s="43"/>
       <c r="AA260" s="43"/>
@@ -23607,9 +23614,9 @@
       </c>
     </row>
     <row r="261" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A261" s="51"/>
-      <c r="B261" s="54"/>
-      <c r="C261" s="58"/>
+      <c r="A261" s="48"/>
+      <c r="B261" s="51"/>
+      <c r="C261" s="53"/>
       <c r="D261" s="13" t="s">
         <v>50</v>
       </c>
@@ -23670,7 +23677,7 @@
       <c r="W261" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X261" s="48"/>
+      <c r="X261" s="74"/>
       <c r="Y261" s="43"/>
       <c r="Z261" s="43"/>
       <c r="AA261" s="43"/>
@@ -23684,9 +23691,9 @@
       </c>
     </row>
     <row r="262" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A262" s="51"/>
-      <c r="B262" s="54"/>
-      <c r="C262" s="58"/>
+      <c r="A262" s="48"/>
+      <c r="B262" s="51"/>
+      <c r="C262" s="53"/>
       <c r="D262" s="13" t="s">
         <v>53</v>
       </c>
@@ -23747,7 +23754,7 @@
       <c r="W262" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X262" s="48"/>
+      <c r="X262" s="74"/>
       <c r="Y262" s="43"/>
       <c r="Z262" s="43"/>
       <c r="AA262" s="43"/>
@@ -23761,9 +23768,9 @@
       </c>
     </row>
     <row r="263" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A263" s="51"/>
-      <c r="B263" s="54"/>
-      <c r="C263" s="58"/>
+      <c r="A263" s="48"/>
+      <c r="B263" s="51"/>
+      <c r="C263" s="53"/>
       <c r="D263" s="13" t="s">
         <v>56</v>
       </c>
@@ -23824,7 +23831,7 @@
       <c r="W263" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X263" s="48"/>
+      <c r="X263" s="74"/>
       <c r="Y263" s="43"/>
       <c r="Z263" s="43"/>
       <c r="AA263" s="43"/>
@@ -23838,9 +23845,9 @@
       </c>
     </row>
     <row r="264" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A264" s="51"/>
-      <c r="B264" s="54"/>
-      <c r="C264" s="58"/>
+      <c r="A264" s="48"/>
+      <c r="B264" s="51"/>
+      <c r="C264" s="53"/>
       <c r="D264" s="13" t="s">
         <v>56</v>
       </c>
@@ -23901,7 +23908,7 @@
       <c r="W264" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X264" s="48"/>
+      <c r="X264" s="74"/>
       <c r="Y264" s="43"/>
       <c r="Z264" s="43"/>
       <c r="AA264" s="43"/>
@@ -23915,9 +23922,9 @@
       </c>
     </row>
     <row r="265" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A265" s="51"/>
-      <c r="B265" s="54"/>
-      <c r="C265" s="58"/>
+      <c r="A265" s="48"/>
+      <c r="B265" s="51"/>
+      <c r="C265" s="53"/>
       <c r="D265" s="13" t="s">
         <v>56</v>
       </c>
@@ -23978,7 +23985,7 @@
       <c r="W265" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X265" s="48"/>
+      <c r="X265" s="74"/>
       <c r="Y265" s="43"/>
       <c r="Z265" s="43"/>
       <c r="AA265" s="43"/>
@@ -23992,9 +23999,9 @@
       </c>
     </row>
     <row r="266" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A266" s="51"/>
-      <c r="B266" s="54"/>
-      <c r="C266" s="58"/>
+      <c r="A266" s="48"/>
+      <c r="B266" s="51"/>
+      <c r="C266" s="53"/>
       <c r="D266" s="13" t="s">
         <v>70</v>
       </c>
@@ -24055,7 +24062,7 @@
       <c r="W266" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X266" s="48"/>
+      <c r="X266" s="74"/>
       <c r="Y266" s="43"/>
       <c r="Z266" s="43"/>
       <c r="AA266" s="43"/>
@@ -24069,9 +24076,9 @@
       </c>
     </row>
     <row r="267" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A267" s="51"/>
-      <c r="B267" s="54"/>
-      <c r="C267" s="58"/>
+      <c r="A267" s="48"/>
+      <c r="B267" s="51"/>
+      <c r="C267" s="53"/>
       <c r="D267" s="13" t="s">
         <v>73</v>
       </c>
@@ -24132,7 +24139,7 @@
       <c r="W267" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X267" s="48"/>
+      <c r="X267" s="74"/>
       <c r="Y267" s="43"/>
       <c r="Z267" s="43"/>
       <c r="AA267" s="43"/>
@@ -24146,9 +24153,9 @@
       </c>
     </row>
     <row r="268" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A268" s="51"/>
-      <c r="B268" s="54"/>
-      <c r="C268" s="58"/>
+      <c r="A268" s="48"/>
+      <c r="B268" s="51"/>
+      <c r="C268" s="53"/>
       <c r="D268" s="13" t="s">
         <v>76</v>
       </c>
@@ -24209,7 +24216,7 @@
       <c r="W268" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X268" s="48"/>
+      <c r="X268" s="74"/>
       <c r="Y268" s="43"/>
       <c r="Z268" s="43"/>
       <c r="AA268" s="43"/>
@@ -24223,9 +24230,9 @@
       </c>
     </row>
     <row r="269" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A269" s="51"/>
-      <c r="B269" s="54"/>
-      <c r="C269" s="58"/>
+      <c r="A269" s="48"/>
+      <c r="B269" s="51"/>
+      <c r="C269" s="53"/>
       <c r="D269" s="13" t="s">
         <v>78</v>
       </c>
@@ -24286,7 +24293,7 @@
       <c r="W269" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X269" s="48"/>
+      <c r="X269" s="74"/>
       <c r="Y269" s="43"/>
       <c r="Z269" s="43"/>
       <c r="AA269" s="43"/>
@@ -24300,9 +24307,9 @@
       </c>
     </row>
     <row r="270" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A270" s="51"/>
-      <c r="B270" s="54"/>
-      <c r="C270" s="58"/>
+      <c r="A270" s="48"/>
+      <c r="B270" s="51"/>
+      <c r="C270" s="53"/>
       <c r="D270" s="13" t="s">
         <v>81</v>
       </c>
@@ -24363,7 +24370,7 @@
       <c r="W270" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X270" s="48"/>
+      <c r="X270" s="74"/>
       <c r="Y270" s="43"/>
       <c r="Z270" s="43"/>
       <c r="AA270" s="43"/>
@@ -24377,9 +24384,9 @@
       </c>
     </row>
     <row r="271" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A271" s="51"/>
-      <c r="B271" s="54"/>
-      <c r="C271" s="58"/>
+      <c r="A271" s="48"/>
+      <c r="B271" s="51"/>
+      <c r="C271" s="53"/>
       <c r="D271" s="13" t="s">
         <v>84</v>
       </c>
@@ -24440,7 +24447,7 @@
       <c r="W271" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X271" s="48"/>
+      <c r="X271" s="74"/>
       <c r="Y271" s="43"/>
       <c r="Z271" s="43"/>
       <c r="AA271" s="43"/>
@@ -24454,9 +24461,9 @@
       </c>
     </row>
     <row r="272" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A272" s="51"/>
-      <c r="B272" s="54"/>
-      <c r="C272" s="58"/>
+      <c r="A272" s="48"/>
+      <c r="B272" s="51"/>
+      <c r="C272" s="53"/>
       <c r="D272" s="13" t="s">
         <v>87</v>
       </c>
@@ -24515,7 +24522,7 @@
       <c r="W272" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X272" s="48"/>
+      <c r="X272" s="74"/>
       <c r="Y272" s="43"/>
       <c r="Z272" s="43"/>
       <c r="AA272" s="43"/>
@@ -24529,9 +24536,9 @@
       </c>
     </row>
     <row r="273" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A273" s="51"/>
-      <c r="B273" s="54"/>
-      <c r="C273" s="58"/>
+      <c r="A273" s="48"/>
+      <c r="B273" s="51"/>
+      <c r="C273" s="53"/>
       <c r="D273" s="13" t="s">
         <v>90</v>
       </c>
@@ -24590,7 +24597,7 @@
       <c r="W273" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X273" s="48"/>
+      <c r="X273" s="74"/>
       <c r="Y273" s="43"/>
       <c r="Z273" s="43"/>
       <c r="AA273" s="43"/>
@@ -24604,9 +24611,9 @@
       </c>
     </row>
     <row r="274" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A274" s="51"/>
-      <c r="B274" s="54"/>
-      <c r="C274" s="59" t="s">
+      <c r="A274" s="48"/>
+      <c r="B274" s="51"/>
+      <c r="C274" s="54" t="s">
         <v>256</v>
       </c>
       <c r="D274" s="13" t="s">
@@ -24669,7 +24676,7 @@
       <c r="W274" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X274" s="48"/>
+      <c r="X274" s="74"/>
       <c r="Y274" s="43"/>
       <c r="Z274" s="43"/>
       <c r="AA274" s="43"/>
@@ -24683,9 +24690,9 @@
       </c>
     </row>
     <row r="275" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A275" s="51"/>
-      <c r="B275" s="54"/>
-      <c r="C275" s="60"/>
+      <c r="A275" s="48"/>
+      <c r="B275" s="51"/>
+      <c r="C275" s="55"/>
       <c r="D275" s="13" t="s">
         <v>96</v>
       </c>
@@ -24744,7 +24751,7 @@
       <c r="W275" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X275" s="48"/>
+      <c r="X275" s="74"/>
       <c r="Y275" s="43"/>
       <c r="Z275" s="43"/>
       <c r="AA275" s="43"/>
@@ -24758,9 +24765,9 @@
       </c>
     </row>
     <row r="276" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A276" s="52"/>
-      <c r="B276" s="55"/>
-      <c r="C276" s="61"/>
+      <c r="A276" s="49"/>
+      <c r="B276" s="52"/>
+      <c r="C276" s="56"/>
       <c r="D276" s="15" t="s">
         <v>98</v>
       </c>
@@ -24821,7 +24828,7 @@
       <c r="W276" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X276" s="48"/>
+      <c r="X276" s="74"/>
       <c r="Y276" s="43"/>
       <c r="Z276" s="43"/>
       <c r="AA276" s="43"/>
@@ -24835,13 +24842,13 @@
       </c>
     </row>
     <row r="277" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A277" s="50">
+      <c r="A277" s="47">
         <v>4</v>
       </c>
-      <c r="B277" s="53" t="s">
+      <c r="B277" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C277" s="56" t="s">
+      <c r="C277" s="57" t="s">
         <v>100</v>
       </c>
       <c r="D277" s="6" t="s">
@@ -24904,7 +24911,7 @@
       <c r="W277" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X277" s="48"/>
+      <c r="X277" s="74"/>
       <c r="Y277" s="43"/>
       <c r="Z277" s="43"/>
       <c r="AA277" s="43"/>
@@ -24918,9 +24925,9 @@
       </c>
     </row>
     <row r="278" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A278" s="51"/>
-      <c r="B278" s="54"/>
-      <c r="C278" s="57"/>
+      <c r="A278" s="48"/>
+      <c r="B278" s="51"/>
+      <c r="C278" s="58"/>
       <c r="D278" s="6" t="s">
         <v>171</v>
       </c>
@@ -24981,7 +24988,7 @@
       <c r="W278" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X278" s="48"/>
+      <c r="X278" s="74"/>
       <c r="Y278" s="43"/>
       <c r="Z278" s="43"/>
       <c r="AA278" s="43"/>
@@ -24995,9 +25002,9 @@
       </c>
     </row>
     <row r="279" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A279" s="51"/>
-      <c r="B279" s="54"/>
-      <c r="C279" s="57"/>
+      <c r="A279" s="48"/>
+      <c r="B279" s="51"/>
+      <c r="C279" s="58"/>
       <c r="D279" s="6" t="s">
         <v>475</v>
       </c>
@@ -25058,7 +25065,7 @@
       <c r="W279" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X279" s="48"/>
+      <c r="X279" s="74"/>
       <c r="Y279" s="43"/>
       <c r="Z279" s="43"/>
       <c r="AA279" s="43"/>
@@ -25072,9 +25079,9 @@
       </c>
     </row>
     <row r="280" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A280" s="51"/>
-      <c r="B280" s="54"/>
-      <c r="C280" s="57"/>
+      <c r="A280" s="48"/>
+      <c r="B280" s="51"/>
+      <c r="C280" s="58"/>
       <c r="D280" s="6" t="s">
         <v>478</v>
       </c>
@@ -25135,7 +25142,7 @@
       <c r="W280" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X280" s="48"/>
+      <c r="X280" s="74"/>
       <c r="Y280" s="43"/>
       <c r="Z280" s="43"/>
       <c r="AA280" s="43"/>
@@ -25149,9 +25156,9 @@
       </c>
     </row>
     <row r="281" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A281" s="51"/>
-      <c r="B281" s="54"/>
-      <c r="C281" s="62"/>
+      <c r="A281" s="48"/>
+      <c r="B281" s="51"/>
+      <c r="C281" s="59"/>
       <c r="D281" s="6" t="s">
         <v>481</v>
       </c>
@@ -25212,7 +25219,7 @@
       <c r="W281" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X281" s="48"/>
+      <c r="X281" s="74"/>
       <c r="Y281" s="43"/>
       <c r="Z281" s="43"/>
       <c r="AA281" s="43"/>
@@ -25226,9 +25233,9 @@
       </c>
     </row>
     <row r="282" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A282" s="51"/>
-      <c r="B282" s="54"/>
-      <c r="C282" s="58" t="s">
+      <c r="A282" s="48"/>
+      <c r="B282" s="51"/>
+      <c r="C282" s="53" t="s">
         <v>564</v>
       </c>
       <c r="D282" s="13" t="s">
@@ -25291,7 +25298,7 @@
       <c r="W282" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X282" s="48"/>
+      <c r="X282" s="74"/>
       <c r="Y282" s="43"/>
       <c r="Z282" s="43"/>
       <c r="AA282" s="43"/>
@@ -25305,9 +25312,9 @@
       </c>
     </row>
     <row r="283" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A283" s="51"/>
-      <c r="B283" s="54"/>
-      <c r="C283" s="58"/>
+      <c r="A283" s="48"/>
+      <c r="B283" s="51"/>
+      <c r="C283" s="53"/>
       <c r="D283" s="13" t="s">
         <v>42</v>
       </c>
@@ -25368,7 +25375,7 @@
       <c r="W283" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X283" s="48"/>
+      <c r="X283" s="74"/>
       <c r="Y283" s="43"/>
       <c r="Z283" s="43"/>
       <c r="AA283" s="43"/>
@@ -25382,9 +25389,9 @@
       </c>
     </row>
     <row r="284" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A284" s="51"/>
-      <c r="B284" s="54"/>
-      <c r="C284" s="58"/>
+      <c r="A284" s="48"/>
+      <c r="B284" s="51"/>
+      <c r="C284" s="53"/>
       <c r="D284" s="13" t="s">
         <v>45</v>
       </c>
@@ -25445,7 +25452,7 @@
       <c r="W284" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X284" s="48"/>
+      <c r="X284" s="74"/>
       <c r="Y284" s="43"/>
       <c r="Z284" s="43"/>
       <c r="AA284" s="43"/>
@@ -25459,9 +25466,9 @@
       </c>
     </row>
     <row r="285" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A285" s="51"/>
-      <c r="B285" s="54"/>
-      <c r="C285" s="58"/>
+      <c r="A285" s="48"/>
+      <c r="B285" s="51"/>
+      <c r="C285" s="53"/>
       <c r="D285" s="13" t="s">
         <v>47</v>
       </c>
@@ -25522,7 +25529,7 @@
       <c r="W285" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X285" s="48"/>
+      <c r="X285" s="74"/>
       <c r="Y285" s="43"/>
       <c r="Z285" s="43"/>
       <c r="AA285" s="43"/>
@@ -25536,9 +25543,9 @@
       </c>
     </row>
     <row r="286" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A286" s="51"/>
-      <c r="B286" s="54"/>
-      <c r="C286" s="58"/>
+      <c r="A286" s="48"/>
+      <c r="B286" s="51"/>
+      <c r="C286" s="53"/>
       <c r="D286" s="13" t="s">
         <v>50</v>
       </c>
@@ -25599,7 +25606,7 @@
       <c r="W286" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X286" s="48"/>
+      <c r="X286" s="74"/>
       <c r="Y286" s="43"/>
       <c r="Z286" s="43"/>
       <c r="AA286" s="43"/>
@@ -25613,9 +25620,9 @@
       </c>
     </row>
     <row r="287" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A287" s="51"/>
-      <c r="B287" s="54"/>
-      <c r="C287" s="58"/>
+      <c r="A287" s="48"/>
+      <c r="B287" s="51"/>
+      <c r="C287" s="53"/>
       <c r="D287" s="13" t="s">
         <v>53</v>
       </c>
@@ -25676,7 +25683,7 @@
       <c r="W287" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X287" s="48"/>
+      <c r="X287" s="74"/>
       <c r="Y287" s="43"/>
       <c r="Z287" s="43"/>
       <c r="AA287" s="43"/>
@@ -25690,9 +25697,9 @@
       </c>
     </row>
     <row r="288" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A288" s="51"/>
-      <c r="B288" s="54"/>
-      <c r="C288" s="58"/>
+      <c r="A288" s="48"/>
+      <c r="B288" s="51"/>
+      <c r="C288" s="53"/>
       <c r="D288" s="13" t="s">
         <v>56</v>
       </c>
@@ -25753,7 +25760,7 @@
       <c r="W288" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X288" s="48"/>
+      <c r="X288" s="74"/>
       <c r="Y288" s="43"/>
       <c r="Z288" s="43"/>
       <c r="AA288" s="43"/>
@@ -25767,9 +25774,9 @@
       </c>
     </row>
     <row r="289" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A289" s="51"/>
-      <c r="B289" s="54"/>
-      <c r="C289" s="58"/>
+      <c r="A289" s="48"/>
+      <c r="B289" s="51"/>
+      <c r="C289" s="53"/>
       <c r="D289" s="13" t="s">
         <v>56</v>
       </c>
@@ -25830,7 +25837,7 @@
       <c r="W289" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X289" s="48"/>
+      <c r="X289" s="74"/>
       <c r="Y289" s="43"/>
       <c r="Z289" s="43"/>
       <c r="AA289" s="43"/>
@@ -25844,9 +25851,9 @@
       </c>
     </row>
     <row r="290" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A290" s="51"/>
-      <c r="B290" s="54"/>
-      <c r="C290" s="58"/>
+      <c r="A290" s="48"/>
+      <c r="B290" s="51"/>
+      <c r="C290" s="53"/>
       <c r="D290" s="13" t="s">
         <v>56</v>
       </c>
@@ -25907,7 +25914,7 @@
       <c r="W290" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X290" s="48"/>
+      <c r="X290" s="74"/>
       <c r="Y290" s="43"/>
       <c r="Z290" s="43"/>
       <c r="AA290" s="43"/>
@@ -25921,9 +25928,9 @@
       </c>
     </row>
     <row r="291" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A291" s="51"/>
-      <c r="B291" s="54"/>
-      <c r="C291" s="58"/>
+      <c r="A291" s="48"/>
+      <c r="B291" s="51"/>
+      <c r="C291" s="53"/>
       <c r="D291" s="13" t="s">
         <v>70</v>
       </c>
@@ -25984,7 +25991,7 @@
       <c r="W291" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X291" s="48"/>
+      <c r="X291" s="74"/>
       <c r="Y291" s="43"/>
       <c r="Z291" s="43"/>
       <c r="AA291" s="43"/>
@@ -25998,9 +26005,9 @@
       </c>
     </row>
     <row r="292" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A292" s="51"/>
-      <c r="B292" s="54"/>
-      <c r="C292" s="58"/>
+      <c r="A292" s="48"/>
+      <c r="B292" s="51"/>
+      <c r="C292" s="53"/>
       <c r="D292" s="13" t="s">
         <v>73</v>
       </c>
@@ -26061,7 +26068,7 @@
       <c r="W292" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X292" s="48"/>
+      <c r="X292" s="74"/>
       <c r="Y292" s="43"/>
       <c r="Z292" s="43"/>
       <c r="AA292" s="43"/>
@@ -26075,9 +26082,9 @@
       </c>
     </row>
     <row r="293" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A293" s="51"/>
-      <c r="B293" s="54"/>
-      <c r="C293" s="58"/>
+      <c r="A293" s="48"/>
+      <c r="B293" s="51"/>
+      <c r="C293" s="53"/>
       <c r="D293" s="13" t="s">
         <v>76</v>
       </c>
@@ -26138,7 +26145,7 @@
       <c r="W293" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X293" s="48"/>
+      <c r="X293" s="74"/>
       <c r="Y293" s="43"/>
       <c r="Z293" s="43"/>
       <c r="AA293" s="43"/>
@@ -26152,9 +26159,9 @@
       </c>
     </row>
     <row r="294" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A294" s="51"/>
-      <c r="B294" s="54"/>
-      <c r="C294" s="58"/>
+      <c r="A294" s="48"/>
+      <c r="B294" s="51"/>
+      <c r="C294" s="53"/>
       <c r="D294" s="13" t="s">
         <v>78</v>
       </c>
@@ -26215,7 +26222,7 @@
       <c r="W294" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X294" s="48"/>
+      <c r="X294" s="74"/>
       <c r="Y294" s="43"/>
       <c r="Z294" s="43"/>
       <c r="AA294" s="43"/>
@@ -26229,9 +26236,9 @@
       </c>
     </row>
     <row r="295" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A295" s="51"/>
-      <c r="B295" s="54"/>
-      <c r="C295" s="58"/>
+      <c r="A295" s="48"/>
+      <c r="B295" s="51"/>
+      <c r="C295" s="53"/>
       <c r="D295" s="13" t="s">
         <v>81</v>
       </c>
@@ -26292,7 +26299,7 @@
       <c r="W295" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X295" s="48"/>
+      <c r="X295" s="74"/>
       <c r="Y295" s="43"/>
       <c r="Z295" s="43"/>
       <c r="AA295" s="43"/>
@@ -26306,9 +26313,9 @@
       </c>
     </row>
     <row r="296" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A296" s="51"/>
-      <c r="B296" s="54"/>
-      <c r="C296" s="58"/>
+      <c r="A296" s="48"/>
+      <c r="B296" s="51"/>
+      <c r="C296" s="53"/>
       <c r="D296" s="13" t="s">
         <v>84</v>
       </c>
@@ -26369,7 +26376,7 @@
       <c r="W296" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X296" s="48"/>
+      <c r="X296" s="74"/>
       <c r="Y296" s="43"/>
       <c r="Z296" s="43"/>
       <c r="AA296" s="43"/>
@@ -26383,9 +26390,9 @@
       </c>
     </row>
     <row r="297" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A297" s="51"/>
-      <c r="B297" s="54"/>
-      <c r="C297" s="58"/>
+      <c r="A297" s="48"/>
+      <c r="B297" s="51"/>
+      <c r="C297" s="53"/>
       <c r="D297" s="13" t="s">
         <v>87</v>
       </c>
@@ -26444,7 +26451,7 @@
       <c r="W297" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X297" s="48"/>
+      <c r="X297" s="74"/>
       <c r="Y297" s="43"/>
       <c r="Z297" s="43"/>
       <c r="AA297" s="43"/>
@@ -26458,9 +26465,9 @@
       </c>
     </row>
     <row r="298" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A298" s="51"/>
-      <c r="B298" s="54"/>
-      <c r="C298" s="58"/>
+      <c r="A298" s="48"/>
+      <c r="B298" s="51"/>
+      <c r="C298" s="53"/>
       <c r="D298" s="13" t="s">
         <v>90</v>
       </c>
@@ -26519,7 +26526,7 @@
       <c r="W298" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X298" s="48"/>
+      <c r="X298" s="74"/>
       <c r="Y298" s="43"/>
       <c r="Z298" s="43"/>
       <c r="AA298" s="43"/>
@@ -26533,9 +26540,9 @@
       </c>
     </row>
     <row r="299" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A299" s="51"/>
-      <c r="B299" s="54"/>
-      <c r="C299" s="59" t="s">
+      <c r="A299" s="48"/>
+      <c r="B299" s="51"/>
+      <c r="C299" s="54" t="s">
         <v>256</v>
       </c>
       <c r="D299" s="13" t="s">
@@ -26598,7 +26605,7 @@
       <c r="W299" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X299" s="48"/>
+      <c r="X299" s="74"/>
       <c r="Y299" s="43"/>
       <c r="Z299" s="43"/>
       <c r="AA299" s="43"/>
@@ -26612,9 +26619,9 @@
       </c>
     </row>
     <row r="300" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A300" s="51"/>
-      <c r="B300" s="54"/>
-      <c r="C300" s="60"/>
+      <c r="A300" s="48"/>
+      <c r="B300" s="51"/>
+      <c r="C300" s="55"/>
       <c r="D300" s="13" t="s">
         <v>96</v>
       </c>
@@ -26673,7 +26680,7 @@
       <c r="W300" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X300" s="48"/>
+      <c r="X300" s="74"/>
       <c r="Y300" s="43"/>
       <c r="Z300" s="43"/>
       <c r="AA300" s="43"/>
@@ -26687,9 +26694,9 @@
       </c>
     </row>
     <row r="301" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A301" s="52"/>
-      <c r="B301" s="55"/>
-      <c r="C301" s="61"/>
+      <c r="A301" s="49"/>
+      <c r="B301" s="52"/>
+      <c r="C301" s="56"/>
       <c r="D301" s="15" t="s">
         <v>98</v>
       </c>
@@ -26750,7 +26757,7 @@
       <c r="W301" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X301" s="48"/>
+      <c r="X301" s="74"/>
       <c r="Y301" s="43"/>
       <c r="Z301" s="43"/>
       <c r="AA301" s="43"/>
@@ -26764,13 +26771,13 @@
       </c>
     </row>
     <row r="302" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A302" s="50">
+      <c r="A302" s="47">
         <v>4</v>
       </c>
-      <c r="B302" s="63" t="s">
+      <c r="B302" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="C302" s="56" t="s">
+      <c r="C302" s="57" t="s">
         <v>590</v>
       </c>
       <c r="D302" s="6" t="s">
@@ -26833,7 +26840,7 @@
       <c r="W302" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X302" s="48"/>
+      <c r="X302" s="74"/>
       <c r="Y302" s="43"/>
       <c r="Z302" s="43"/>
       <c r="AA302" s="43"/>
@@ -26847,9 +26854,9 @@
       </c>
     </row>
     <row r="303" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A303" s="51"/>
-      <c r="B303" s="64"/>
-      <c r="C303" s="57"/>
+      <c r="A303" s="48"/>
+      <c r="B303" s="77"/>
+      <c r="C303" s="58"/>
       <c r="D303" s="6" t="s">
         <v>171</v>
       </c>
@@ -26910,7 +26917,7 @@
       <c r="W303" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X303" s="48"/>
+      <c r="X303" s="74"/>
       <c r="Y303" s="43"/>
       <c r="Z303" s="43"/>
       <c r="AA303" s="43"/>
@@ -26924,9 +26931,9 @@
       </c>
     </row>
     <row r="304" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A304" s="51"/>
-      <c r="B304" s="64"/>
-      <c r="C304" s="57"/>
+      <c r="A304" s="48"/>
+      <c r="B304" s="77"/>
+      <c r="C304" s="58"/>
       <c r="D304" s="6" t="s">
         <v>593</v>
       </c>
@@ -26987,7 +26994,7 @@
       <c r="W304" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X304" s="48"/>
+      <c r="X304" s="74"/>
       <c r="Y304" s="43"/>
       <c r="Z304" s="43"/>
       <c r="AA304" s="43"/>
@@ -27001,9 +27008,9 @@
       </c>
     </row>
     <row r="305" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A305" s="51"/>
-      <c r="B305" s="64"/>
-      <c r="C305" s="57"/>
+      <c r="A305" s="48"/>
+      <c r="B305" s="77"/>
+      <c r="C305" s="58"/>
       <c r="D305" s="6" t="s">
         <v>596</v>
       </c>
@@ -27064,7 +27071,7 @@
       <c r="W305" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X305" s="48"/>
+      <c r="X305" s="74"/>
       <c r="Y305" s="43"/>
       <c r="Z305" s="43"/>
       <c r="AA305" s="43"/>
@@ -27078,9 +27085,9 @@
       </c>
     </row>
     <row r="306" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A306" s="51"/>
-      <c r="B306" s="64"/>
-      <c r="C306" s="62"/>
+      <c r="A306" s="48"/>
+      <c r="B306" s="77"/>
+      <c r="C306" s="59"/>
       <c r="D306" s="6" t="s">
         <v>599</v>
       </c>
@@ -27141,7 +27148,7 @@
       <c r="W306" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X306" s="48"/>
+      <c r="X306" s="74"/>
       <c r="Y306" s="43"/>
       <c r="Z306" s="43"/>
       <c r="AA306" s="43"/>
@@ -27155,9 +27162,9 @@
       </c>
     </row>
     <row r="307" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A307" s="51"/>
-      <c r="B307" s="64"/>
-      <c r="C307" s="58" t="s">
+      <c r="A307" s="48"/>
+      <c r="B307" s="77"/>
+      <c r="C307" s="53" t="s">
         <v>602</v>
       </c>
       <c r="D307" s="13" t="s">
@@ -27220,7 +27227,7 @@
       <c r="W307" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X307" s="48"/>
+      <c r="X307" s="74"/>
       <c r="Y307" s="43"/>
       <c r="Z307" s="43"/>
       <c r="AA307" s="43"/>
@@ -27234,9 +27241,9 @@
       </c>
     </row>
     <row r="308" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A308" s="51"/>
-      <c r="B308" s="64"/>
-      <c r="C308" s="58"/>
+      <c r="A308" s="48"/>
+      <c r="B308" s="77"/>
+      <c r="C308" s="53"/>
       <c r="D308" s="13" t="s">
         <v>42</v>
       </c>
@@ -27297,7 +27304,7 @@
       <c r="W308" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X308" s="48"/>
+      <c r="X308" s="74"/>
       <c r="Y308" s="43"/>
       <c r="Z308" s="43"/>
       <c r="AA308" s="43"/>
@@ -27311,9 +27318,9 @@
       </c>
     </row>
     <row r="309" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A309" s="51"/>
-      <c r="B309" s="64"/>
-      <c r="C309" s="58"/>
+      <c r="A309" s="48"/>
+      <c r="B309" s="77"/>
+      <c r="C309" s="53"/>
       <c r="D309" s="13" t="s">
         <v>45</v>
       </c>
@@ -27374,7 +27381,7 @@
       <c r="W309" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X309" s="48"/>
+      <c r="X309" s="74"/>
       <c r="Y309" s="43"/>
       <c r="Z309" s="43"/>
       <c r="AA309" s="43"/>
@@ -27388,9 +27395,9 @@
       </c>
     </row>
     <row r="310" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A310" s="51"/>
-      <c r="B310" s="64"/>
-      <c r="C310" s="58"/>
+      <c r="A310" s="48"/>
+      <c r="B310" s="77"/>
+      <c r="C310" s="53"/>
       <c r="D310" s="13" t="s">
         <v>47</v>
       </c>
@@ -27451,7 +27458,7 @@
       <c r="W310" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X310" s="48"/>
+      <c r="X310" s="74"/>
       <c r="Y310" s="43"/>
       <c r="Z310" s="43"/>
       <c r="AA310" s="43"/>
@@ -27465,9 +27472,9 @@
       </c>
     </row>
     <row r="311" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A311" s="51"/>
-      <c r="B311" s="64"/>
-      <c r="C311" s="58"/>
+      <c r="A311" s="48"/>
+      <c r="B311" s="77"/>
+      <c r="C311" s="53"/>
       <c r="D311" s="13" t="s">
         <v>50</v>
       </c>
@@ -27528,7 +27535,7 @@
       <c r="W311" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X311" s="48"/>
+      <c r="X311" s="74"/>
       <c r="Y311" s="43"/>
       <c r="Z311" s="43"/>
       <c r="AA311" s="43"/>
@@ -27542,9 +27549,9 @@
       </c>
     </row>
     <row r="312" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A312" s="51"/>
-      <c r="B312" s="64"/>
-      <c r="C312" s="58"/>
+      <c r="A312" s="48"/>
+      <c r="B312" s="77"/>
+      <c r="C312" s="53"/>
       <c r="D312" s="13" t="s">
         <v>53</v>
       </c>
@@ -27605,7 +27612,7 @@
       <c r="W312" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X312" s="48"/>
+      <c r="X312" s="74"/>
       <c r="Y312" s="43"/>
       <c r="Z312" s="43"/>
       <c r="AA312" s="43"/>
@@ -27619,9 +27626,9 @@
       </c>
     </row>
     <row r="313" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A313" s="51"/>
-      <c r="B313" s="64"/>
-      <c r="C313" s="58"/>
+      <c r="A313" s="48"/>
+      <c r="B313" s="77"/>
+      <c r="C313" s="53"/>
       <c r="D313" s="13" t="s">
         <v>56</v>
       </c>
@@ -27682,7 +27689,7 @@
       <c r="W313" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X313" s="48"/>
+      <c r="X313" s="74"/>
       <c r="Y313" s="43"/>
       <c r="Z313" s="43"/>
       <c r="AA313" s="43"/>
@@ -27696,9 +27703,9 @@
       </c>
     </row>
     <row r="314" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A314" s="51"/>
-      <c r="B314" s="64"/>
-      <c r="C314" s="58"/>
+      <c r="A314" s="48"/>
+      <c r="B314" s="77"/>
+      <c r="C314" s="53"/>
       <c r="D314" s="13" t="s">
         <v>56</v>
       </c>
@@ -27759,7 +27766,7 @@
       <c r="W314" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X314" s="48"/>
+      <c r="X314" s="74"/>
       <c r="Y314" s="43"/>
       <c r="Z314" s="43"/>
       <c r="AA314" s="43"/>
@@ -27773,9 +27780,9 @@
       </c>
     </row>
     <row r="315" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A315" s="51"/>
-      <c r="B315" s="64"/>
-      <c r="C315" s="58"/>
+      <c r="A315" s="48"/>
+      <c r="B315" s="77"/>
+      <c r="C315" s="53"/>
       <c r="D315" s="13" t="s">
         <v>56</v>
       </c>
@@ -27836,7 +27843,7 @@
       <c r="W315" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X315" s="48"/>
+      <c r="X315" s="74"/>
       <c r="Y315" s="43"/>
       <c r="Z315" s="43"/>
       <c r="AA315" s="43"/>
@@ -27850,9 +27857,9 @@
       </c>
     </row>
     <row r="316" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A316" s="51"/>
-      <c r="B316" s="64"/>
-      <c r="C316" s="58"/>
+      <c r="A316" s="48"/>
+      <c r="B316" s="77"/>
+      <c r="C316" s="53"/>
       <c r="D316" s="13" t="s">
         <v>70</v>
       </c>
@@ -27913,7 +27920,7 @@
       <c r="W316" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X316" s="48"/>
+      <c r="X316" s="74"/>
       <c r="Y316" s="43"/>
       <c r="Z316" s="43"/>
       <c r="AA316" s="43"/>
@@ -27927,9 +27934,9 @@
       </c>
     </row>
     <row r="317" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A317" s="51"/>
-      <c r="B317" s="64"/>
-      <c r="C317" s="58"/>
+      <c r="A317" s="48"/>
+      <c r="B317" s="77"/>
+      <c r="C317" s="53"/>
       <c r="D317" s="13" t="s">
         <v>73</v>
       </c>
@@ -27990,7 +27997,7 @@
       <c r="W317" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X317" s="48"/>
+      <c r="X317" s="74"/>
       <c r="Y317" s="43"/>
       <c r="Z317" s="43"/>
       <c r="AA317" s="43"/>
@@ -28004,9 +28011,9 @@
       </c>
     </row>
     <row r="318" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A318" s="51"/>
-      <c r="B318" s="64"/>
-      <c r="C318" s="58"/>
+      <c r="A318" s="48"/>
+      <c r="B318" s="77"/>
+      <c r="C318" s="53"/>
       <c r="D318" s="13" t="s">
         <v>76</v>
       </c>
@@ -28067,7 +28074,7 @@
       <c r="W318" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X318" s="48"/>
+      <c r="X318" s="74"/>
       <c r="Y318" s="43"/>
       <c r="Z318" s="43"/>
       <c r="AA318" s="43"/>
@@ -28081,9 +28088,9 @@
       </c>
     </row>
     <row r="319" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A319" s="51"/>
-      <c r="B319" s="64"/>
-      <c r="C319" s="58"/>
+      <c r="A319" s="48"/>
+      <c r="B319" s="77"/>
+      <c r="C319" s="53"/>
       <c r="D319" s="13" t="s">
         <v>78</v>
       </c>
@@ -28144,7 +28151,7 @@
       <c r="W319" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X319" s="48"/>
+      <c r="X319" s="74"/>
       <c r="Y319" s="43"/>
       <c r="Z319" s="43"/>
       <c r="AA319" s="43"/>
@@ -28158,9 +28165,9 @@
       </c>
     </row>
     <row r="320" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A320" s="51"/>
-      <c r="B320" s="64"/>
-      <c r="C320" s="58"/>
+      <c r="A320" s="48"/>
+      <c r="B320" s="77"/>
+      <c r="C320" s="53"/>
       <c r="D320" s="13" t="s">
         <v>81</v>
       </c>
@@ -28221,7 +28228,7 @@
       <c r="W320" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X320" s="48"/>
+      <c r="X320" s="74"/>
       <c r="Y320" s="43"/>
       <c r="Z320" s="43"/>
       <c r="AA320" s="43"/>
@@ -28235,9 +28242,9 @@
       </c>
     </row>
     <row r="321" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A321" s="51"/>
-      <c r="B321" s="64"/>
-      <c r="C321" s="58"/>
+      <c r="A321" s="48"/>
+      <c r="B321" s="77"/>
+      <c r="C321" s="53"/>
       <c r="D321" s="13" t="s">
         <v>84</v>
       </c>
@@ -28298,7 +28305,7 @@
       <c r="W321" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X321" s="48"/>
+      <c r="X321" s="74"/>
       <c r="Y321" s="43"/>
       <c r="Z321" s="43"/>
       <c r="AA321" s="43"/>
@@ -28312,9 +28319,9 @@
       </c>
     </row>
     <row r="322" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A322" s="51"/>
-      <c r="B322" s="64"/>
-      <c r="C322" s="58"/>
+      <c r="A322" s="48"/>
+      <c r="B322" s="77"/>
+      <c r="C322" s="53"/>
       <c r="D322" s="13" t="s">
         <v>87</v>
       </c>
@@ -28373,7 +28380,7 @@
       <c r="W322" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X322" s="48"/>
+      <c r="X322" s="74"/>
       <c r="Y322" s="43"/>
       <c r="Z322" s="43"/>
       <c r="AA322" s="43"/>
@@ -28387,9 +28394,9 @@
       </c>
     </row>
     <row r="323" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A323" s="51"/>
-      <c r="B323" s="64"/>
-      <c r="C323" s="58"/>
+      <c r="A323" s="48"/>
+      <c r="B323" s="77"/>
+      <c r="C323" s="53"/>
       <c r="D323" s="13" t="s">
         <v>90</v>
       </c>
@@ -28448,7 +28455,7 @@
       <c r="W323" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X323" s="48"/>
+      <c r="X323" s="74"/>
       <c r="Y323" s="43"/>
       <c r="Z323" s="43"/>
       <c r="AA323" s="43"/>
@@ -28462,9 +28469,9 @@
       </c>
     </row>
     <row r="324" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A324" s="51"/>
-      <c r="B324" s="64"/>
-      <c r="C324" s="59" t="s">
+      <c r="A324" s="48"/>
+      <c r="B324" s="77"/>
+      <c r="C324" s="54" t="s">
         <v>93</v>
       </c>
       <c r="D324" s="13" t="s">
@@ -28527,7 +28534,7 @@
       <c r="W324" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X324" s="48"/>
+      <c r="X324" s="74"/>
       <c r="Y324" s="43"/>
       <c r="Z324" s="43"/>
       <c r="AA324" s="43"/>
@@ -28541,9 +28548,9 @@
       </c>
     </row>
     <row r="325" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A325" s="51"/>
-      <c r="B325" s="64"/>
-      <c r="C325" s="60"/>
+      <c r="A325" s="48"/>
+      <c r="B325" s="77"/>
+      <c r="C325" s="55"/>
       <c r="D325" s="13" t="s">
         <v>96</v>
       </c>
@@ -28602,7 +28609,7 @@
       <c r="W325" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X325" s="48"/>
+      <c r="X325" s="74"/>
       <c r="Y325" s="43"/>
       <c r="Z325" s="43"/>
       <c r="AA325" s="43"/>
@@ -28616,9 +28623,9 @@
       </c>
     </row>
     <row r="326" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A326" s="52"/>
-      <c r="B326" s="65"/>
-      <c r="C326" s="61"/>
+      <c r="A326" s="49"/>
+      <c r="B326" s="78"/>
+      <c r="C326" s="56"/>
       <c r="D326" s="15" t="s">
         <v>98</v>
       </c>
@@ -28679,7 +28686,7 @@
       <c r="W326" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X326" s="48"/>
+      <c r="X326" s="74"/>
       <c r="Y326" s="43"/>
       <c r="Z326" s="43"/>
       <c r="AA326" s="43"/>
@@ -28693,13 +28700,13 @@
       </c>
     </row>
     <row r="327" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A327" s="50">
+      <c r="A327" s="47">
         <v>4</v>
       </c>
-      <c r="B327" s="53" t="s">
+      <c r="B327" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C327" s="56" t="s">
+      <c r="C327" s="57" t="s">
         <v>627</v>
       </c>
       <c r="D327" s="6" t="s">
@@ -28762,7 +28769,7 @@
       <c r="W327" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X327" s="48"/>
+      <c r="X327" s="74"/>
       <c r="Y327" s="43"/>
       <c r="Z327" s="43"/>
       <c r="AA327" s="43"/>
@@ -28776,9 +28783,9 @@
       </c>
     </row>
     <row r="328" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A328" s="51"/>
-      <c r="B328" s="54"/>
-      <c r="C328" s="57"/>
+      <c r="A328" s="48"/>
+      <c r="B328" s="51"/>
+      <c r="C328" s="58"/>
       <c r="D328" s="6" t="s">
         <v>171</v>
       </c>
@@ -28839,7 +28846,7 @@
       <c r="W328" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X328" s="48"/>
+      <c r="X328" s="74"/>
       <c r="Y328" s="43"/>
       <c r="Z328" s="43"/>
       <c r="AA328" s="43"/>
@@ -28853,9 +28860,9 @@
       </c>
     </row>
     <row r="329" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A329" s="51"/>
-      <c r="B329" s="54"/>
-      <c r="C329" s="58" t="s">
+      <c r="A329" s="48"/>
+      <c r="B329" s="51"/>
+      <c r="C329" s="53" t="s">
         <v>632</v>
       </c>
       <c r="D329" s="13" t="s">
@@ -28918,7 +28925,7 @@
       <c r="W329" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X329" s="48"/>
+      <c r="X329" s="74"/>
       <c r="Y329" s="43"/>
       <c r="Z329" s="43"/>
       <c r="AA329" s="43"/>
@@ -28932,9 +28939,9 @@
       </c>
     </row>
     <row r="330" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A330" s="51"/>
-      <c r="B330" s="54"/>
-      <c r="C330" s="58"/>
+      <c r="A330" s="48"/>
+      <c r="B330" s="51"/>
+      <c r="C330" s="53"/>
       <c r="D330" s="13" t="s">
         <v>42</v>
       </c>
@@ -28995,7 +29002,7 @@
       <c r="W330" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X330" s="48"/>
+      <c r="X330" s="74"/>
       <c r="Y330" s="43"/>
       <c r="Z330" s="43"/>
       <c r="AA330" s="43"/>
@@ -29009,9 +29016,9 @@
       </c>
     </row>
     <row r="331" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A331" s="51"/>
-      <c r="B331" s="54"/>
-      <c r="C331" s="58"/>
+      <c r="A331" s="48"/>
+      <c r="B331" s="51"/>
+      <c r="C331" s="53"/>
       <c r="D331" s="13" t="s">
         <v>45</v>
       </c>
@@ -29072,7 +29079,7 @@
       <c r="W331" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X331" s="48"/>
+      <c r="X331" s="74"/>
       <c r="Y331" s="43"/>
       <c r="Z331" s="43"/>
       <c r="AA331" s="43"/>
@@ -29086,9 +29093,9 @@
       </c>
     </row>
     <row r="332" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A332" s="51"/>
-      <c r="B332" s="54"/>
-      <c r="C332" s="58"/>
+      <c r="A332" s="48"/>
+      <c r="B332" s="51"/>
+      <c r="C332" s="53"/>
       <c r="D332" s="13" t="s">
         <v>56</v>
       </c>
@@ -29149,7 +29156,7 @@
       <c r="W332" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X332" s="48"/>
+      <c r="X332" s="74"/>
       <c r="Y332" s="43"/>
       <c r="Z332" s="43"/>
       <c r="AA332" s="43"/>
@@ -29163,9 +29170,9 @@
       </c>
     </row>
     <row r="333" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A333" s="51"/>
-      <c r="B333" s="54"/>
-      <c r="C333" s="58"/>
+      <c r="A333" s="48"/>
+      <c r="B333" s="51"/>
+      <c r="C333" s="53"/>
       <c r="D333" s="13" t="s">
         <v>56</v>
       </c>
@@ -29226,7 +29233,7 @@
       <c r="W333" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X333" s="48"/>
+      <c r="X333" s="74"/>
       <c r="Y333" s="43"/>
       <c r="Z333" s="43"/>
       <c r="AA333" s="43"/>
@@ -29240,9 +29247,9 @@
       </c>
     </row>
     <row r="334" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A334" s="51"/>
-      <c r="B334" s="54"/>
-      <c r="C334" s="58"/>
+      <c r="A334" s="48"/>
+      <c r="B334" s="51"/>
+      <c r="C334" s="53"/>
       <c r="D334" s="13" t="s">
         <v>56</v>
       </c>
@@ -29303,7 +29310,7 @@
       <c r="W334" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X334" s="48"/>
+      <c r="X334" s="74"/>
       <c r="Y334" s="43"/>
       <c r="Z334" s="43"/>
       <c r="AA334" s="43"/>
@@ -29317,9 +29324,9 @@
       </c>
     </row>
     <row r="335" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A335" s="51"/>
-      <c r="B335" s="54"/>
-      <c r="C335" s="59" t="s">
+      <c r="A335" s="48"/>
+      <c r="B335" s="51"/>
+      <c r="C335" s="54" t="s">
         <v>256</v>
       </c>
       <c r="D335" s="13" t="s">
@@ -29382,7 +29389,7 @@
       <c r="W335" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X335" s="48"/>
+      <c r="X335" s="74"/>
       <c r="Y335" s="43"/>
       <c r="Z335" s="43"/>
       <c r="AA335" s="43"/>
@@ -29396,9 +29403,9 @@
       </c>
     </row>
     <row r="336" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A336" s="51"/>
-      <c r="B336" s="54"/>
-      <c r="C336" s="60"/>
+      <c r="A336" s="48"/>
+      <c r="B336" s="51"/>
+      <c r="C336" s="55"/>
       <c r="D336" s="13" t="s">
         <v>96</v>
       </c>
@@ -29457,7 +29464,7 @@
       <c r="W336" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X336" s="48"/>
+      <c r="X336" s="74"/>
       <c r="Y336" s="43"/>
       <c r="Z336" s="43"/>
       <c r="AA336" s="43"/>
@@ -29471,9 +29478,9 @@
       </c>
     </row>
     <row r="337" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A337" s="52"/>
-      <c r="B337" s="55"/>
-      <c r="C337" s="61"/>
+      <c r="A337" s="49"/>
+      <c r="B337" s="52"/>
+      <c r="C337" s="56"/>
       <c r="D337" s="15" t="s">
         <v>98</v>
       </c>
@@ -29534,7 +29541,7 @@
       <c r="W337" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X337" s="48"/>
+      <c r="X337" s="74"/>
       <c r="Y337" s="43"/>
       <c r="Z337" s="43"/>
       <c r="AA337" s="43"/>
@@ -29548,13 +29555,13 @@
       </c>
     </row>
     <row r="338" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A338" s="50">
+      <c r="A338" s="47">
         <v>5</v>
       </c>
-      <c r="B338" s="53" t="s">
+      <c r="B338" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C338" s="58" t="s">
+      <c r="C338" s="53" t="s">
         <v>169</v>
       </c>
       <c r="D338" s="6" t="s">
@@ -29617,7 +29624,7 @@
       <c r="W338" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X338" s="48"/>
+      <c r="X338" s="74"/>
       <c r="Y338" s="43"/>
       <c r="Z338" s="43"/>
       <c r="AA338" s="43"/>
@@ -29631,9 +29638,9 @@
       </c>
     </row>
     <row r="339" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A339" s="51"/>
-      <c r="B339" s="54"/>
-      <c r="C339" s="58"/>
+      <c r="A339" s="48"/>
+      <c r="B339" s="51"/>
+      <c r="C339" s="53"/>
       <c r="D339" s="6" t="s">
         <v>171</v>
       </c>
@@ -29694,7 +29701,7 @@
       <c r="W339" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X339" s="48"/>
+      <c r="X339" s="74"/>
       <c r="Y339" s="43"/>
       <c r="Z339" s="43"/>
       <c r="AA339" s="43"/>
@@ -29708,9 +29715,9 @@
       </c>
     </row>
     <row r="340" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A340" s="51"/>
-      <c r="B340" s="54"/>
-      <c r="C340" s="58"/>
+      <c r="A340" s="48"/>
+      <c r="B340" s="51"/>
+      <c r="C340" s="53"/>
       <c r="D340" s="6" t="s">
         <v>173</v>
       </c>
@@ -29771,7 +29778,7 @@
       <c r="W340" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X340" s="48"/>
+      <c r="X340" s="74"/>
       <c r="Y340" s="43"/>
       <c r="Z340" s="43"/>
       <c r="AA340" s="43"/>
@@ -29785,9 +29792,9 @@
       </c>
     </row>
     <row r="341" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A341" s="51"/>
-      <c r="B341" s="54"/>
-      <c r="C341" s="58"/>
+      <c r="A341" s="48"/>
+      <c r="B341" s="51"/>
+      <c r="C341" s="53"/>
       <c r="D341" s="6" t="s">
         <v>176</v>
       </c>
@@ -29848,7 +29855,7 @@
       <c r="W341" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X341" s="48"/>
+      <c r="X341" s="74"/>
       <c r="Y341" s="43"/>
       <c r="Z341" s="43"/>
       <c r="AA341" s="43"/>
@@ -29862,9 +29869,9 @@
       </c>
     </row>
     <row r="342" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A342" s="51"/>
-      <c r="B342" s="54"/>
-      <c r="C342" s="58"/>
+      <c r="A342" s="48"/>
+      <c r="B342" s="51"/>
+      <c r="C342" s="53"/>
       <c r="D342" s="6" t="s">
         <v>179</v>
       </c>
@@ -29925,7 +29932,7 @@
       <c r="W342" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X342" s="48"/>
+      <c r="X342" s="74"/>
       <c r="Y342" s="43"/>
       <c r="Z342" s="43"/>
       <c r="AA342" s="43"/>
@@ -29939,9 +29946,9 @@
       </c>
     </row>
     <row r="343" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A343" s="51"/>
-      <c r="B343" s="54"/>
-      <c r="C343" s="58" t="s">
+      <c r="A343" s="48"/>
+      <c r="B343" s="51"/>
+      <c r="C343" s="53" t="s">
         <v>182</v>
       </c>
       <c r="D343" s="13" t="s">
@@ -30004,7 +30011,7 @@
       <c r="W343" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X343" s="48"/>
+      <c r="X343" s="74"/>
       <c r="Y343" s="43"/>
       <c r="Z343" s="43"/>
       <c r="AA343" s="43"/>
@@ -30018,9 +30025,9 @@
       </c>
     </row>
     <row r="344" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A344" s="51"/>
-      <c r="B344" s="54"/>
-      <c r="C344" s="58"/>
+      <c r="A344" s="48"/>
+      <c r="B344" s="51"/>
+      <c r="C344" s="53"/>
       <c r="D344" s="13" t="s">
         <v>42</v>
       </c>
@@ -30081,7 +30088,7 @@
       <c r="W344" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X344" s="48"/>
+      <c r="X344" s="74"/>
       <c r="Y344" s="43"/>
       <c r="Z344" s="43"/>
       <c r="AA344" s="43"/>
@@ -30095,9 +30102,9 @@
       </c>
     </row>
     <row r="345" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A345" s="51"/>
-      <c r="B345" s="54"/>
-      <c r="C345" s="58"/>
+      <c r="A345" s="48"/>
+      <c r="B345" s="51"/>
+      <c r="C345" s="53"/>
       <c r="D345" s="13" t="s">
         <v>45</v>
       </c>
@@ -30158,7 +30165,7 @@
       <c r="W345" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X345" s="48"/>
+      <c r="X345" s="74"/>
       <c r="Y345" s="43"/>
       <c r="Z345" s="43"/>
       <c r="AA345" s="43"/>
@@ -30172,9 +30179,9 @@
       </c>
     </row>
     <row r="346" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A346" s="51"/>
-      <c r="B346" s="54"/>
-      <c r="C346" s="58"/>
+      <c r="A346" s="48"/>
+      <c r="B346" s="51"/>
+      <c r="C346" s="53"/>
       <c r="D346" s="13" t="s">
         <v>47</v>
       </c>
@@ -30235,7 +30242,7 @@
       <c r="W346" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X346" s="48"/>
+      <c r="X346" s="74"/>
       <c r="Y346" s="43"/>
       <c r="Z346" s="43"/>
       <c r="AA346" s="43"/>
@@ -30249,9 +30256,9 @@
       </c>
     </row>
     <row r="347" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A347" s="51"/>
-      <c r="B347" s="54"/>
-      <c r="C347" s="58"/>
+      <c r="A347" s="48"/>
+      <c r="B347" s="51"/>
+      <c r="C347" s="53"/>
       <c r="D347" s="13" t="s">
         <v>50</v>
       </c>
@@ -30312,7 +30319,7 @@
       <c r="W347" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X347" s="48"/>
+      <c r="X347" s="74"/>
       <c r="Y347" s="43"/>
       <c r="Z347" s="43"/>
       <c r="AA347" s="43"/>
@@ -30326,9 +30333,9 @@
       </c>
     </row>
     <row r="348" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A348" s="51"/>
-      <c r="B348" s="54"/>
-      <c r="C348" s="58"/>
+      <c r="A348" s="48"/>
+      <c r="B348" s="51"/>
+      <c r="C348" s="53"/>
       <c r="D348" s="13" t="s">
         <v>53</v>
       </c>
@@ -30389,7 +30396,7 @@
       <c r="W348" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X348" s="48"/>
+      <c r="X348" s="74"/>
       <c r="Y348" s="43"/>
       <c r="Z348" s="43"/>
       <c r="AA348" s="43"/>
@@ -30403,9 +30410,9 @@
       </c>
     </row>
     <row r="349" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A349" s="51"/>
-      <c r="B349" s="54"/>
-      <c r="C349" s="58"/>
+      <c r="A349" s="48"/>
+      <c r="B349" s="51"/>
+      <c r="C349" s="53"/>
       <c r="D349" s="13" t="s">
         <v>56</v>
       </c>
@@ -30466,7 +30473,7 @@
       <c r="W349" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X349" s="48"/>
+      <c r="X349" s="74"/>
       <c r="Y349" s="43"/>
       <c r="Z349" s="43"/>
       <c r="AA349" s="43"/>
@@ -30480,9 +30487,9 @@
       </c>
     </row>
     <row r="350" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A350" s="51"/>
-      <c r="B350" s="54"/>
-      <c r="C350" s="58"/>
+      <c r="A350" s="48"/>
+      <c r="B350" s="51"/>
+      <c r="C350" s="53"/>
       <c r="D350" s="13" t="s">
         <v>56</v>
       </c>
@@ -30543,7 +30550,7 @@
       <c r="W350" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X350" s="48"/>
+      <c r="X350" s="74"/>
       <c r="Y350" s="43"/>
       <c r="Z350" s="43"/>
       <c r="AA350" s="43"/>
@@ -30557,9 +30564,9 @@
       </c>
     </row>
     <row r="351" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A351" s="51"/>
-      <c r="B351" s="54"/>
-      <c r="C351" s="58"/>
+      <c r="A351" s="48"/>
+      <c r="B351" s="51"/>
+      <c r="C351" s="53"/>
       <c r="D351" s="13" t="s">
         <v>56</v>
       </c>
@@ -30620,7 +30627,7 @@
       <c r="W351" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X351" s="48"/>
+      <c r="X351" s="74"/>
       <c r="Y351" s="43"/>
       <c r="Z351" s="43"/>
       <c r="AA351" s="43"/>
@@ -30634,9 +30641,9 @@
       </c>
     </row>
     <row r="352" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A352" s="51"/>
-      <c r="B352" s="54"/>
-      <c r="C352" s="58"/>
+      <c r="A352" s="48"/>
+      <c r="B352" s="51"/>
+      <c r="C352" s="53"/>
       <c r="D352" s="13" t="s">
         <v>70</v>
       </c>
@@ -30697,7 +30704,7 @@
       <c r="W352" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X352" s="48"/>
+      <c r="X352" s="74"/>
       <c r="Y352" s="43"/>
       <c r="Z352" s="43"/>
       <c r="AA352" s="43"/>
@@ -30711,9 +30718,9 @@
       </c>
     </row>
     <row r="353" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A353" s="51"/>
-      <c r="B353" s="54"/>
-      <c r="C353" s="58"/>
+      <c r="A353" s="48"/>
+      <c r="B353" s="51"/>
+      <c r="C353" s="53"/>
       <c r="D353" s="13" t="s">
         <v>73</v>
       </c>
@@ -30774,7 +30781,7 @@
       <c r="W353" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X353" s="48"/>
+      <c r="X353" s="74"/>
       <c r="Y353" s="43"/>
       <c r="Z353" s="43"/>
       <c r="AA353" s="43"/>
@@ -30788,9 +30795,9 @@
       </c>
     </row>
     <row r="354" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A354" s="51"/>
-      <c r="B354" s="54"/>
-      <c r="C354" s="58"/>
+      <c r="A354" s="48"/>
+      <c r="B354" s="51"/>
+      <c r="C354" s="53"/>
       <c r="D354" s="13" t="s">
         <v>76</v>
       </c>
@@ -30851,7 +30858,7 @@
       <c r="W354" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X354" s="48"/>
+      <c r="X354" s="74"/>
       <c r="Y354" s="43"/>
       <c r="Z354" s="43"/>
       <c r="AA354" s="43"/>
@@ -30865,9 +30872,9 @@
       </c>
     </row>
     <row r="355" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A355" s="51"/>
-      <c r="B355" s="54"/>
-      <c r="C355" s="58"/>
+      <c r="A355" s="48"/>
+      <c r="B355" s="51"/>
+      <c r="C355" s="53"/>
       <c r="D355" s="13" t="s">
         <v>78</v>
       </c>
@@ -30928,7 +30935,7 @@
       <c r="W355" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X355" s="48"/>
+      <c r="X355" s="74"/>
       <c r="Y355" s="43"/>
       <c r="Z355" s="43"/>
       <c r="AA355" s="43"/>
@@ -30942,9 +30949,9 @@
       </c>
     </row>
     <row r="356" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A356" s="51"/>
-      <c r="B356" s="54"/>
-      <c r="C356" s="58"/>
+      <c r="A356" s="48"/>
+      <c r="B356" s="51"/>
+      <c r="C356" s="53"/>
       <c r="D356" s="13" t="s">
         <v>81</v>
       </c>
@@ -31005,7 +31012,7 @@
       <c r="W356" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X356" s="48"/>
+      <c r="X356" s="74"/>
       <c r="Y356" s="43"/>
       <c r="Z356" s="43"/>
       <c r="AA356" s="43"/>
@@ -31019,9 +31026,9 @@
       </c>
     </row>
     <row r="357" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A357" s="51"/>
-      <c r="B357" s="54"/>
-      <c r="C357" s="58"/>
+      <c r="A357" s="48"/>
+      <c r="B357" s="51"/>
+      <c r="C357" s="53"/>
       <c r="D357" s="13" t="s">
         <v>84</v>
       </c>
@@ -31082,7 +31089,7 @@
       <c r="W357" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X357" s="48"/>
+      <c r="X357" s="74"/>
       <c r="Y357" s="43"/>
       <c r="Z357" s="43"/>
       <c r="AA357" s="43"/>
@@ -31096,9 +31103,9 @@
       </c>
     </row>
     <row r="358" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A358" s="51"/>
-      <c r="B358" s="54"/>
-      <c r="C358" s="58"/>
+      <c r="A358" s="48"/>
+      <c r="B358" s="51"/>
+      <c r="C358" s="53"/>
       <c r="D358" s="13" t="s">
         <v>87</v>
       </c>
@@ -31157,7 +31164,7 @@
       <c r="W358" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X358" s="48"/>
+      <c r="X358" s="74"/>
       <c r="Y358" s="43"/>
       <c r="Z358" s="43"/>
       <c r="AA358" s="43"/>
@@ -31171,9 +31178,9 @@
       </c>
     </row>
     <row r="359" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A359" s="51"/>
-      <c r="B359" s="54"/>
-      <c r="C359" s="58"/>
+      <c r="A359" s="48"/>
+      <c r="B359" s="51"/>
+      <c r="C359" s="53"/>
       <c r="D359" s="13" t="s">
         <v>90</v>
       </c>
@@ -31232,7 +31239,7 @@
       <c r="W359" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X359" s="48"/>
+      <c r="X359" s="74"/>
       <c r="Y359" s="43"/>
       <c r="Z359" s="43"/>
       <c r="AA359" s="43"/>
@@ -31246,9 +31253,9 @@
       </c>
     </row>
     <row r="360" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A360" s="51"/>
-      <c r="B360" s="54"/>
-      <c r="C360" s="59" t="s">
+      <c r="A360" s="48"/>
+      <c r="B360" s="51"/>
+      <c r="C360" s="54" t="s">
         <v>93</v>
       </c>
       <c r="D360" s="13" t="s">
@@ -31311,7 +31318,7 @@
       <c r="W360" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X360" s="48"/>
+      <c r="X360" s="74"/>
       <c r="Y360" s="43"/>
       <c r="Z360" s="43"/>
       <c r="AA360" s="43"/>
@@ -31325,9 +31332,9 @@
       </c>
     </row>
     <row r="361" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A361" s="51"/>
-      <c r="B361" s="54"/>
-      <c r="C361" s="60"/>
+      <c r="A361" s="48"/>
+      <c r="B361" s="51"/>
+      <c r="C361" s="55"/>
       <c r="D361" s="13" t="s">
         <v>96</v>
       </c>
@@ -31386,7 +31393,7 @@
       <c r="W361" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X361" s="48"/>
+      <c r="X361" s="74"/>
       <c r="Y361" s="43"/>
       <c r="Z361" s="43"/>
       <c r="AA361" s="43"/>
@@ -31400,9 +31407,9 @@
       </c>
     </row>
     <row r="362" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A362" s="52"/>
-      <c r="B362" s="55"/>
-      <c r="C362" s="61"/>
+      <c r="A362" s="49"/>
+      <c r="B362" s="52"/>
+      <c r="C362" s="56"/>
       <c r="D362" s="15" t="s">
         <v>98</v>
       </c>
@@ -31463,7 +31470,7 @@
       <c r="W362" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X362" s="48"/>
+      <c r="X362" s="74"/>
       <c r="Y362" s="43"/>
       <c r="Z362" s="43"/>
       <c r="AA362" s="43"/>
@@ -31477,13 +31484,13 @@
       </c>
     </row>
     <row r="363" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A363" s="50">
+      <c r="A363" s="47">
         <v>6</v>
       </c>
-      <c r="B363" s="53" t="s">
+      <c r="B363" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C363" s="58" t="s">
+      <c r="C363" s="53" t="s">
         <v>214</v>
       </c>
       <c r="D363" s="6" t="s">
@@ -31546,7 +31553,7 @@
       <c r="W363" s="17">
         <v>1</v>
       </c>
-      <c r="X363" s="48"/>
+      <c r="X363" s="74"/>
       <c r="Y363" s="43"/>
       <c r="Z363" s="43"/>
       <c r="AA363" s="43"/>
@@ -31560,9 +31567,9 @@
       </c>
     </row>
     <row r="364" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A364" s="51"/>
-      <c r="B364" s="54"/>
-      <c r="C364" s="58"/>
+      <c r="A364" s="48"/>
+      <c r="B364" s="51"/>
+      <c r="C364" s="53"/>
       <c r="D364" s="6" t="s">
         <v>171</v>
       </c>
@@ -31623,7 +31630,7 @@
       <c r="W364" s="17">
         <v>12</v>
       </c>
-      <c r="X364" s="48"/>
+      <c r="X364" s="74"/>
       <c r="Y364" s="43"/>
       <c r="Z364" s="43"/>
       <c r="AA364" s="43"/>
@@ -31637,9 +31644,9 @@
       </c>
     </row>
     <row r="365" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A365" s="51"/>
-      <c r="B365" s="54"/>
-      <c r="C365" s="58"/>
+      <c r="A365" s="48"/>
+      <c r="B365" s="51"/>
+      <c r="C365" s="53"/>
       <c r="D365" s="6" t="s">
         <v>217</v>
       </c>
@@ -31700,7 +31707,7 @@
       <c r="W365" s="17">
         <v>123456789</v>
       </c>
-      <c r="X365" s="48"/>
+      <c r="X365" s="74"/>
       <c r="Y365" s="43"/>
       <c r="Z365" s="43"/>
       <c r="AA365" s="43"/>
@@ -31714,9 +31721,9 @@
       </c>
     </row>
     <row r="366" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A366" s="51"/>
-      <c r="B366" s="54"/>
-      <c r="C366" s="58"/>
+      <c r="A366" s="48"/>
+      <c r="B366" s="51"/>
+      <c r="C366" s="53"/>
       <c r="D366" s="6" t="s">
         <v>219</v>
       </c>
@@ -31777,7 +31784,7 @@
       <c r="W366" s="17">
         <v>1234567890</v>
       </c>
-      <c r="X366" s="48"/>
+      <c r="X366" s="74"/>
       <c r="Y366" s="43"/>
       <c r="Z366" s="43"/>
       <c r="AA366" s="43"/>
@@ -31791,9 +31798,9 @@
       </c>
     </row>
     <row r="367" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A367" s="51"/>
-      <c r="B367" s="54"/>
-      <c r="C367" s="58"/>
+      <c r="A367" s="48"/>
+      <c r="B367" s="51"/>
+      <c r="C367" s="53"/>
       <c r="D367" s="6" t="s">
         <v>221</v>
       </c>
@@ -31854,7 +31861,7 @@
       <c r="W367" s="17">
         <v>12345678901</v>
       </c>
-      <c r="X367" s="48"/>
+      <c r="X367" s="74"/>
       <c r="Y367" s="43"/>
       <c r="Z367" s="43"/>
       <c r="AA367" s="43"/>
@@ -31868,9 +31875,9 @@
       </c>
     </row>
     <row r="368" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A368" s="51"/>
-      <c r="B368" s="54"/>
-      <c r="C368" s="58" t="s">
+      <c r="A368" s="48"/>
+      <c r="B368" s="51"/>
+      <c r="C368" s="53" t="s">
         <v>223</v>
       </c>
       <c r="D368" s="13" t="s">
@@ -31933,7 +31940,7 @@
       <c r="W368" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="X368" s="48"/>
+      <c r="X368" s="74"/>
       <c r="Y368" s="43"/>
       <c r="Z368" s="43"/>
       <c r="AA368" s="43"/>
@@ -31947,9 +31954,9 @@
       </c>
     </row>
     <row r="369" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A369" s="51"/>
-      <c r="B369" s="54"/>
-      <c r="C369" s="58"/>
+      <c r="A369" s="48"/>
+      <c r="B369" s="51"/>
+      <c r="C369" s="53"/>
       <c r="D369" s="13" t="s">
         <v>42</v>
       </c>
@@ -32010,7 +32017,7 @@
       <c r="W369" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="X369" s="48"/>
+      <c r="X369" s="74"/>
       <c r="Y369" s="43"/>
       <c r="Z369" s="43"/>
       <c r="AA369" s="43"/>
@@ -32024,9 +32031,9 @@
       </c>
     </row>
     <row r="370" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A370" s="51"/>
-      <c r="B370" s="54"/>
-      <c r="C370" s="58"/>
+      <c r="A370" s="48"/>
+      <c r="B370" s="51"/>
+      <c r="C370" s="53"/>
       <c r="D370" s="13" t="s">
         <v>45</v>
       </c>
@@ -32087,7 +32094,7 @@
       <c r="W370" s="17">
         <v>1234567890</v>
       </c>
-      <c r="X370" s="48"/>
+      <c r="X370" s="74"/>
       <c r="Y370" s="43"/>
       <c r="Z370" s="43"/>
       <c r="AA370" s="43"/>
@@ -32101,9 +32108,9 @@
       </c>
     </row>
     <row r="371" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A371" s="51"/>
-      <c r="B371" s="54"/>
-      <c r="C371" s="58"/>
+      <c r="A371" s="48"/>
+      <c r="B371" s="51"/>
+      <c r="C371" s="53"/>
       <c r="D371" s="13" t="s">
         <v>47</v>
       </c>
@@ -32164,7 +32171,7 @@
       <c r="W371" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="X371" s="48"/>
+      <c r="X371" s="74"/>
       <c r="Y371" s="43"/>
       <c r="Z371" s="43"/>
       <c r="AA371" s="43"/>
@@ -32178,9 +32185,9 @@
       </c>
     </row>
     <row r="372" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A372" s="51"/>
-      <c r="B372" s="54"/>
-      <c r="C372" s="58"/>
+      <c r="A372" s="48"/>
+      <c r="B372" s="51"/>
+      <c r="C372" s="53"/>
       <c r="D372" s="13" t="s">
         <v>50</v>
       </c>
@@ -32241,7 +32248,7 @@
       <c r="W372" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="X372" s="48"/>
+      <c r="X372" s="74"/>
       <c r="Y372" s="43"/>
       <c r="Z372" s="43"/>
       <c r="AA372" s="43"/>
@@ -32255,9 +32262,9 @@
       </c>
     </row>
     <row r="373" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A373" s="51"/>
-      <c r="B373" s="54"/>
-      <c r="C373" s="58"/>
+      <c r="A373" s="48"/>
+      <c r="B373" s="51"/>
+      <c r="C373" s="53"/>
       <c r="D373" s="13" t="s">
         <v>53</v>
       </c>
@@ -32318,7 +32325,7 @@
       <c r="W373" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="X373" s="48"/>
+      <c r="X373" s="74"/>
       <c r="Y373" s="43"/>
       <c r="Z373" s="43"/>
       <c r="AA373" s="43"/>
@@ -32332,9 +32339,9 @@
       </c>
     </row>
     <row r="374" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A374" s="51"/>
-      <c r="B374" s="54"/>
-      <c r="C374" s="58"/>
+      <c r="A374" s="48"/>
+      <c r="B374" s="51"/>
+      <c r="C374" s="53"/>
       <c r="D374" s="13" t="s">
         <v>56</v>
       </c>
@@ -32395,7 +32402,7 @@
       <c r="W374" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="X374" s="48"/>
+      <c r="X374" s="74"/>
       <c r="Y374" s="43"/>
       <c r="Z374" s="43"/>
       <c r="AA374" s="43"/>
@@ -32409,9 +32416,9 @@
       </c>
     </row>
     <row r="375" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A375" s="51"/>
-      <c r="B375" s="54"/>
-      <c r="C375" s="58"/>
+      <c r="A375" s="48"/>
+      <c r="B375" s="51"/>
+      <c r="C375" s="53"/>
       <c r="D375" s="13" t="s">
         <v>56</v>
       </c>
@@ -32472,7 +32479,7 @@
       <c r="W375" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="X375" s="48"/>
+      <c r="X375" s="74"/>
       <c r="Y375" s="43"/>
       <c r="Z375" s="43"/>
       <c r="AA375" s="43"/>
@@ -32486,9 +32493,9 @@
       </c>
     </row>
     <row r="376" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A376" s="51"/>
-      <c r="B376" s="54"/>
-      <c r="C376" s="58"/>
+      <c r="A376" s="48"/>
+      <c r="B376" s="51"/>
+      <c r="C376" s="53"/>
       <c r="D376" s="13" t="s">
         <v>56</v>
       </c>
@@ -32549,7 +32556,7 @@
       <c r="W376" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="X376" s="48"/>
+      <c r="X376" s="74"/>
       <c r="Y376" s="43"/>
       <c r="Z376" s="43"/>
       <c r="AA376" s="43"/>
@@ -32563,9 +32570,9 @@
       </c>
     </row>
     <row r="377" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A377" s="51"/>
-      <c r="B377" s="54"/>
-      <c r="C377" s="58"/>
+      <c r="A377" s="48"/>
+      <c r="B377" s="51"/>
+      <c r="C377" s="53"/>
       <c r="D377" s="13" t="s">
         <v>70</v>
       </c>
@@ -32626,7 +32633,7 @@
       <c r="W377" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="X377" s="48"/>
+      <c r="X377" s="74"/>
       <c r="Y377" s="43"/>
       <c r="Z377" s="43"/>
       <c r="AA377" s="43"/>
@@ -32640,9 +32647,9 @@
       </c>
     </row>
     <row r="378" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A378" s="51"/>
-      <c r="B378" s="54"/>
-      <c r="C378" s="58"/>
+      <c r="A378" s="48"/>
+      <c r="B378" s="51"/>
+      <c r="C378" s="53"/>
       <c r="D378" s="13" t="s">
         <v>73</v>
       </c>
@@ -32703,7 +32710,7 @@
       <c r="W378" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="X378" s="48"/>
+      <c r="X378" s="74"/>
       <c r="Y378" s="43"/>
       <c r="Z378" s="43"/>
       <c r="AA378" s="43"/>
@@ -32717,9 +32724,9 @@
       </c>
     </row>
     <row r="379" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A379" s="51"/>
-      <c r="B379" s="54"/>
-      <c r="C379" s="58"/>
+      <c r="A379" s="48"/>
+      <c r="B379" s="51"/>
+      <c r="C379" s="53"/>
       <c r="D379" s="13" t="s">
         <v>76</v>
       </c>
@@ -32780,7 +32787,7 @@
       <c r="W379" s="17">
         <v>1.2345678899999999</v>
       </c>
-      <c r="X379" s="48"/>
+      <c r="X379" s="74"/>
       <c r="Y379" s="43"/>
       <c r="Z379" s="43"/>
       <c r="AA379" s="43"/>
@@ -32794,9 +32801,9 @@
       </c>
     </row>
     <row r="380" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A380" s="51"/>
-      <c r="B380" s="54"/>
-      <c r="C380" s="58"/>
+      <c r="A380" s="48"/>
+      <c r="B380" s="51"/>
+      <c r="C380" s="53"/>
       <c r="D380" s="13" t="s">
         <v>78</v>
       </c>
@@ -32857,7 +32864,7 @@
       <c r="W380" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="X380" s="48"/>
+      <c r="X380" s="74"/>
       <c r="Y380" s="43"/>
       <c r="Z380" s="43"/>
       <c r="AA380" s="43"/>
@@ -32871,9 +32878,9 @@
       </c>
     </row>
     <row r="381" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A381" s="51"/>
-      <c r="B381" s="54"/>
-      <c r="C381" s="58"/>
+      <c r="A381" s="48"/>
+      <c r="B381" s="51"/>
+      <c r="C381" s="53"/>
       <c r="D381" s="13" t="s">
         <v>81</v>
       </c>
@@ -32932,7 +32939,7 @@
       <c r="W381" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="X381" s="48"/>
+      <c r="X381" s="74"/>
       <c r="Y381" s="43"/>
       <c r="Z381" s="43"/>
       <c r="AA381" s="43"/>
@@ -32946,9 +32953,9 @@
       </c>
     </row>
     <row r="382" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A382" s="51"/>
-      <c r="B382" s="54"/>
-      <c r="C382" s="58"/>
+      <c r="A382" s="48"/>
+      <c r="B382" s="51"/>
+      <c r="C382" s="53"/>
       <c r="D382" s="13" t="s">
         <v>84</v>
       </c>
@@ -33007,7 +33014,7 @@
       <c r="W382" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="X382" s="48"/>
+      <c r="X382" s="74"/>
       <c r="Y382" s="43"/>
       <c r="Z382" s="43"/>
       <c r="AA382" s="43"/>
@@ -33021,9 +33028,9 @@
       </c>
     </row>
     <row r="383" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A383" s="51"/>
-      <c r="B383" s="54"/>
-      <c r="C383" s="58"/>
+      <c r="A383" s="48"/>
+      <c r="B383" s="51"/>
+      <c r="C383" s="53"/>
       <c r="D383" s="13" t="s">
         <v>87</v>
       </c>
@@ -33082,7 +33089,7 @@
       <c r="W383" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="X383" s="48"/>
+      <c r="X383" s="74"/>
       <c r="Y383" s="43"/>
       <c r="Z383" s="43"/>
       <c r="AA383" s="43"/>
@@ -33096,9 +33103,9 @@
       </c>
     </row>
     <row r="384" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A384" s="51"/>
-      <c r="B384" s="54"/>
-      <c r="C384" s="58"/>
+      <c r="A384" s="48"/>
+      <c r="B384" s="51"/>
+      <c r="C384" s="53"/>
       <c r="D384" s="13" t="s">
         <v>90</v>
       </c>
@@ -33157,7 +33164,7 @@
       <c r="W384" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="X384" s="48"/>
+      <c r="X384" s="74"/>
       <c r="Y384" s="43"/>
       <c r="Z384" s="43"/>
       <c r="AA384" s="43"/>
@@ -33171,9 +33178,9 @@
       </c>
     </row>
     <row r="385" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A385" s="51"/>
-      <c r="B385" s="54"/>
-      <c r="C385" s="59" t="s">
+      <c r="A385" s="48"/>
+      <c r="B385" s="51"/>
+      <c r="C385" s="54" t="s">
         <v>256</v>
       </c>
       <c r="D385" s="13" t="s">
@@ -33236,7 +33243,7 @@
       <c r="W385" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="X385" s="48"/>
+      <c r="X385" s="74"/>
       <c r="Y385" s="43"/>
       <c r="Z385" s="43"/>
       <c r="AA385" s="43"/>
@@ -33250,9 +33257,9 @@
       </c>
     </row>
     <row r="386" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A386" s="51"/>
-      <c r="B386" s="54"/>
-      <c r="C386" s="60"/>
+      <c r="A386" s="48"/>
+      <c r="B386" s="51"/>
+      <c r="C386" s="55"/>
       <c r="D386" s="13" t="s">
         <v>96</v>
       </c>
@@ -33311,7 +33318,7 @@
         <v>30</v>
       </c>
       <c r="W386" s="17"/>
-      <c r="X386" s="48"/>
+      <c r="X386" s="74"/>
       <c r="Y386" s="43"/>
       <c r="Z386" s="43"/>
       <c r="AA386" s="43"/>
@@ -33325,9 +33332,9 @@
       </c>
     </row>
     <row r="387" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A387" s="52"/>
-      <c r="B387" s="55"/>
-      <c r="C387" s="61"/>
+      <c r="A387" s="49"/>
+      <c r="B387" s="52"/>
+      <c r="C387" s="56"/>
       <c r="D387" s="15" t="s">
         <v>98</v>
       </c>
@@ -33388,7 +33395,7 @@
       <c r="W387" s="8" t="s">
         <v>646</v>
       </c>
-      <c r="X387" s="49"/>
+      <c r="X387" s="75"/>
       <c r="Y387" s="43"/>
       <c r="Z387" s="43"/>
       <c r="AA387" s="43"/>
@@ -33403,72 +33410,6 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="B2:B25"/>
-    <mergeCell ref="C3:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A47:A67"/>
-    <mergeCell ref="B47:B67"/>
-    <mergeCell ref="C48:C64"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="A26:A46"/>
-    <mergeCell ref="B26:B46"/>
-    <mergeCell ref="C27:C43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="A338:A362"/>
-    <mergeCell ref="B338:B362"/>
-    <mergeCell ref="C338:C342"/>
-    <mergeCell ref="C343:C359"/>
-    <mergeCell ref="C360:C362"/>
-    <mergeCell ref="A68:A92"/>
-    <mergeCell ref="B68:B92"/>
-    <mergeCell ref="C68:C72"/>
-    <mergeCell ref="C73:C89"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="A363:A387"/>
-    <mergeCell ref="B363:B387"/>
-    <mergeCell ref="C363:C367"/>
-    <mergeCell ref="C368:C384"/>
-    <mergeCell ref="C385:C387"/>
-    <mergeCell ref="A93:A101"/>
-    <mergeCell ref="B93:B101"/>
-    <mergeCell ref="C93:C101"/>
-    <mergeCell ref="D93:D95"/>
-    <mergeCell ref="A102:A127"/>
-    <mergeCell ref="B102:B127"/>
-    <mergeCell ref="C102:C106"/>
-    <mergeCell ref="C107:C123"/>
-    <mergeCell ref="C124:C127"/>
-    <mergeCell ref="A153:A177"/>
-    <mergeCell ref="B153:B177"/>
-    <mergeCell ref="C153:C157"/>
-    <mergeCell ref="C158:C174"/>
-    <mergeCell ref="C175:C177"/>
-    <mergeCell ref="A128:A152"/>
-    <mergeCell ref="B128:B152"/>
-    <mergeCell ref="C128:C132"/>
-    <mergeCell ref="C133:C149"/>
-    <mergeCell ref="C150:C152"/>
-    <mergeCell ref="A203:A227"/>
-    <mergeCell ref="B203:B227"/>
-    <mergeCell ref="C203:C207"/>
-    <mergeCell ref="C208:C224"/>
-    <mergeCell ref="C225:C227"/>
-    <mergeCell ref="A178:A202"/>
-    <mergeCell ref="B178:B202"/>
-    <mergeCell ref="C178:C182"/>
-    <mergeCell ref="C183:C199"/>
-    <mergeCell ref="C200:C202"/>
-    <mergeCell ref="A253:A276"/>
-    <mergeCell ref="B253:B276"/>
-    <mergeCell ref="C253:C256"/>
-    <mergeCell ref="C257:C273"/>
-    <mergeCell ref="C274:C276"/>
-    <mergeCell ref="A228:A252"/>
-    <mergeCell ref="B228:B252"/>
-    <mergeCell ref="C228:C232"/>
-    <mergeCell ref="C233:C249"/>
-    <mergeCell ref="C250:C252"/>
     <mergeCell ref="X1:X387"/>
     <mergeCell ref="A327:A337"/>
     <mergeCell ref="B327:B337"/>
@@ -33485,20 +33426,86 @@
     <mergeCell ref="C302:C306"/>
     <mergeCell ref="C307:C323"/>
     <mergeCell ref="C324:C326"/>
+    <mergeCell ref="A228:A252"/>
+    <mergeCell ref="B228:B252"/>
+    <mergeCell ref="C228:C232"/>
+    <mergeCell ref="C233:C249"/>
+    <mergeCell ref="C250:C252"/>
+    <mergeCell ref="A253:A276"/>
+    <mergeCell ref="B253:B276"/>
+    <mergeCell ref="C253:C256"/>
+    <mergeCell ref="C257:C273"/>
+    <mergeCell ref="C274:C276"/>
+    <mergeCell ref="A178:A202"/>
+    <mergeCell ref="B178:B202"/>
+    <mergeCell ref="C178:C182"/>
+    <mergeCell ref="C183:C199"/>
+    <mergeCell ref="C200:C202"/>
+    <mergeCell ref="A203:A227"/>
+    <mergeCell ref="B203:B227"/>
+    <mergeCell ref="C203:C207"/>
+    <mergeCell ref="C208:C224"/>
+    <mergeCell ref="C225:C227"/>
+    <mergeCell ref="A128:A152"/>
+    <mergeCell ref="B128:B152"/>
+    <mergeCell ref="C128:C132"/>
+    <mergeCell ref="C133:C149"/>
+    <mergeCell ref="C150:C152"/>
+    <mergeCell ref="A153:A177"/>
+    <mergeCell ref="B153:B177"/>
+    <mergeCell ref="C153:C157"/>
+    <mergeCell ref="C158:C174"/>
+    <mergeCell ref="C175:C177"/>
+    <mergeCell ref="A93:A101"/>
+    <mergeCell ref="B93:B101"/>
+    <mergeCell ref="C93:C101"/>
+    <mergeCell ref="D93:D95"/>
+    <mergeCell ref="A102:A127"/>
+    <mergeCell ref="B102:B127"/>
+    <mergeCell ref="C102:C106"/>
+    <mergeCell ref="C107:C123"/>
+    <mergeCell ref="C124:C127"/>
+    <mergeCell ref="A363:A387"/>
+    <mergeCell ref="B363:B387"/>
+    <mergeCell ref="C363:C367"/>
+    <mergeCell ref="C368:C384"/>
+    <mergeCell ref="C385:C387"/>
+    <mergeCell ref="A68:A92"/>
+    <mergeCell ref="B68:B92"/>
+    <mergeCell ref="C68:C72"/>
+    <mergeCell ref="C73:C89"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="A338:A362"/>
+    <mergeCell ref="B338:B362"/>
+    <mergeCell ref="C338:C342"/>
+    <mergeCell ref="C343:C359"/>
+    <mergeCell ref="C360:C362"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="C3:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A47:A67"/>
+    <mergeCell ref="B47:B67"/>
+    <mergeCell ref="C48:C64"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="A26:A46"/>
+    <mergeCell ref="B26:B46"/>
+    <mergeCell ref="C27:C43"/>
+    <mergeCell ref="C44:C46"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E387">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E387" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Valid,Invalid"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="W374" r:id="rId1"/>
-    <hyperlink ref="W377" r:id="rId2"/>
-    <hyperlink ref="W378" r:id="rId3"/>
-    <hyperlink ref="T300" r:id="rId4"/>
-    <hyperlink ref="T324" r:id="rId5"/>
-    <hyperlink ref="K99" r:id="rId6"/>
-    <hyperlink ref="T301" r:id="rId7"/>
+    <hyperlink ref="W374" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="W377" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="W378" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="T300" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="T324" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="K99" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="T301" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
